--- a/NiceAdmin/data_cleaning/Sales_Records_Database.xlsx
+++ b/NiceAdmin/data_cleaning/Sales_Records_Database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\SABILLO\NiceAdmin\data_cleaning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AAC9349-E68E-4AA9-8A11-5F7F8A47A90E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC2128E3-56EA-4F5C-8A5E-175B2332A195}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="2" xr2:uid="{0DF4514D-35E9-40A5-B2BC-40CDB35129D2}"/>
   </bookViews>
@@ -264,13 +264,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.499984740745262"/>
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <fgColor theme="3" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -304,19 +304,21 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="60">
+  <dxfs count="81">
     <dxf>
       <numFmt numFmtId="4" formatCode="#,##0.00"/>
     </dxf>
@@ -460,6 +462,69 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="4" formatCode="#,##0.00"/>
@@ -5653,6 +5718,36 @@
             <a:sp3d/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="11"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill flip="none" rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent6">
+                      <a:alpha val="0"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent6"/>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="10800000" scaled="1"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000000-EC0E-479E-BCEE-A126FF2C1DFE}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
           <c:dLbls>
             <c:dLbl>
               <c:idx val="11"/>
@@ -5670,6 +5765,9 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-EC0E-479E-BCEE-A126FF2C1DFE}"/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -16802,13 +16900,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>96116</xdr:colOff>
+      <xdr:colOff>115166</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>81643</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>136072</xdr:colOff>
+      <xdr:colOff>323850</xdr:colOff>
       <xdr:row>70</xdr:row>
       <xdr:rowOff>176894</xdr:rowOff>
     </xdr:to>
@@ -16825,8 +16923,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="96116" y="2177143"/>
-          <a:ext cx="1876920" cy="11334751"/>
+          <a:off x="115166" y="2177143"/>
+          <a:ext cx="2037484" cy="11334751"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -16977,13 +17075,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>242207</xdr:colOff>
+      <xdr:colOff>537482</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>80282</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>512990</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>198665</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>166007</xdr:rowOff>
     </xdr:to>
@@ -17000,7 +17098,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2071007" y="2175782"/>
+          <a:off x="2366282" y="2175782"/>
           <a:ext cx="5757183" cy="3324225"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -17046,14 +17144,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>367393</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>53068</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>27214</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>394607</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>80282</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>27213</xdr:rowOff>
     </xdr:to>
@@ -17193,13 +17291,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>220435</xdr:colOff>
+      <xdr:colOff>529317</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>149679</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>491218</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
       <xdr:row>48</xdr:row>
       <xdr:rowOff>44904</xdr:rowOff>
     </xdr:to>
@@ -17216,8 +17314,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2059174" y="5864679"/>
-          <a:ext cx="5787001" cy="3324225"/>
+          <a:off x="2366281" y="5864679"/>
+          <a:ext cx="5784398" cy="3324225"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -17332,14 +17430,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>330654</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>39461</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>108857</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>357868</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
       <xdr:row>47</xdr:row>
       <xdr:rowOff>108857</xdr:rowOff>
     </xdr:to>
@@ -17409,13 +17507,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>206828</xdr:colOff>
+      <xdr:colOff>514349</xdr:colOff>
       <xdr:row>49</xdr:row>
       <xdr:rowOff>40823</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
+      <xdr:colOff>485774</xdr:colOff>
       <xdr:row>71</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
@@ -17432,8 +17530,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2043792" y="9375323"/>
-          <a:ext cx="12525376" cy="4150178"/>
+          <a:off x="2343149" y="9375323"/>
+          <a:ext cx="12163425" cy="4150178"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -17478,16 +17576,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>340177</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>13607</xdr:rowOff>
+      <xdr:rowOff>24813</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>352424</xdr:colOff>
       <xdr:row>70</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>11206</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -17517,18 +17615,18 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>179450</xdr:colOff>
+      <xdr:colOff>264117</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>26739</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>37468</xdr:colOff>
+      <xdr:colOff>179917</xdr:colOff>
       <xdr:row>36</xdr:row>
       <xdr:rowOff>176888</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="16" name="customer">
@@ -17551,7 +17649,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -17561,8 +17659,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="179450" y="2503239"/>
-              <a:ext cx="1686818" cy="4531649"/>
+              <a:off x="264117" y="2503239"/>
+              <a:ext cx="1731153" cy="4531649"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -17595,18 +17693,18 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>191861</xdr:colOff>
+      <xdr:colOff>266567</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>44905</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>27215</xdr:colOff>
+      <xdr:colOff>159373</xdr:colOff>
       <xdr:row>68</xdr:row>
       <xdr:rowOff>176894</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="18" name="product">
@@ -17629,7 +17727,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -17639,8 +17737,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="191861" y="7474405"/>
-              <a:ext cx="1664154" cy="5656489"/>
+              <a:off x="266567" y="7474405"/>
+              <a:ext cx="1708159" cy="5656489"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -18790,1457 +18888,6 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CB27C87A-09C5-46D4-9623-7F36AE8E740E}" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
-  <location ref="A28:B32" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="12">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="16">
-        <item x="0"/>
-        <item x="11"/>
-        <item x="6"/>
-        <item x="9"/>
-        <item x="5"/>
-        <item x="13"/>
-        <item x="4"/>
-        <item x="1"/>
-        <item x="3"/>
-        <item x="10"/>
-        <item x="7"/>
-        <item x="14"/>
-        <item x="2"/>
-        <item x="12"/>
-        <item x="8"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="20">
-        <item x="15"/>
-        <item x="5"/>
-        <item x="9"/>
-        <item x="2"/>
-        <item x="12"/>
-        <item x="16"/>
-        <item x="7"/>
-        <item x="0"/>
-        <item x="11"/>
-        <item x="4"/>
-        <item x="10"/>
-        <item x="13"/>
-        <item x="1"/>
-        <item x="6"/>
-        <item x="8"/>
-        <item x="18"/>
-        <item x="17"/>
-        <item x="14"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" numFmtId="4" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0" sortType="descending">
-      <items count="4">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-      <autoSortScope>
-        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
-          <references count="1">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </autoSortScope>
-    </pivotField>
-    <pivotField numFmtId="22" showAll="0">
-      <items count="63">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item x="22"/>
-        <item x="23"/>
-        <item x="24"/>
-        <item x="25"/>
-        <item x="26"/>
-        <item x="27"/>
-        <item x="28"/>
-        <item x="29"/>
-        <item x="30"/>
-        <item x="31"/>
-        <item x="32"/>
-        <item x="33"/>
-        <item x="34"/>
-        <item x="35"/>
-        <item x="36"/>
-        <item x="37"/>
-        <item x="38"/>
-        <item x="39"/>
-        <item x="40"/>
-        <item x="41"/>
-        <item x="42"/>
-        <item x="43"/>
-        <item x="44"/>
-        <item x="45"/>
-        <item x="46"/>
-        <item x="47"/>
-        <item x="48"/>
-        <item x="49"/>
-        <item x="50"/>
-        <item x="51"/>
-        <item x="52"/>
-        <item x="53"/>
-        <item x="54"/>
-        <item x="55"/>
-        <item x="56"/>
-        <item x="57"/>
-        <item x="58"/>
-        <item x="59"/>
-        <item x="60"/>
-        <item x="61"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="63">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item x="22"/>
-        <item x="23"/>
-        <item x="24"/>
-        <item x="25"/>
-        <item x="26"/>
-        <item x="27"/>
-        <item x="28"/>
-        <item x="29"/>
-        <item x="30"/>
-        <item x="31"/>
-        <item x="32"/>
-        <item x="33"/>
-        <item x="34"/>
-        <item x="35"/>
-        <item x="36"/>
-        <item x="37"/>
-        <item x="38"/>
-        <item x="39"/>
-        <item x="40"/>
-        <item x="41"/>
-        <item x="42"/>
-        <item x="43"/>
-        <item x="44"/>
-        <item x="45"/>
-        <item x="46"/>
-        <item x="47"/>
-        <item x="48"/>
-        <item x="49"/>
-        <item x="50"/>
-        <item x="51"/>
-        <item x="52"/>
-        <item x="53"/>
-        <item x="54"/>
-        <item x="55"/>
-        <item x="56"/>
-        <item x="57"/>
-        <item x="58"/>
-        <item x="59"/>
-        <item x="60"/>
-        <item x="61"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="27">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item x="22"/>
-        <item x="23"/>
-        <item x="24"/>
-        <item x="25"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="369">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item x="22"/>
-        <item x="23"/>
-        <item x="24"/>
-        <item x="25"/>
-        <item x="26"/>
-        <item x="27"/>
-        <item x="28"/>
-        <item x="29"/>
-        <item x="30"/>
-        <item x="31"/>
-        <item x="32"/>
-        <item x="33"/>
-        <item x="34"/>
-        <item x="35"/>
-        <item x="36"/>
-        <item x="37"/>
-        <item x="38"/>
-        <item x="39"/>
-        <item x="40"/>
-        <item x="41"/>
-        <item x="42"/>
-        <item x="43"/>
-        <item x="44"/>
-        <item x="45"/>
-        <item x="46"/>
-        <item x="47"/>
-        <item x="48"/>
-        <item x="49"/>
-        <item x="50"/>
-        <item x="51"/>
-        <item x="52"/>
-        <item x="53"/>
-        <item x="54"/>
-        <item x="55"/>
-        <item x="56"/>
-        <item x="57"/>
-        <item x="58"/>
-        <item x="59"/>
-        <item x="60"/>
-        <item x="61"/>
-        <item x="62"/>
-        <item x="63"/>
-        <item x="64"/>
-        <item x="65"/>
-        <item x="66"/>
-        <item x="67"/>
-        <item x="68"/>
-        <item x="69"/>
-        <item x="70"/>
-        <item x="71"/>
-        <item x="72"/>
-        <item x="73"/>
-        <item x="74"/>
-        <item x="75"/>
-        <item x="76"/>
-        <item x="77"/>
-        <item x="78"/>
-        <item x="79"/>
-        <item x="80"/>
-        <item x="81"/>
-        <item x="82"/>
-        <item x="83"/>
-        <item x="84"/>
-        <item x="85"/>
-        <item x="86"/>
-        <item x="87"/>
-        <item x="88"/>
-        <item x="89"/>
-        <item x="90"/>
-        <item x="91"/>
-        <item x="92"/>
-        <item x="93"/>
-        <item x="94"/>
-        <item x="95"/>
-        <item x="96"/>
-        <item x="97"/>
-        <item x="98"/>
-        <item x="99"/>
-        <item x="100"/>
-        <item x="101"/>
-        <item x="102"/>
-        <item x="103"/>
-        <item x="104"/>
-        <item x="105"/>
-        <item x="106"/>
-        <item x="107"/>
-        <item x="108"/>
-        <item x="109"/>
-        <item x="110"/>
-        <item x="111"/>
-        <item x="112"/>
-        <item x="113"/>
-        <item x="114"/>
-        <item x="115"/>
-        <item x="116"/>
-        <item x="117"/>
-        <item x="118"/>
-        <item x="119"/>
-        <item x="120"/>
-        <item x="121"/>
-        <item x="122"/>
-        <item x="123"/>
-        <item x="124"/>
-        <item x="125"/>
-        <item x="126"/>
-        <item x="127"/>
-        <item x="128"/>
-        <item x="129"/>
-        <item x="130"/>
-        <item x="131"/>
-        <item x="132"/>
-        <item x="133"/>
-        <item x="134"/>
-        <item x="135"/>
-        <item x="136"/>
-        <item x="137"/>
-        <item x="138"/>
-        <item x="139"/>
-        <item x="140"/>
-        <item x="141"/>
-        <item x="142"/>
-        <item x="143"/>
-        <item x="144"/>
-        <item x="145"/>
-        <item x="146"/>
-        <item x="147"/>
-        <item x="148"/>
-        <item x="149"/>
-        <item x="150"/>
-        <item x="151"/>
-        <item x="152"/>
-        <item x="153"/>
-        <item x="154"/>
-        <item x="155"/>
-        <item x="156"/>
-        <item x="157"/>
-        <item x="158"/>
-        <item x="159"/>
-        <item x="160"/>
-        <item x="161"/>
-        <item x="162"/>
-        <item x="163"/>
-        <item x="164"/>
-        <item x="165"/>
-        <item x="166"/>
-        <item x="167"/>
-        <item x="168"/>
-        <item x="169"/>
-        <item x="170"/>
-        <item x="171"/>
-        <item x="172"/>
-        <item x="173"/>
-        <item x="174"/>
-        <item x="175"/>
-        <item x="176"/>
-        <item x="177"/>
-        <item x="178"/>
-        <item x="179"/>
-        <item x="180"/>
-        <item x="181"/>
-        <item x="182"/>
-        <item x="183"/>
-        <item x="184"/>
-        <item x="185"/>
-        <item x="186"/>
-        <item x="187"/>
-        <item x="188"/>
-        <item x="189"/>
-        <item x="190"/>
-        <item x="191"/>
-        <item x="192"/>
-        <item x="193"/>
-        <item x="194"/>
-        <item x="195"/>
-        <item x="196"/>
-        <item x="197"/>
-        <item x="198"/>
-        <item x="199"/>
-        <item x="200"/>
-        <item x="201"/>
-        <item x="202"/>
-        <item x="203"/>
-        <item x="204"/>
-        <item x="205"/>
-        <item x="206"/>
-        <item x="207"/>
-        <item x="208"/>
-        <item x="209"/>
-        <item x="210"/>
-        <item x="211"/>
-        <item x="212"/>
-        <item x="213"/>
-        <item x="214"/>
-        <item x="215"/>
-        <item x="216"/>
-        <item x="217"/>
-        <item x="218"/>
-        <item x="219"/>
-        <item x="220"/>
-        <item x="221"/>
-        <item x="222"/>
-        <item x="223"/>
-        <item x="224"/>
-        <item x="225"/>
-        <item x="226"/>
-        <item x="227"/>
-        <item x="228"/>
-        <item x="229"/>
-        <item x="230"/>
-        <item x="231"/>
-        <item x="232"/>
-        <item x="233"/>
-        <item x="234"/>
-        <item x="235"/>
-        <item x="236"/>
-        <item x="237"/>
-        <item x="238"/>
-        <item x="239"/>
-        <item x="240"/>
-        <item x="241"/>
-        <item x="242"/>
-        <item x="243"/>
-        <item x="244"/>
-        <item x="245"/>
-        <item x="246"/>
-        <item x="247"/>
-        <item x="248"/>
-        <item x="249"/>
-        <item x="250"/>
-        <item x="251"/>
-        <item x="252"/>
-        <item x="253"/>
-        <item x="254"/>
-        <item x="255"/>
-        <item x="256"/>
-        <item x="257"/>
-        <item x="258"/>
-        <item x="259"/>
-        <item x="260"/>
-        <item x="261"/>
-        <item x="262"/>
-        <item x="263"/>
-        <item x="264"/>
-        <item x="265"/>
-        <item x="266"/>
-        <item x="267"/>
-        <item x="268"/>
-        <item x="269"/>
-        <item x="270"/>
-        <item x="271"/>
-        <item x="272"/>
-        <item x="273"/>
-        <item x="274"/>
-        <item x="275"/>
-        <item x="276"/>
-        <item x="277"/>
-        <item x="278"/>
-        <item x="279"/>
-        <item x="280"/>
-        <item x="281"/>
-        <item x="282"/>
-        <item x="283"/>
-        <item x="284"/>
-        <item x="285"/>
-        <item x="286"/>
-        <item x="287"/>
-        <item x="288"/>
-        <item x="289"/>
-        <item x="290"/>
-        <item x="291"/>
-        <item x="292"/>
-        <item x="293"/>
-        <item x="294"/>
-        <item x="295"/>
-        <item x="296"/>
-        <item x="297"/>
-        <item x="298"/>
-        <item x="299"/>
-        <item x="300"/>
-        <item x="301"/>
-        <item x="302"/>
-        <item x="303"/>
-        <item x="304"/>
-        <item x="305"/>
-        <item x="306"/>
-        <item x="307"/>
-        <item x="308"/>
-        <item x="309"/>
-        <item x="310"/>
-        <item x="311"/>
-        <item x="312"/>
-        <item x="313"/>
-        <item x="314"/>
-        <item x="315"/>
-        <item x="316"/>
-        <item x="317"/>
-        <item x="318"/>
-        <item x="319"/>
-        <item x="320"/>
-        <item x="321"/>
-        <item x="322"/>
-        <item x="323"/>
-        <item x="324"/>
-        <item x="325"/>
-        <item x="326"/>
-        <item x="327"/>
-        <item x="328"/>
-        <item x="329"/>
-        <item x="330"/>
-        <item x="331"/>
-        <item x="332"/>
-        <item x="333"/>
-        <item x="334"/>
-        <item x="335"/>
-        <item x="336"/>
-        <item x="337"/>
-        <item x="338"/>
-        <item x="339"/>
-        <item x="340"/>
-        <item x="341"/>
-        <item x="342"/>
-        <item x="343"/>
-        <item x="344"/>
-        <item x="345"/>
-        <item x="346"/>
-        <item x="347"/>
-        <item x="348"/>
-        <item x="349"/>
-        <item x="350"/>
-        <item x="351"/>
-        <item x="352"/>
-        <item x="353"/>
-        <item x="354"/>
-        <item x="355"/>
-        <item x="356"/>
-        <item x="357"/>
-        <item x="358"/>
-        <item x="359"/>
-        <item x="360"/>
-        <item x="361"/>
-        <item x="362"/>
-        <item x="363"/>
-        <item x="364"/>
-        <item x="365"/>
-        <item x="366"/>
-        <item x="367"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="7"/>
-  </rowFields>
-  <rowItems count="4">
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of total" fld="5" baseField="0" baseItem="0" numFmtId="4"/>
-  </dataFields>
-  <formats count="3">
-    <format dxfId="44">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="1">
-          <reference field="7" count="1">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="43">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="42">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-  </formats>
-  <chartFormats count="8">
-    <chartFormat chart="0" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="7" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="2">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="7" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="3">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="7" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="8" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="9">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="7" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="10">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="7" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="11">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="7" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B138C36C-A2D6-4297-B9C4-18182CB4A708}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
-  <location ref="J3:K19" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="12">
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0" sortType="descending">
-      <items count="16">
-        <item x="0"/>
-        <item x="11"/>
-        <item x="6"/>
-        <item x="9"/>
-        <item x="5"/>
-        <item x="13"/>
-        <item x="4"/>
-        <item x="1"/>
-        <item x="3"/>
-        <item x="10"/>
-        <item x="7"/>
-        <item x="14"/>
-        <item x="2"/>
-        <item x="12"/>
-        <item x="8"/>
-        <item t="default"/>
-      </items>
-      <autoSortScope>
-        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
-          <references count="1">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </autoSortScope>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="20">
-        <item x="15"/>
-        <item x="5"/>
-        <item x="9"/>
-        <item x="2"/>
-        <item x="12"/>
-        <item x="16"/>
-        <item x="7"/>
-        <item x="0"/>
-        <item x="11"/>
-        <item x="4"/>
-        <item x="10"/>
-        <item x="13"/>
-        <item x="1"/>
-        <item x="6"/>
-        <item x="8"/>
-        <item x="18"/>
-        <item x="17"/>
-        <item x="14"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" numFmtId="4" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="22" showAll="0">
-      <items count="63">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item x="22"/>
-        <item x="23"/>
-        <item x="24"/>
-        <item x="25"/>
-        <item x="26"/>
-        <item x="27"/>
-        <item x="28"/>
-        <item x="29"/>
-        <item x="30"/>
-        <item x="31"/>
-        <item x="32"/>
-        <item x="33"/>
-        <item x="34"/>
-        <item x="35"/>
-        <item x="36"/>
-        <item x="37"/>
-        <item x="38"/>
-        <item x="39"/>
-        <item x="40"/>
-        <item x="41"/>
-        <item x="42"/>
-        <item x="43"/>
-        <item x="44"/>
-        <item x="45"/>
-        <item x="46"/>
-        <item x="47"/>
-        <item x="48"/>
-        <item x="49"/>
-        <item x="50"/>
-        <item x="51"/>
-        <item x="52"/>
-        <item x="53"/>
-        <item x="54"/>
-        <item x="55"/>
-        <item x="56"/>
-        <item x="57"/>
-        <item x="58"/>
-        <item x="59"/>
-        <item x="60"/>
-        <item x="61"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="63">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item x="22"/>
-        <item x="23"/>
-        <item x="24"/>
-        <item x="25"/>
-        <item x="26"/>
-        <item x="27"/>
-        <item x="28"/>
-        <item x="29"/>
-        <item x="30"/>
-        <item x="31"/>
-        <item x="32"/>
-        <item x="33"/>
-        <item x="34"/>
-        <item x="35"/>
-        <item x="36"/>
-        <item x="37"/>
-        <item x="38"/>
-        <item x="39"/>
-        <item x="40"/>
-        <item x="41"/>
-        <item x="42"/>
-        <item x="43"/>
-        <item x="44"/>
-        <item x="45"/>
-        <item x="46"/>
-        <item x="47"/>
-        <item x="48"/>
-        <item x="49"/>
-        <item x="50"/>
-        <item x="51"/>
-        <item x="52"/>
-        <item x="53"/>
-        <item x="54"/>
-        <item x="55"/>
-        <item x="56"/>
-        <item x="57"/>
-        <item x="58"/>
-        <item x="59"/>
-        <item x="60"/>
-        <item x="61"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="27">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item x="22"/>
-        <item x="23"/>
-        <item x="24"/>
-        <item x="25"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="369">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item x="22"/>
-        <item x="23"/>
-        <item x="24"/>
-        <item x="25"/>
-        <item x="26"/>
-        <item x="27"/>
-        <item x="28"/>
-        <item x="29"/>
-        <item x="30"/>
-        <item x="31"/>
-        <item x="32"/>
-        <item x="33"/>
-        <item x="34"/>
-        <item x="35"/>
-        <item x="36"/>
-        <item x="37"/>
-        <item x="38"/>
-        <item x="39"/>
-        <item x="40"/>
-        <item x="41"/>
-        <item x="42"/>
-        <item x="43"/>
-        <item x="44"/>
-        <item x="45"/>
-        <item x="46"/>
-        <item x="47"/>
-        <item x="48"/>
-        <item x="49"/>
-        <item x="50"/>
-        <item x="51"/>
-        <item x="52"/>
-        <item x="53"/>
-        <item x="54"/>
-        <item x="55"/>
-        <item x="56"/>
-        <item x="57"/>
-        <item x="58"/>
-        <item x="59"/>
-        <item x="60"/>
-        <item x="61"/>
-        <item x="62"/>
-        <item x="63"/>
-        <item x="64"/>
-        <item x="65"/>
-        <item x="66"/>
-        <item x="67"/>
-        <item x="68"/>
-        <item x="69"/>
-        <item x="70"/>
-        <item x="71"/>
-        <item x="72"/>
-        <item x="73"/>
-        <item x="74"/>
-        <item x="75"/>
-        <item x="76"/>
-        <item x="77"/>
-        <item x="78"/>
-        <item x="79"/>
-        <item x="80"/>
-        <item x="81"/>
-        <item x="82"/>
-        <item x="83"/>
-        <item x="84"/>
-        <item x="85"/>
-        <item x="86"/>
-        <item x="87"/>
-        <item x="88"/>
-        <item x="89"/>
-        <item x="90"/>
-        <item x="91"/>
-        <item x="92"/>
-        <item x="93"/>
-        <item x="94"/>
-        <item x="95"/>
-        <item x="96"/>
-        <item x="97"/>
-        <item x="98"/>
-        <item x="99"/>
-        <item x="100"/>
-        <item x="101"/>
-        <item x="102"/>
-        <item x="103"/>
-        <item x="104"/>
-        <item x="105"/>
-        <item x="106"/>
-        <item x="107"/>
-        <item x="108"/>
-        <item x="109"/>
-        <item x="110"/>
-        <item x="111"/>
-        <item x="112"/>
-        <item x="113"/>
-        <item x="114"/>
-        <item x="115"/>
-        <item x="116"/>
-        <item x="117"/>
-        <item x="118"/>
-        <item x="119"/>
-        <item x="120"/>
-        <item x="121"/>
-        <item x="122"/>
-        <item x="123"/>
-        <item x="124"/>
-        <item x="125"/>
-        <item x="126"/>
-        <item x="127"/>
-        <item x="128"/>
-        <item x="129"/>
-        <item x="130"/>
-        <item x="131"/>
-        <item x="132"/>
-        <item x="133"/>
-        <item x="134"/>
-        <item x="135"/>
-        <item x="136"/>
-        <item x="137"/>
-        <item x="138"/>
-        <item x="139"/>
-        <item x="140"/>
-        <item x="141"/>
-        <item x="142"/>
-        <item x="143"/>
-        <item x="144"/>
-        <item x="145"/>
-        <item x="146"/>
-        <item x="147"/>
-        <item x="148"/>
-        <item x="149"/>
-        <item x="150"/>
-        <item x="151"/>
-        <item x="152"/>
-        <item x="153"/>
-        <item x="154"/>
-        <item x="155"/>
-        <item x="156"/>
-        <item x="157"/>
-        <item x="158"/>
-        <item x="159"/>
-        <item x="160"/>
-        <item x="161"/>
-        <item x="162"/>
-        <item x="163"/>
-        <item x="164"/>
-        <item x="165"/>
-        <item x="166"/>
-        <item x="167"/>
-        <item x="168"/>
-        <item x="169"/>
-        <item x="170"/>
-        <item x="171"/>
-        <item x="172"/>
-        <item x="173"/>
-        <item x="174"/>
-        <item x="175"/>
-        <item x="176"/>
-        <item x="177"/>
-        <item x="178"/>
-        <item x="179"/>
-        <item x="180"/>
-        <item x="181"/>
-        <item x="182"/>
-        <item x="183"/>
-        <item x="184"/>
-        <item x="185"/>
-        <item x="186"/>
-        <item x="187"/>
-        <item x="188"/>
-        <item x="189"/>
-        <item x="190"/>
-        <item x="191"/>
-        <item x="192"/>
-        <item x="193"/>
-        <item x="194"/>
-        <item x="195"/>
-        <item x="196"/>
-        <item x="197"/>
-        <item x="198"/>
-        <item x="199"/>
-        <item x="200"/>
-        <item x="201"/>
-        <item x="202"/>
-        <item x="203"/>
-        <item x="204"/>
-        <item x="205"/>
-        <item x="206"/>
-        <item x="207"/>
-        <item x="208"/>
-        <item x="209"/>
-        <item x="210"/>
-        <item x="211"/>
-        <item x="212"/>
-        <item x="213"/>
-        <item x="214"/>
-        <item x="215"/>
-        <item x="216"/>
-        <item x="217"/>
-        <item x="218"/>
-        <item x="219"/>
-        <item x="220"/>
-        <item x="221"/>
-        <item x="222"/>
-        <item x="223"/>
-        <item x="224"/>
-        <item x="225"/>
-        <item x="226"/>
-        <item x="227"/>
-        <item x="228"/>
-        <item x="229"/>
-        <item x="230"/>
-        <item x="231"/>
-        <item x="232"/>
-        <item x="233"/>
-        <item x="234"/>
-        <item x="235"/>
-        <item x="236"/>
-        <item x="237"/>
-        <item x="238"/>
-        <item x="239"/>
-        <item x="240"/>
-        <item x="241"/>
-        <item x="242"/>
-        <item x="243"/>
-        <item x="244"/>
-        <item x="245"/>
-        <item x="246"/>
-        <item x="247"/>
-        <item x="248"/>
-        <item x="249"/>
-        <item x="250"/>
-        <item x="251"/>
-        <item x="252"/>
-        <item x="253"/>
-        <item x="254"/>
-        <item x="255"/>
-        <item x="256"/>
-        <item x="257"/>
-        <item x="258"/>
-        <item x="259"/>
-        <item x="260"/>
-        <item x="261"/>
-        <item x="262"/>
-        <item x="263"/>
-        <item x="264"/>
-        <item x="265"/>
-        <item x="266"/>
-        <item x="267"/>
-        <item x="268"/>
-        <item x="269"/>
-        <item x="270"/>
-        <item x="271"/>
-        <item x="272"/>
-        <item x="273"/>
-        <item x="274"/>
-        <item x="275"/>
-        <item x="276"/>
-        <item x="277"/>
-        <item x="278"/>
-        <item x="279"/>
-        <item x="280"/>
-        <item x="281"/>
-        <item x="282"/>
-        <item x="283"/>
-        <item x="284"/>
-        <item x="285"/>
-        <item x="286"/>
-        <item x="287"/>
-        <item x="288"/>
-        <item x="289"/>
-        <item x="290"/>
-        <item x="291"/>
-        <item x="292"/>
-        <item x="293"/>
-        <item x="294"/>
-        <item x="295"/>
-        <item x="296"/>
-        <item x="297"/>
-        <item x="298"/>
-        <item x="299"/>
-        <item x="300"/>
-        <item x="301"/>
-        <item x="302"/>
-        <item x="303"/>
-        <item x="304"/>
-        <item x="305"/>
-        <item x="306"/>
-        <item x="307"/>
-        <item x="308"/>
-        <item x="309"/>
-        <item x="310"/>
-        <item x="311"/>
-        <item x="312"/>
-        <item x="313"/>
-        <item x="314"/>
-        <item x="315"/>
-        <item x="316"/>
-        <item x="317"/>
-        <item x="318"/>
-        <item x="319"/>
-        <item x="320"/>
-        <item x="321"/>
-        <item x="322"/>
-        <item x="323"/>
-        <item x="324"/>
-        <item x="325"/>
-        <item x="326"/>
-        <item x="327"/>
-        <item x="328"/>
-        <item x="329"/>
-        <item x="330"/>
-        <item x="331"/>
-        <item x="332"/>
-        <item x="333"/>
-        <item x="334"/>
-        <item x="335"/>
-        <item x="336"/>
-        <item x="337"/>
-        <item x="338"/>
-        <item x="339"/>
-        <item x="340"/>
-        <item x="341"/>
-        <item x="342"/>
-        <item x="343"/>
-        <item x="344"/>
-        <item x="345"/>
-        <item x="346"/>
-        <item x="347"/>
-        <item x="348"/>
-        <item x="349"/>
-        <item x="350"/>
-        <item x="351"/>
-        <item x="352"/>
-        <item x="353"/>
-        <item x="354"/>
-        <item x="355"/>
-        <item x="356"/>
-        <item x="357"/>
-        <item x="358"/>
-        <item x="359"/>
-        <item x="360"/>
-        <item x="361"/>
-        <item x="362"/>
-        <item x="363"/>
-        <item x="364"/>
-        <item x="365"/>
-        <item x="366"/>
-        <item x="367"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="16">
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="13"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="14"/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of total" fld="5" baseField="0" baseItem="0"/>
-  </dataFields>
-  <formats count="1">
-    <format dxfId="45">
-      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-  </formats>
-  <chartFormats count="2">
-    <chartFormat chart="0" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C8812987-1B60-429D-8BF3-39925A604676}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
   <location ref="A3:B23" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="12">
@@ -20914,7 +19561,7 @@
     <dataField name="Sum of total" fld="5" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="46">
+    <format dxfId="63">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -20962,7 +19609,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1DF43410-8FF7-42C5-89A2-E64FCF970048}" name="PivotTable5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
   <location ref="A48:B53" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="12">
@@ -21594,7 +20241,7 @@
     <dataField name="Sum of total" fld="5" baseField="0" baseItem="0" numFmtId="4"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="47">
+    <format dxfId="64">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -21630,7 +20277,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{71949967-49AC-4C68-BC32-03DE40E99570}" name="PivotTable4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
   <location ref="J28:K32" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="12">
@@ -22263,7 +20910,7 @@
     <dataField name="Sum of total" fld="5" baseField="0" baseItem="0" numFmtId="4"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="48">
+    <format dxfId="65">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -22371,6 +21018,1457 @@
 </pivotTableDefinition>
 </file>
 
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CB27C87A-09C5-46D4-9623-7F36AE8E740E}" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+  <location ref="A28:B32" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="12">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="16">
+        <item x="0"/>
+        <item x="11"/>
+        <item x="6"/>
+        <item x="9"/>
+        <item x="5"/>
+        <item x="13"/>
+        <item x="4"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="10"/>
+        <item x="7"/>
+        <item x="14"/>
+        <item x="2"/>
+        <item x="12"/>
+        <item x="8"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="20">
+        <item x="15"/>
+        <item x="5"/>
+        <item x="9"/>
+        <item x="2"/>
+        <item x="12"/>
+        <item x="16"/>
+        <item x="7"/>
+        <item x="0"/>
+        <item x="11"/>
+        <item x="4"/>
+        <item x="10"/>
+        <item x="13"/>
+        <item x="1"/>
+        <item x="6"/>
+        <item x="8"/>
+        <item x="18"/>
+        <item x="17"/>
+        <item x="14"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" numFmtId="4" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0" sortType="descending">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
+    <pivotField numFmtId="22" showAll="0">
+      <items count="63">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item x="52"/>
+        <item x="53"/>
+        <item x="54"/>
+        <item x="55"/>
+        <item x="56"/>
+        <item x="57"/>
+        <item x="58"/>
+        <item x="59"/>
+        <item x="60"/>
+        <item x="61"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="63">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item x="52"/>
+        <item x="53"/>
+        <item x="54"/>
+        <item x="55"/>
+        <item x="56"/>
+        <item x="57"/>
+        <item x="58"/>
+        <item x="59"/>
+        <item x="60"/>
+        <item x="61"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="27">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="369">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item x="52"/>
+        <item x="53"/>
+        <item x="54"/>
+        <item x="55"/>
+        <item x="56"/>
+        <item x="57"/>
+        <item x="58"/>
+        <item x="59"/>
+        <item x="60"/>
+        <item x="61"/>
+        <item x="62"/>
+        <item x="63"/>
+        <item x="64"/>
+        <item x="65"/>
+        <item x="66"/>
+        <item x="67"/>
+        <item x="68"/>
+        <item x="69"/>
+        <item x="70"/>
+        <item x="71"/>
+        <item x="72"/>
+        <item x="73"/>
+        <item x="74"/>
+        <item x="75"/>
+        <item x="76"/>
+        <item x="77"/>
+        <item x="78"/>
+        <item x="79"/>
+        <item x="80"/>
+        <item x="81"/>
+        <item x="82"/>
+        <item x="83"/>
+        <item x="84"/>
+        <item x="85"/>
+        <item x="86"/>
+        <item x="87"/>
+        <item x="88"/>
+        <item x="89"/>
+        <item x="90"/>
+        <item x="91"/>
+        <item x="92"/>
+        <item x="93"/>
+        <item x="94"/>
+        <item x="95"/>
+        <item x="96"/>
+        <item x="97"/>
+        <item x="98"/>
+        <item x="99"/>
+        <item x="100"/>
+        <item x="101"/>
+        <item x="102"/>
+        <item x="103"/>
+        <item x="104"/>
+        <item x="105"/>
+        <item x="106"/>
+        <item x="107"/>
+        <item x="108"/>
+        <item x="109"/>
+        <item x="110"/>
+        <item x="111"/>
+        <item x="112"/>
+        <item x="113"/>
+        <item x="114"/>
+        <item x="115"/>
+        <item x="116"/>
+        <item x="117"/>
+        <item x="118"/>
+        <item x="119"/>
+        <item x="120"/>
+        <item x="121"/>
+        <item x="122"/>
+        <item x="123"/>
+        <item x="124"/>
+        <item x="125"/>
+        <item x="126"/>
+        <item x="127"/>
+        <item x="128"/>
+        <item x="129"/>
+        <item x="130"/>
+        <item x="131"/>
+        <item x="132"/>
+        <item x="133"/>
+        <item x="134"/>
+        <item x="135"/>
+        <item x="136"/>
+        <item x="137"/>
+        <item x="138"/>
+        <item x="139"/>
+        <item x="140"/>
+        <item x="141"/>
+        <item x="142"/>
+        <item x="143"/>
+        <item x="144"/>
+        <item x="145"/>
+        <item x="146"/>
+        <item x="147"/>
+        <item x="148"/>
+        <item x="149"/>
+        <item x="150"/>
+        <item x="151"/>
+        <item x="152"/>
+        <item x="153"/>
+        <item x="154"/>
+        <item x="155"/>
+        <item x="156"/>
+        <item x="157"/>
+        <item x="158"/>
+        <item x="159"/>
+        <item x="160"/>
+        <item x="161"/>
+        <item x="162"/>
+        <item x="163"/>
+        <item x="164"/>
+        <item x="165"/>
+        <item x="166"/>
+        <item x="167"/>
+        <item x="168"/>
+        <item x="169"/>
+        <item x="170"/>
+        <item x="171"/>
+        <item x="172"/>
+        <item x="173"/>
+        <item x="174"/>
+        <item x="175"/>
+        <item x="176"/>
+        <item x="177"/>
+        <item x="178"/>
+        <item x="179"/>
+        <item x="180"/>
+        <item x="181"/>
+        <item x="182"/>
+        <item x="183"/>
+        <item x="184"/>
+        <item x="185"/>
+        <item x="186"/>
+        <item x="187"/>
+        <item x="188"/>
+        <item x="189"/>
+        <item x="190"/>
+        <item x="191"/>
+        <item x="192"/>
+        <item x="193"/>
+        <item x="194"/>
+        <item x="195"/>
+        <item x="196"/>
+        <item x="197"/>
+        <item x="198"/>
+        <item x="199"/>
+        <item x="200"/>
+        <item x="201"/>
+        <item x="202"/>
+        <item x="203"/>
+        <item x="204"/>
+        <item x="205"/>
+        <item x="206"/>
+        <item x="207"/>
+        <item x="208"/>
+        <item x="209"/>
+        <item x="210"/>
+        <item x="211"/>
+        <item x="212"/>
+        <item x="213"/>
+        <item x="214"/>
+        <item x="215"/>
+        <item x="216"/>
+        <item x="217"/>
+        <item x="218"/>
+        <item x="219"/>
+        <item x="220"/>
+        <item x="221"/>
+        <item x="222"/>
+        <item x="223"/>
+        <item x="224"/>
+        <item x="225"/>
+        <item x="226"/>
+        <item x="227"/>
+        <item x="228"/>
+        <item x="229"/>
+        <item x="230"/>
+        <item x="231"/>
+        <item x="232"/>
+        <item x="233"/>
+        <item x="234"/>
+        <item x="235"/>
+        <item x="236"/>
+        <item x="237"/>
+        <item x="238"/>
+        <item x="239"/>
+        <item x="240"/>
+        <item x="241"/>
+        <item x="242"/>
+        <item x="243"/>
+        <item x="244"/>
+        <item x="245"/>
+        <item x="246"/>
+        <item x="247"/>
+        <item x="248"/>
+        <item x="249"/>
+        <item x="250"/>
+        <item x="251"/>
+        <item x="252"/>
+        <item x="253"/>
+        <item x="254"/>
+        <item x="255"/>
+        <item x="256"/>
+        <item x="257"/>
+        <item x="258"/>
+        <item x="259"/>
+        <item x="260"/>
+        <item x="261"/>
+        <item x="262"/>
+        <item x="263"/>
+        <item x="264"/>
+        <item x="265"/>
+        <item x="266"/>
+        <item x="267"/>
+        <item x="268"/>
+        <item x="269"/>
+        <item x="270"/>
+        <item x="271"/>
+        <item x="272"/>
+        <item x="273"/>
+        <item x="274"/>
+        <item x="275"/>
+        <item x="276"/>
+        <item x="277"/>
+        <item x="278"/>
+        <item x="279"/>
+        <item x="280"/>
+        <item x="281"/>
+        <item x="282"/>
+        <item x="283"/>
+        <item x="284"/>
+        <item x="285"/>
+        <item x="286"/>
+        <item x="287"/>
+        <item x="288"/>
+        <item x="289"/>
+        <item x="290"/>
+        <item x="291"/>
+        <item x="292"/>
+        <item x="293"/>
+        <item x="294"/>
+        <item x="295"/>
+        <item x="296"/>
+        <item x="297"/>
+        <item x="298"/>
+        <item x="299"/>
+        <item x="300"/>
+        <item x="301"/>
+        <item x="302"/>
+        <item x="303"/>
+        <item x="304"/>
+        <item x="305"/>
+        <item x="306"/>
+        <item x="307"/>
+        <item x="308"/>
+        <item x="309"/>
+        <item x="310"/>
+        <item x="311"/>
+        <item x="312"/>
+        <item x="313"/>
+        <item x="314"/>
+        <item x="315"/>
+        <item x="316"/>
+        <item x="317"/>
+        <item x="318"/>
+        <item x="319"/>
+        <item x="320"/>
+        <item x="321"/>
+        <item x="322"/>
+        <item x="323"/>
+        <item x="324"/>
+        <item x="325"/>
+        <item x="326"/>
+        <item x="327"/>
+        <item x="328"/>
+        <item x="329"/>
+        <item x="330"/>
+        <item x="331"/>
+        <item x="332"/>
+        <item x="333"/>
+        <item x="334"/>
+        <item x="335"/>
+        <item x="336"/>
+        <item x="337"/>
+        <item x="338"/>
+        <item x="339"/>
+        <item x="340"/>
+        <item x="341"/>
+        <item x="342"/>
+        <item x="343"/>
+        <item x="344"/>
+        <item x="345"/>
+        <item x="346"/>
+        <item x="347"/>
+        <item x="348"/>
+        <item x="349"/>
+        <item x="350"/>
+        <item x="351"/>
+        <item x="352"/>
+        <item x="353"/>
+        <item x="354"/>
+        <item x="355"/>
+        <item x="356"/>
+        <item x="357"/>
+        <item x="358"/>
+        <item x="359"/>
+        <item x="360"/>
+        <item x="361"/>
+        <item x="362"/>
+        <item x="363"/>
+        <item x="364"/>
+        <item x="365"/>
+        <item x="366"/>
+        <item x="367"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="7"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of total" fld="5" baseField="0" baseItem="0" numFmtId="4"/>
+  </dataFields>
+  <formats count="3">
+    <format dxfId="68">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="7" count="1">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="67">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="66">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+  </formats>
+  <chartFormats count="8">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="7" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="2">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="7" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="3">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="7" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="8" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="9">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="7" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="10">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="7" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="11">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="7" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B138C36C-A2D6-4297-B9C4-18182CB4A708}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+  <location ref="J3:K19" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="12">
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0" sortType="descending">
+      <items count="16">
+        <item x="0"/>
+        <item x="11"/>
+        <item x="6"/>
+        <item x="9"/>
+        <item x="5"/>
+        <item x="13"/>
+        <item x="4"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="10"/>
+        <item x="7"/>
+        <item x="14"/>
+        <item x="2"/>
+        <item x="12"/>
+        <item x="8"/>
+        <item t="default"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="20">
+        <item x="15"/>
+        <item x="5"/>
+        <item x="9"/>
+        <item x="2"/>
+        <item x="12"/>
+        <item x="16"/>
+        <item x="7"/>
+        <item x="0"/>
+        <item x="11"/>
+        <item x="4"/>
+        <item x="10"/>
+        <item x="13"/>
+        <item x="1"/>
+        <item x="6"/>
+        <item x="8"/>
+        <item x="18"/>
+        <item x="17"/>
+        <item x="14"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" numFmtId="4" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="22" showAll="0">
+      <items count="63">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item x="52"/>
+        <item x="53"/>
+        <item x="54"/>
+        <item x="55"/>
+        <item x="56"/>
+        <item x="57"/>
+        <item x="58"/>
+        <item x="59"/>
+        <item x="60"/>
+        <item x="61"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="63">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item x="52"/>
+        <item x="53"/>
+        <item x="54"/>
+        <item x="55"/>
+        <item x="56"/>
+        <item x="57"/>
+        <item x="58"/>
+        <item x="59"/>
+        <item x="60"/>
+        <item x="61"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="27">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="369">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item x="52"/>
+        <item x="53"/>
+        <item x="54"/>
+        <item x="55"/>
+        <item x="56"/>
+        <item x="57"/>
+        <item x="58"/>
+        <item x="59"/>
+        <item x="60"/>
+        <item x="61"/>
+        <item x="62"/>
+        <item x="63"/>
+        <item x="64"/>
+        <item x="65"/>
+        <item x="66"/>
+        <item x="67"/>
+        <item x="68"/>
+        <item x="69"/>
+        <item x="70"/>
+        <item x="71"/>
+        <item x="72"/>
+        <item x="73"/>
+        <item x="74"/>
+        <item x="75"/>
+        <item x="76"/>
+        <item x="77"/>
+        <item x="78"/>
+        <item x="79"/>
+        <item x="80"/>
+        <item x="81"/>
+        <item x="82"/>
+        <item x="83"/>
+        <item x="84"/>
+        <item x="85"/>
+        <item x="86"/>
+        <item x="87"/>
+        <item x="88"/>
+        <item x="89"/>
+        <item x="90"/>
+        <item x="91"/>
+        <item x="92"/>
+        <item x="93"/>
+        <item x="94"/>
+        <item x="95"/>
+        <item x="96"/>
+        <item x="97"/>
+        <item x="98"/>
+        <item x="99"/>
+        <item x="100"/>
+        <item x="101"/>
+        <item x="102"/>
+        <item x="103"/>
+        <item x="104"/>
+        <item x="105"/>
+        <item x="106"/>
+        <item x="107"/>
+        <item x="108"/>
+        <item x="109"/>
+        <item x="110"/>
+        <item x="111"/>
+        <item x="112"/>
+        <item x="113"/>
+        <item x="114"/>
+        <item x="115"/>
+        <item x="116"/>
+        <item x="117"/>
+        <item x="118"/>
+        <item x="119"/>
+        <item x="120"/>
+        <item x="121"/>
+        <item x="122"/>
+        <item x="123"/>
+        <item x="124"/>
+        <item x="125"/>
+        <item x="126"/>
+        <item x="127"/>
+        <item x="128"/>
+        <item x="129"/>
+        <item x="130"/>
+        <item x="131"/>
+        <item x="132"/>
+        <item x="133"/>
+        <item x="134"/>
+        <item x="135"/>
+        <item x="136"/>
+        <item x="137"/>
+        <item x="138"/>
+        <item x="139"/>
+        <item x="140"/>
+        <item x="141"/>
+        <item x="142"/>
+        <item x="143"/>
+        <item x="144"/>
+        <item x="145"/>
+        <item x="146"/>
+        <item x="147"/>
+        <item x="148"/>
+        <item x="149"/>
+        <item x="150"/>
+        <item x="151"/>
+        <item x="152"/>
+        <item x="153"/>
+        <item x="154"/>
+        <item x="155"/>
+        <item x="156"/>
+        <item x="157"/>
+        <item x="158"/>
+        <item x="159"/>
+        <item x="160"/>
+        <item x="161"/>
+        <item x="162"/>
+        <item x="163"/>
+        <item x="164"/>
+        <item x="165"/>
+        <item x="166"/>
+        <item x="167"/>
+        <item x="168"/>
+        <item x="169"/>
+        <item x="170"/>
+        <item x="171"/>
+        <item x="172"/>
+        <item x="173"/>
+        <item x="174"/>
+        <item x="175"/>
+        <item x="176"/>
+        <item x="177"/>
+        <item x="178"/>
+        <item x="179"/>
+        <item x="180"/>
+        <item x="181"/>
+        <item x="182"/>
+        <item x="183"/>
+        <item x="184"/>
+        <item x="185"/>
+        <item x="186"/>
+        <item x="187"/>
+        <item x="188"/>
+        <item x="189"/>
+        <item x="190"/>
+        <item x="191"/>
+        <item x="192"/>
+        <item x="193"/>
+        <item x="194"/>
+        <item x="195"/>
+        <item x="196"/>
+        <item x="197"/>
+        <item x="198"/>
+        <item x="199"/>
+        <item x="200"/>
+        <item x="201"/>
+        <item x="202"/>
+        <item x="203"/>
+        <item x="204"/>
+        <item x="205"/>
+        <item x="206"/>
+        <item x="207"/>
+        <item x="208"/>
+        <item x="209"/>
+        <item x="210"/>
+        <item x="211"/>
+        <item x="212"/>
+        <item x="213"/>
+        <item x="214"/>
+        <item x="215"/>
+        <item x="216"/>
+        <item x="217"/>
+        <item x="218"/>
+        <item x="219"/>
+        <item x="220"/>
+        <item x="221"/>
+        <item x="222"/>
+        <item x="223"/>
+        <item x="224"/>
+        <item x="225"/>
+        <item x="226"/>
+        <item x="227"/>
+        <item x="228"/>
+        <item x="229"/>
+        <item x="230"/>
+        <item x="231"/>
+        <item x="232"/>
+        <item x="233"/>
+        <item x="234"/>
+        <item x="235"/>
+        <item x="236"/>
+        <item x="237"/>
+        <item x="238"/>
+        <item x="239"/>
+        <item x="240"/>
+        <item x="241"/>
+        <item x="242"/>
+        <item x="243"/>
+        <item x="244"/>
+        <item x="245"/>
+        <item x="246"/>
+        <item x="247"/>
+        <item x="248"/>
+        <item x="249"/>
+        <item x="250"/>
+        <item x="251"/>
+        <item x="252"/>
+        <item x="253"/>
+        <item x="254"/>
+        <item x="255"/>
+        <item x="256"/>
+        <item x="257"/>
+        <item x="258"/>
+        <item x="259"/>
+        <item x="260"/>
+        <item x="261"/>
+        <item x="262"/>
+        <item x="263"/>
+        <item x="264"/>
+        <item x="265"/>
+        <item x="266"/>
+        <item x="267"/>
+        <item x="268"/>
+        <item x="269"/>
+        <item x="270"/>
+        <item x="271"/>
+        <item x="272"/>
+        <item x="273"/>
+        <item x="274"/>
+        <item x="275"/>
+        <item x="276"/>
+        <item x="277"/>
+        <item x="278"/>
+        <item x="279"/>
+        <item x="280"/>
+        <item x="281"/>
+        <item x="282"/>
+        <item x="283"/>
+        <item x="284"/>
+        <item x="285"/>
+        <item x="286"/>
+        <item x="287"/>
+        <item x="288"/>
+        <item x="289"/>
+        <item x="290"/>
+        <item x="291"/>
+        <item x="292"/>
+        <item x="293"/>
+        <item x="294"/>
+        <item x="295"/>
+        <item x="296"/>
+        <item x="297"/>
+        <item x="298"/>
+        <item x="299"/>
+        <item x="300"/>
+        <item x="301"/>
+        <item x="302"/>
+        <item x="303"/>
+        <item x="304"/>
+        <item x="305"/>
+        <item x="306"/>
+        <item x="307"/>
+        <item x="308"/>
+        <item x="309"/>
+        <item x="310"/>
+        <item x="311"/>
+        <item x="312"/>
+        <item x="313"/>
+        <item x="314"/>
+        <item x="315"/>
+        <item x="316"/>
+        <item x="317"/>
+        <item x="318"/>
+        <item x="319"/>
+        <item x="320"/>
+        <item x="321"/>
+        <item x="322"/>
+        <item x="323"/>
+        <item x="324"/>
+        <item x="325"/>
+        <item x="326"/>
+        <item x="327"/>
+        <item x="328"/>
+        <item x="329"/>
+        <item x="330"/>
+        <item x="331"/>
+        <item x="332"/>
+        <item x="333"/>
+        <item x="334"/>
+        <item x="335"/>
+        <item x="336"/>
+        <item x="337"/>
+        <item x="338"/>
+        <item x="339"/>
+        <item x="340"/>
+        <item x="341"/>
+        <item x="342"/>
+        <item x="343"/>
+        <item x="344"/>
+        <item x="345"/>
+        <item x="346"/>
+        <item x="347"/>
+        <item x="348"/>
+        <item x="349"/>
+        <item x="350"/>
+        <item x="351"/>
+        <item x="352"/>
+        <item x="353"/>
+        <item x="354"/>
+        <item x="355"/>
+        <item x="356"/>
+        <item x="357"/>
+        <item x="358"/>
+        <item x="359"/>
+        <item x="360"/>
+        <item x="361"/>
+        <item x="362"/>
+        <item x="363"/>
+        <item x="364"/>
+        <item x="365"/>
+        <item x="366"/>
+        <item x="367"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="16">
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of total" fld="5" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="1">
+    <format dxfId="69">
+      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <chartFormats count="2">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Query from connection-salesdb" connectionId="1" xr16:uid="{809A74AE-B3EF-465C-BD1E-83036C6D5132}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="10">
@@ -22461,24 +22559,24 @@
 
 <file path=xl/slicers/slicer1.xml><?xml version="1.0" encoding="utf-8"?>
 <slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
-  <slicer name="customer" xr10:uid="{76F0A25D-EAD4-4E8E-8872-074D24942D63}" cache="Slicer_customer" caption="customer" rowHeight="241300"/>
-  <slicer name="product" xr10:uid="{05ECC382-05AD-4641-8375-6833779C28D3}" cache="Slicer_product" caption="product" rowHeight="241300"/>
+  <slicer name="customer" xr10:uid="{76F0A25D-EAD4-4E8E-8872-074D24942D63}" cache="Slicer_customer" caption="customer" startItem="1" style="SlicerStyleOther1" rowHeight="241300"/>
+  <slicer name="product" xr10:uid="{05ECC382-05AD-4641-8375-6833779C28D3}" cache="Slicer_product" caption="product" style="SlicerStyleOther1" rowHeight="241300"/>
 </slicers>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{690C7F52-74D5-4A07-91AD-715237CDFC0F}" name="Table_Query_from_connection_salesdb" displayName="Table_Query_from_connection_salesdb" ref="A1:I41" tableType="queryTable" totalsRowShown="0" headerRowDxfId="59" dataDxfId="58">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{690C7F52-74D5-4A07-91AD-715237CDFC0F}" name="Table_Query_from_connection_salesdb" displayName="Table_Query_from_connection_salesdb" ref="A1:I41" tableType="queryTable" totalsRowShown="0" headerRowDxfId="80" dataDxfId="79">
   <autoFilter ref="A1:I41" xr:uid="{690C7F52-74D5-4A07-91AD-715237CDFC0F}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{88F997CF-CD84-4489-A14F-32E4C4A3E967}" uniqueName="1" name="id" queryTableFieldId="1" dataDxfId="57"/>
-    <tableColumn id="2" xr3:uid="{EA9132D5-AA11-4888-B9DD-70013EEA22DC}" uniqueName="2" name="customer" queryTableFieldId="2" dataDxfId="56"/>
-    <tableColumn id="3" xr3:uid="{E3E7F82B-B4D8-4E63-992B-B20B6BADCECA}" uniqueName="3" name="product" queryTableFieldId="3" dataDxfId="55"/>
-    <tableColumn id="4" xr3:uid="{CC47DEA1-7D0A-442E-8A16-19B85038AE6C}" uniqueName="4" name="quantity" queryTableFieldId="4" dataDxfId="54"/>
-    <tableColumn id="5" xr3:uid="{E109CABD-B47E-4550-BCFD-5910AD8575FD}" uniqueName="5" name="price" queryTableFieldId="5" dataDxfId="53"/>
-    <tableColumn id="6" xr3:uid="{40EE9212-12D8-4208-BFEF-6D815114B43B}" uniqueName="6" name="total" queryTableFieldId="6" dataDxfId="52"/>
-    <tableColumn id="7" xr3:uid="{4B607100-30DF-45E6-BA51-A819867985D5}" uniqueName="7" name="payment_mode" queryTableFieldId="7" dataDxfId="51"/>
-    <tableColumn id="8" xr3:uid="{17090BBF-0039-44DE-A6BE-7C6295B42740}" uniqueName="8" name="member_type" queryTableFieldId="8" dataDxfId="50"/>
-    <tableColumn id="9" xr3:uid="{84D4B584-63B3-44E0-A9F4-A5EB57FA9BB0}" uniqueName="9" name="created_at" queryTableFieldId="9" dataDxfId="49"/>
+    <tableColumn id="1" xr3:uid="{88F997CF-CD84-4489-A14F-32E4C4A3E967}" uniqueName="1" name="id" queryTableFieldId="1" dataDxfId="78"/>
+    <tableColumn id="2" xr3:uid="{EA9132D5-AA11-4888-B9DD-70013EEA22DC}" uniqueName="2" name="customer" queryTableFieldId="2" dataDxfId="77"/>
+    <tableColumn id="3" xr3:uid="{E3E7F82B-B4D8-4E63-992B-B20B6BADCECA}" uniqueName="3" name="product" queryTableFieldId="3" dataDxfId="76"/>
+    <tableColumn id="4" xr3:uid="{CC47DEA1-7D0A-442E-8A16-19B85038AE6C}" uniqueName="4" name="quantity" queryTableFieldId="4" dataDxfId="75"/>
+    <tableColumn id="5" xr3:uid="{E109CABD-B47E-4550-BCFD-5910AD8575FD}" uniqueName="5" name="price" queryTableFieldId="5" dataDxfId="74"/>
+    <tableColumn id="6" xr3:uid="{40EE9212-12D8-4208-BFEF-6D815114B43B}" uniqueName="6" name="total" queryTableFieldId="6" dataDxfId="73"/>
+    <tableColumn id="7" xr3:uid="{4B607100-30DF-45E6-BA51-A819867985D5}" uniqueName="7" name="payment_mode" queryTableFieldId="7" dataDxfId="72"/>
+    <tableColumn id="8" xr3:uid="{17090BBF-0039-44DE-A6BE-7C6295B42740}" uniqueName="8" name="member_type" queryTableFieldId="8" dataDxfId="71"/>
+    <tableColumn id="9" xr3:uid="{84D4B584-63B3-44E0-A9F4-A5EB57FA9BB0}" uniqueName="9" name="created_at" queryTableFieldId="9" dataDxfId="70"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -24415,8 +24513,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76DAB0F9-7C69-4BA9-A78B-2B46A61B4EA3}">
   <dimension ref="A1:AS251"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AB50" sqref="AB50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24699,2676 +24797,2677 @@
       <c r="Y10" s="13"/>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A11" s="11"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="11"/>
-      <c r="N11" s="11"/>
-      <c r="O11" s="11"/>
-      <c r="P11" s="11"/>
-      <c r="Q11" s="11"/>
-      <c r="R11" s="11"/>
-      <c r="S11" s="11"/>
-      <c r="T11" s="11"/>
-      <c r="U11" s="11"/>
-      <c r="V11" s="11"/>
-      <c r="W11" s="11"/>
-      <c r="X11" s="11"/>
-      <c r="Y11" s="11"/>
+      <c r="A11" s="12"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="12"/>
+      <c r="P11" s="12"/>
+      <c r="Q11" s="12"/>
+      <c r="R11" s="12"/>
+      <c r="S11" s="12"/>
+      <c r="T11" s="12"/>
+      <c r="U11" s="12"/>
+      <c r="V11" s="12"/>
+      <c r="W11" s="12"/>
+      <c r="X11" s="12"/>
+      <c r="Y11" s="12"/>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A12" s="11"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="11"/>
-      <c r="M12" s="11"/>
-      <c r="N12" s="11"/>
-      <c r="O12" s="11"/>
-      <c r="P12" s="11"/>
-      <c r="Q12" s="11"/>
-      <c r="R12" s="11"/>
-      <c r="S12" s="11"/>
-      <c r="T12" s="11"/>
-      <c r="U12" s="11"/>
-      <c r="V12" s="11"/>
-      <c r="W12" s="11"/>
-      <c r="X12" s="11"/>
-      <c r="Y12" s="11"/>
+      <c r="A12" s="12"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="12"/>
+      <c r="P12" s="12"/>
+      <c r="Q12" s="12"/>
+      <c r="R12" s="12"/>
+      <c r="S12" s="12"/>
+      <c r="T12" s="12"/>
+      <c r="U12" s="12"/>
+      <c r="V12" s="12"/>
+      <c r="W12" s="12"/>
+      <c r="X12" s="12"/>
+      <c r="Y12" s="12"/>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A13" s="11"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="11"/>
-      <c r="M13" s="11"/>
-      <c r="O13" s="11"/>
-      <c r="P13" s="11"/>
-      <c r="Q13" s="11"/>
-      <c r="R13" s="11"/>
-      <c r="S13" s="11"/>
-      <c r="T13" s="11"/>
-      <c r="U13" s="11"/>
-      <c r="V13" s="11"/>
-      <c r="W13" s="11"/>
-      <c r="X13" s="11"/>
-      <c r="Y13" s="11"/>
+      <c r="A13" s="12"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="12"/>
+      <c r="P13" s="12"/>
+      <c r="Q13" s="12"/>
+      <c r="R13" s="12"/>
+      <c r="S13" s="12"/>
+      <c r="T13" s="12"/>
+      <c r="U13" s="12"/>
+      <c r="V13" s="12"/>
+      <c r="W13" s="12"/>
+      <c r="X13" s="12"/>
+      <c r="Y13" s="12"/>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A14" s="11"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="11"/>
-      <c r="L14" s="11"/>
-      <c r="M14" s="11"/>
-      <c r="N14" s="11"/>
-      <c r="O14" s="11"/>
-      <c r="P14" s="11"/>
-      <c r="Q14" s="11"/>
-      <c r="R14" s="11"/>
-      <c r="S14" s="11"/>
-      <c r="T14" s="11"/>
-      <c r="U14" s="11"/>
-      <c r="V14" s="11"/>
-      <c r="W14" s="11"/>
-      <c r="X14" s="11"/>
-      <c r="Y14" s="11"/>
+      <c r="A14" s="12"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="12"/>
+      <c r="P14" s="12"/>
+      <c r="Q14" s="12"/>
+      <c r="R14" s="12"/>
+      <c r="S14" s="12"/>
+      <c r="T14" s="12"/>
+      <c r="U14" s="12"/>
+      <c r="V14" s="12"/>
+      <c r="W14" s="12"/>
+      <c r="X14" s="12"/>
+      <c r="Y14" s="12"/>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A15" s="11"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="11"/>
-      <c r="M15" s="11"/>
-      <c r="N15" s="11"/>
-      <c r="O15" s="11"/>
-      <c r="P15" s="11"/>
-      <c r="Q15" s="11"/>
-      <c r="R15" s="11"/>
-      <c r="S15" s="11"/>
-      <c r="T15" s="11"/>
-      <c r="U15" s="11"/>
-      <c r="V15" s="11"/>
-      <c r="W15" s="11"/>
-      <c r="X15" s="11"/>
-      <c r="Y15" s="11"/>
+      <c r="A15" s="12"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="12"/>
+      <c r="P15" s="12"/>
+      <c r="Q15" s="12"/>
+      <c r="R15" s="12"/>
+      <c r="S15" s="12"/>
+      <c r="T15" s="12"/>
+      <c r="U15" s="12"/>
+      <c r="V15" s="12"/>
+      <c r="W15" s="12"/>
+      <c r="X15" s="12"/>
+      <c r="Y15" s="12"/>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A16" s="11"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="11"/>
-      <c r="L16" s="11"/>
-      <c r="M16" s="11"/>
-      <c r="N16" s="11"/>
-      <c r="O16" s="11"/>
-      <c r="P16" s="11"/>
-      <c r="Q16" s="11"/>
-      <c r="R16" s="11"/>
-      <c r="S16" s="11"/>
-      <c r="T16" s="11"/>
-      <c r="U16" s="11"/>
-      <c r="V16" s="11"/>
-      <c r="W16" s="11"/>
-      <c r="X16" s="11"/>
-      <c r="Y16" s="11"/>
+      <c r="A16" s="12"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="12"/>
+      <c r="P16" s="12"/>
+      <c r="Q16" s="12"/>
+      <c r="R16" s="12"/>
+      <c r="S16" s="12"/>
+      <c r="T16" s="12"/>
+      <c r="U16" s="12"/>
+      <c r="V16" s="12"/>
+      <c r="W16" s="12"/>
+      <c r="X16" s="12"/>
+      <c r="Y16" s="12"/>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A17" s="11"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11"/>
-      <c r="M17" s="11"/>
-      <c r="N17" s="11"/>
-      <c r="O17" s="11"/>
-      <c r="P17" s="11"/>
-      <c r="Q17" s="11"/>
-      <c r="R17" s="11"/>
-      <c r="S17" s="11"/>
-      <c r="T17" s="11"/>
-      <c r="U17" s="11"/>
-      <c r="V17" s="11"/>
-      <c r="W17" s="11"/>
-      <c r="X17" s="11"/>
-      <c r="Y17" s="11"/>
+      <c r="A17" s="12"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="12"/>
+      <c r="O17" s="12"/>
+      <c r="P17" s="12"/>
+      <c r="Q17" s="12"/>
+      <c r="R17" s="12"/>
+      <c r="S17" s="12"/>
+      <c r="T17" s="12"/>
+      <c r="U17" s="12"/>
+      <c r="V17" s="12"/>
+      <c r="W17" s="12"/>
+      <c r="X17" s="12"/>
+      <c r="Y17" s="12"/>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A18" s="11"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11"/>
-      <c r="M18" s="11"/>
-      <c r="N18" s="11"/>
-      <c r="O18" s="11"/>
-      <c r="P18" s="11"/>
-      <c r="Q18" s="11"/>
-      <c r="R18" s="11"/>
-      <c r="S18" s="11"/>
-      <c r="T18" s="11"/>
-      <c r="U18" s="11"/>
-      <c r="V18" s="11"/>
-      <c r="W18" s="11"/>
-      <c r="X18" s="11"/>
-      <c r="Y18" s="11"/>
+      <c r="A18" s="12"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="12"/>
+      <c r="O18" s="12"/>
+      <c r="P18" s="12"/>
+      <c r="Q18" s="12"/>
+      <c r="R18" s="12"/>
+      <c r="S18" s="12"/>
+      <c r="T18" s="12"/>
+      <c r="U18" s="12"/>
+      <c r="V18" s="12"/>
+      <c r="W18" s="12"/>
+      <c r="X18" s="12"/>
+      <c r="Y18" s="12"/>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A19" s="11"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="11"/>
-      <c r="M19" s="11"/>
-      <c r="N19" s="11"/>
-      <c r="O19" s="11"/>
-      <c r="P19" s="11"/>
-      <c r="Q19" s="11"/>
-      <c r="R19" s="11"/>
-      <c r="S19" s="11"/>
-      <c r="T19" s="11"/>
-      <c r="U19" s="11"/>
-      <c r="V19" s="11"/>
-      <c r="W19" s="11"/>
-      <c r="X19" s="11"/>
-      <c r="Y19" s="11"/>
+      <c r="A19" s="12"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="12"/>
+      <c r="N19" s="12"/>
+      <c r="O19" s="12"/>
+      <c r="P19" s="12"/>
+      <c r="Q19" s="12"/>
+      <c r="R19" s="12"/>
+      <c r="S19" s="12"/>
+      <c r="T19" s="12"/>
+      <c r="U19" s="12"/>
+      <c r="V19" s="12"/>
+      <c r="W19" s="12"/>
+      <c r="X19" s="12"/>
+      <c r="Y19" s="12"/>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A20" s="11"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="11"/>
-      <c r="M20" s="11"/>
-      <c r="N20" s="11"/>
-      <c r="O20" s="11"/>
-      <c r="P20" s="11"/>
-      <c r="Q20" s="11"/>
-      <c r="R20" s="11"/>
-      <c r="S20" s="11"/>
-      <c r="T20" s="11"/>
-      <c r="U20" s="11"/>
-      <c r="V20" s="11"/>
-      <c r="W20" s="11"/>
-      <c r="X20" s="11"/>
-      <c r="Y20" s="11"/>
+      <c r="A20" s="12"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="12"/>
+      <c r="N20" s="12"/>
+      <c r="O20" s="12"/>
+      <c r="P20" s="12"/>
+      <c r="Q20" s="12"/>
+      <c r="R20" s="12"/>
+      <c r="S20" s="12"/>
+      <c r="T20" s="12"/>
+      <c r="U20" s="12"/>
+      <c r="V20" s="12"/>
+      <c r="W20" s="12"/>
+      <c r="X20" s="12"/>
+      <c r="Y20" s="12"/>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A21" s="11"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="11"/>
-      <c r="K21" s="11"/>
-      <c r="L21" s="11"/>
-      <c r="M21" s="11"/>
-      <c r="N21" s="11"/>
-      <c r="O21" s="11"/>
-      <c r="P21" s="11"/>
-      <c r="Q21" s="11"/>
-      <c r="R21" s="11"/>
-      <c r="S21" s="11"/>
-      <c r="T21" s="11"/>
-      <c r="U21" s="11"/>
-      <c r="V21" s="11"/>
-      <c r="W21" s="11"/>
-      <c r="X21" s="11"/>
-      <c r="Y21" s="11"/>
+      <c r="A21" s="12"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="12"/>
+      <c r="N21" s="12"/>
+      <c r="O21" s="12"/>
+      <c r="P21" s="12"/>
+      <c r="Q21" s="12"/>
+      <c r="R21" s="12"/>
+      <c r="S21" s="12"/>
+      <c r="T21" s="12"/>
+      <c r="U21" s="12"/>
+      <c r="V21" s="12"/>
+      <c r="W21" s="12"/>
+      <c r="X21" s="12"/>
+      <c r="Y21" s="12"/>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A22" s="11"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="11"/>
-      <c r="K22" s="11"/>
-      <c r="L22" s="11"/>
-      <c r="M22" s="11"/>
-      <c r="N22" s="11"/>
-      <c r="O22" s="11"/>
-      <c r="P22" s="11"/>
-      <c r="Q22" s="11"/>
-      <c r="R22" s="11"/>
-      <c r="S22" s="11"/>
-      <c r="T22" s="11"/>
-      <c r="U22" s="11"/>
-      <c r="V22" s="11"/>
-      <c r="W22" s="11"/>
-      <c r="X22" s="11"/>
-      <c r="Y22" s="11"/>
+      <c r="A22" s="12"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="12"/>
+      <c r="N22" s="12"/>
+      <c r="O22" s="12"/>
+      <c r="P22" s="12"/>
+      <c r="Q22" s="12"/>
+      <c r="R22" s="12"/>
+      <c r="S22" s="12"/>
+      <c r="T22" s="12"/>
+      <c r="U22" s="12"/>
+      <c r="V22" s="12"/>
+      <c r="W22" s="12"/>
+      <c r="X22" s="12"/>
+      <c r="Y22" s="12"/>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A23" s="11"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="11"/>
-      <c r="K23" s="11"/>
-      <c r="L23" s="11"/>
-      <c r="M23" s="11"/>
-      <c r="N23" s="11"/>
-      <c r="O23" s="11"/>
-      <c r="P23" s="11"/>
-      <c r="Q23" s="11"/>
-      <c r="R23" s="11"/>
-      <c r="S23" s="11"/>
-      <c r="T23" s="11"/>
-      <c r="U23" s="11"/>
-      <c r="V23" s="11"/>
-      <c r="W23" s="11"/>
-      <c r="X23" s="11"/>
-      <c r="Y23" s="11"/>
+      <c r="A23" s="12"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="12"/>
+      <c r="M23" s="12"/>
+      <c r="N23" s="12"/>
+      <c r="O23" s="12"/>
+      <c r="P23" s="12"/>
+      <c r="Q23" s="12"/>
+      <c r="R23" s="12"/>
+      <c r="S23" s="12"/>
+      <c r="T23" s="12"/>
+      <c r="U23" s="12"/>
+      <c r="V23" s="12"/>
+      <c r="W23" s="12"/>
+      <c r="X23" s="12"/>
+      <c r="Y23" s="12"/>
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A24" s="11"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="11"/>
-      <c r="K24" s="11"/>
-      <c r="L24" s="11"/>
-      <c r="M24" s="11"/>
-      <c r="N24" s="11"/>
-      <c r="O24" s="11"/>
-      <c r="P24" s="11"/>
-      <c r="Q24" s="11"/>
-      <c r="R24" s="11"/>
-      <c r="S24" s="11"/>
-      <c r="T24" s="11"/>
-      <c r="U24" s="11"/>
-      <c r="V24" s="11"/>
-      <c r="W24" s="11"/>
-      <c r="X24" s="11"/>
-      <c r="Y24" s="11"/>
+      <c r="A24" s="12"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="12"/>
+      <c r="M24" s="12"/>
+      <c r="N24" s="12"/>
+      <c r="O24" s="12"/>
+      <c r="P24" s="12"/>
+      <c r="Q24" s="12"/>
+      <c r="R24" s="12"/>
+      <c r="S24" s="12"/>
+      <c r="T24" s="12"/>
+      <c r="U24" s="12"/>
+      <c r="V24" s="12"/>
+      <c r="W24" s="12"/>
+      <c r="X24" s="12"/>
+      <c r="Y24" s="12"/>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A25" s="11"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="11"/>
-      <c r="K25" s="11"/>
-      <c r="L25" s="11"/>
-      <c r="M25" s="11"/>
-      <c r="N25" s="11"/>
-      <c r="O25" s="11"/>
-      <c r="P25" s="11"/>
-      <c r="Q25" s="11"/>
-      <c r="R25" s="11"/>
-      <c r="S25" s="11"/>
-      <c r="T25" s="11"/>
-      <c r="U25" s="11"/>
-      <c r="V25" s="11"/>
-      <c r="W25" s="11"/>
-      <c r="X25" s="11"/>
-      <c r="Y25" s="11"/>
+      <c r="A25" s="12"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="12"/>
+      <c r="L25" s="12"/>
+      <c r="M25" s="12"/>
+      <c r="N25" s="12"/>
+      <c r="O25" s="12"/>
+      <c r="P25" s="12"/>
+      <c r="Q25" s="12"/>
+      <c r="R25" s="12"/>
+      <c r="S25" s="12"/>
+      <c r="T25" s="12"/>
+      <c r="U25" s="12"/>
+      <c r="V25" s="12"/>
+      <c r="W25" s="12"/>
+      <c r="X25" s="12"/>
+      <c r="Y25" s="12"/>
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A26" s="11"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="11"/>
-      <c r="K26" s="11"/>
-      <c r="L26" s="11"/>
-      <c r="M26" s="11"/>
-      <c r="N26" s="11"/>
-      <c r="O26" s="11"/>
-      <c r="P26" s="11"/>
-      <c r="Q26" s="11"/>
-      <c r="R26" s="11"/>
-      <c r="S26" s="11"/>
-      <c r="T26" s="11"/>
-      <c r="U26" s="11"/>
-      <c r="V26" s="11"/>
-      <c r="W26" s="11"/>
-      <c r="X26" s="11"/>
-      <c r="Y26" s="11"/>
+      <c r="A26" s="12"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="12"/>
+      <c r="M26" s="12"/>
+      <c r="N26" s="12"/>
+      <c r="O26" s="12"/>
+      <c r="P26" s="12"/>
+      <c r="Q26" s="12"/>
+      <c r="R26" s="12"/>
+      <c r="S26" s="12"/>
+      <c r="T26" s="12"/>
+      <c r="U26" s="12"/>
+      <c r="V26" s="12"/>
+      <c r="W26" s="12"/>
+      <c r="X26" s="12"/>
+      <c r="Y26" s="12"/>
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A27" s="11"/>
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="11"/>
-      <c r="J27" s="11"/>
-      <c r="K27" s="11"/>
-      <c r="L27" s="11"/>
-      <c r="M27" s="11"/>
-      <c r="N27" s="11"/>
-      <c r="O27" s="11"/>
-      <c r="P27" s="11"/>
-      <c r="Q27" s="11"/>
-      <c r="R27" s="11"/>
-      <c r="S27" s="11"/>
-      <c r="T27" s="11"/>
-      <c r="U27" s="11"/>
-      <c r="V27" s="11"/>
-      <c r="W27" s="11"/>
-      <c r="X27" s="11"/>
-      <c r="Y27" s="11"/>
+      <c r="A27" s="12"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="12"/>
+      <c r="L27" s="12"/>
+      <c r="M27" s="12"/>
+      <c r="N27" s="12"/>
+      <c r="O27" s="12"/>
+      <c r="P27" s="12"/>
+      <c r="Q27" s="12"/>
+      <c r="R27" s="12"/>
+      <c r="S27" s="12"/>
+      <c r="T27" s="12"/>
+      <c r="U27" s="12"/>
+      <c r="V27" s="12"/>
+      <c r="W27" s="12"/>
+      <c r="X27" s="12"/>
+      <c r="Y27" s="12"/>
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A28" s="11"/>
-      <c r="B28" s="11"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="11"/>
-      <c r="J28" s="11"/>
-      <c r="K28" s="11"/>
-      <c r="L28" s="11"/>
-      <c r="M28" s="11"/>
-      <c r="N28" s="11"/>
-      <c r="O28" s="11"/>
-      <c r="P28" s="11"/>
-      <c r="Q28" s="11"/>
-      <c r="R28" s="11"/>
-      <c r="S28" s="11"/>
-      <c r="T28" s="11"/>
-      <c r="U28" s="11"/>
-      <c r="V28" s="11"/>
-      <c r="W28" s="11"/>
-      <c r="X28" s="11"/>
-      <c r="Y28" s="11"/>
+      <c r="A28" s="12"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="12"/>
+      <c r="L28" s="12"/>
+      <c r="M28" s="12"/>
+      <c r="N28" s="12"/>
+      <c r="O28" s="12"/>
+      <c r="P28" s="12"/>
+      <c r="Q28" s="12"/>
+      <c r="R28" s="12"/>
+      <c r="S28" s="12"/>
+      <c r="T28" s="12"/>
+      <c r="U28" s="12"/>
+      <c r="V28" s="12"/>
+      <c r="W28" s="12"/>
+      <c r="X28" s="12"/>
+      <c r="Y28" s="12"/>
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A29" s="11"/>
-      <c r="B29" s="11"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="11"/>
-      <c r="I29" s="11"/>
-      <c r="J29" s="11"/>
-      <c r="K29" s="11"/>
-      <c r="L29" s="11"/>
-      <c r="M29" s="11"/>
-      <c r="N29" s="11"/>
-      <c r="O29" s="11"/>
-      <c r="P29" s="11"/>
-      <c r="Q29" s="11"/>
-      <c r="R29" s="11"/>
-      <c r="S29" s="11"/>
-      <c r="T29" s="11"/>
-      <c r="U29" s="11"/>
-      <c r="V29" s="11"/>
-      <c r="W29" s="11"/>
-      <c r="X29" s="11"/>
-      <c r="Y29" s="11"/>
+      <c r="A29" s="12"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="12"/>
+      <c r="K29" s="12"/>
+      <c r="L29" s="12"/>
+      <c r="M29" s="12"/>
+      <c r="N29" s="12"/>
+      <c r="O29" s="12"/>
+      <c r="P29" s="12"/>
+      <c r="Q29" s="12"/>
+      <c r="R29" s="12"/>
+      <c r="S29" s="12"/>
+      <c r="T29" s="12"/>
+      <c r="U29" s="12"/>
+      <c r="V29" s="12"/>
+      <c r="W29" s="12"/>
+      <c r="X29" s="12"/>
+      <c r="Y29" s="12"/>
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A30" s="11"/>
-      <c r="B30" s="11"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="11"/>
-      <c r="I30" s="11"/>
-      <c r="J30" s="11"/>
-      <c r="K30" s="11"/>
-      <c r="L30" s="11"/>
-      <c r="M30" s="11"/>
-      <c r="N30" s="11"/>
-      <c r="O30" s="11"/>
-      <c r="P30" s="11"/>
-      <c r="Q30" s="11"/>
-      <c r="R30" s="11"/>
-      <c r="S30" s="11"/>
-      <c r="T30" s="11"/>
-      <c r="U30" s="11"/>
-      <c r="V30" s="11"/>
-      <c r="W30" s="11"/>
-      <c r="X30" s="11"/>
-      <c r="Y30" s="11"/>
+      <c r="A30" s="12"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="12"/>
+      <c r="K30" s="12"/>
+      <c r="L30" s="12"/>
+      <c r="M30" s="12"/>
+      <c r="N30" s="12"/>
+      <c r="O30" s="12"/>
+      <c r="P30" s="12"/>
+      <c r="Q30" s="12"/>
+      <c r="R30" s="12"/>
+      <c r="S30" s="12"/>
+      <c r="T30" s="12"/>
+      <c r="U30" s="12"/>
+      <c r="V30" s="12"/>
+      <c r="W30" s="12"/>
+      <c r="X30" s="12"/>
+      <c r="Y30" s="12"/>
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A31" s="11"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="11"/>
-      <c r="I31" s="11"/>
-      <c r="J31" s="11"/>
-      <c r="K31" s="11"/>
-      <c r="L31" s="11"/>
-      <c r="M31" s="11"/>
-      <c r="N31" s="11"/>
-      <c r="O31" s="11"/>
-      <c r="P31" s="11"/>
-      <c r="Q31" s="11"/>
-      <c r="R31" s="11"/>
-      <c r="S31" s="11"/>
-      <c r="T31" s="11"/>
-      <c r="U31" s="11"/>
-      <c r="V31" s="11"/>
-      <c r="W31" s="11"/>
-      <c r="X31" s="11"/>
-      <c r="Y31" s="11"/>
+      <c r="A31" s="12"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="12"/>
+      <c r="K31" s="12"/>
+      <c r="L31" s="12"/>
+      <c r="M31" s="12"/>
+      <c r="N31" s="12"/>
+      <c r="O31" s="12"/>
+      <c r="P31" s="12"/>
+      <c r="Q31" s="12"/>
+      <c r="R31" s="12"/>
+      <c r="S31" s="12"/>
+      <c r="T31" s="12"/>
+      <c r="U31" s="12"/>
+      <c r="V31" s="12"/>
+      <c r="W31" s="12"/>
+      <c r="X31" s="12"/>
+      <c r="Y31" s="12"/>
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A32" s="11"/>
-      <c r="B32" s="11"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
-      <c r="H32" s="11"/>
-      <c r="I32" s="11"/>
-      <c r="J32" s="11"/>
-      <c r="K32" s="11"/>
-      <c r="L32" s="11"/>
-      <c r="M32" s="11"/>
-      <c r="N32" s="11"/>
-      <c r="O32" s="11"/>
-      <c r="P32" s="11"/>
-      <c r="Q32" s="11"/>
-      <c r="R32" s="11"/>
-      <c r="S32" s="11"/>
-      <c r="T32" s="11"/>
-      <c r="U32" s="11"/>
-      <c r="V32" s="11"/>
-      <c r="W32" s="11"/>
-      <c r="X32" s="11"/>
-      <c r="Y32" s="11"/>
+      <c r="A32" s="12"/>
+      <c r="B32" s="12"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="12"/>
+      <c r="J32" s="12"/>
+      <c r="K32" s="12"/>
+      <c r="L32" s="12"/>
+      <c r="M32" s="12"/>
+      <c r="N32" s="12"/>
+      <c r="O32" s="12"/>
+      <c r="P32" s="12"/>
+      <c r="Q32" s="12"/>
+      <c r="R32" s="12"/>
+      <c r="S32" s="12"/>
+      <c r="T32" s="12"/>
+      <c r="U32" s="12"/>
+      <c r="V32" s="12"/>
+      <c r="W32" s="12"/>
+      <c r="X32" s="12"/>
+      <c r="Y32" s="12"/>
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A33" s="11"/>
-      <c r="B33" s="11"/>
-      <c r="C33" s="11"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="11"/>
-      <c r="H33" s="11"/>
-      <c r="I33" s="11"/>
-      <c r="J33" s="11"/>
-      <c r="K33" s="11"/>
-      <c r="L33" s="11"/>
-      <c r="M33" s="11"/>
-      <c r="N33" s="11"/>
-      <c r="O33" s="11"/>
-      <c r="P33" s="11"/>
-      <c r="Q33" s="11"/>
-      <c r="R33" s="11"/>
-      <c r="S33" s="11"/>
-      <c r="T33" s="11"/>
-      <c r="U33" s="11"/>
-      <c r="V33" s="11"/>
-      <c r="W33" s="11"/>
-      <c r="X33" s="11"/>
-      <c r="Y33" s="11"/>
+      <c r="A33" s="12"/>
+      <c r="B33" s="12"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="12"/>
+      <c r="I33" s="12"/>
+      <c r="J33" s="12"/>
+      <c r="K33" s="12"/>
+      <c r="L33" s="12"/>
+      <c r="M33" s="12"/>
+      <c r="N33" s="12"/>
+      <c r="O33" s="12"/>
+      <c r="P33" s="12"/>
+      <c r="Q33" s="12"/>
+      <c r="R33" s="12"/>
+      <c r="S33" s="12"/>
+      <c r="T33" s="12"/>
+      <c r="U33" s="12"/>
+      <c r="V33" s="12"/>
+      <c r="W33" s="12"/>
+      <c r="X33" s="12"/>
+      <c r="Y33" s="12"/>
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A34" s="11"/>
-      <c r="B34" s="11"/>
-      <c r="C34" s="11"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="11"/>
-      <c r="G34" s="11"/>
-      <c r="H34" s="11"/>
-      <c r="I34" s="11"/>
-      <c r="J34" s="11"/>
-      <c r="K34" s="11"/>
-      <c r="L34" s="11"/>
-      <c r="M34" s="11"/>
-      <c r="N34" s="11"/>
-      <c r="O34" s="11"/>
-      <c r="P34" s="11"/>
-      <c r="Q34" s="11"/>
-      <c r="R34" s="11"/>
-      <c r="S34" s="11"/>
-      <c r="T34" s="11"/>
-      <c r="U34" s="11"/>
-      <c r="V34" s="11"/>
-      <c r="W34" s="11"/>
-      <c r="X34" s="11"/>
-      <c r="Y34" s="11"/>
+      <c r="A34" s="12"/>
+      <c r="B34" s="12"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="12"/>
+      <c r="I34" s="12"/>
+      <c r="J34" s="12"/>
+      <c r="K34" s="12"/>
+      <c r="L34" s="12"/>
+      <c r="M34" s="12"/>
+      <c r="N34" s="12"/>
+      <c r="O34" s="12"/>
+      <c r="P34" s="12"/>
+      <c r="Q34" s="12"/>
+      <c r="R34" s="12"/>
+      <c r="S34" s="12"/>
+      <c r="T34" s="12"/>
+      <c r="U34" s="12"/>
+      <c r="V34" s="12"/>
+      <c r="W34" s="12"/>
+      <c r="X34" s="12"/>
+      <c r="Y34" s="12"/>
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A35" s="11"/>
-      <c r="B35" s="11"/>
-      <c r="C35" s="11"/>
-      <c r="D35" s="11"/>
-      <c r="E35" s="11"/>
-      <c r="F35" s="11"/>
-      <c r="G35" s="11"/>
-      <c r="H35" s="11"/>
-      <c r="I35" s="11"/>
-      <c r="J35" s="11"/>
-      <c r="K35" s="11"/>
-      <c r="L35" s="11"/>
-      <c r="M35" s="11"/>
-      <c r="N35" s="11"/>
-      <c r="O35" s="11"/>
-      <c r="P35" s="11"/>
-      <c r="Q35" s="11"/>
-      <c r="R35" s="11"/>
-      <c r="S35" s="11"/>
-      <c r="T35" s="11"/>
-      <c r="U35" s="11"/>
-      <c r="V35" s="11"/>
-      <c r="W35" s="11"/>
-      <c r="X35" s="11"/>
-      <c r="Y35" s="11"/>
+      <c r="A35" s="12"/>
+      <c r="B35" s="12"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="12"/>
+      <c r="I35" s="12"/>
+      <c r="J35" s="12"/>
+      <c r="K35" s="12"/>
+      <c r="L35" s="12"/>
+      <c r="M35" s="12"/>
+      <c r="N35" s="12"/>
+      <c r="O35" s="12"/>
+      <c r="P35" s="12"/>
+      <c r="Q35" s="12"/>
+      <c r="R35" s="12"/>
+      <c r="S35" s="12"/>
+      <c r="T35" s="12"/>
+      <c r="U35" s="12"/>
+      <c r="V35" s="12"/>
+      <c r="W35" s="12"/>
+      <c r="X35" s="12"/>
+      <c r="Y35" s="12"/>
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A36" s="11"/>
-      <c r="B36" s="11"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="11"/>
-      <c r="G36" s="11"/>
-      <c r="H36" s="11"/>
-      <c r="I36" s="11"/>
-      <c r="J36" s="11"/>
-      <c r="K36" s="11"/>
-      <c r="L36" s="11"/>
-      <c r="M36" s="11"/>
-      <c r="N36" s="11"/>
-      <c r="O36" s="11"/>
-      <c r="P36" s="11"/>
-      <c r="Q36" s="11"/>
-      <c r="R36" s="11"/>
-      <c r="S36" s="11"/>
-      <c r="T36" s="11"/>
-      <c r="U36" s="11"/>
-      <c r="V36" s="11"/>
-      <c r="W36" s="11"/>
-      <c r="X36" s="11"/>
-      <c r="Y36" s="11"/>
+      <c r="A36" s="12"/>
+      <c r="B36" s="12"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="12"/>
+      <c r="I36" s="12"/>
+      <c r="J36" s="12"/>
+      <c r="K36" s="12"/>
+      <c r="L36" s="12"/>
+      <c r="M36" s="12"/>
+      <c r="N36" s="12"/>
+      <c r="O36" s="12"/>
+      <c r="P36" s="12"/>
+      <c r="Q36" s="12"/>
+      <c r="R36" s="12"/>
+      <c r="S36" s="12"/>
+      <c r="T36" s="12"/>
+      <c r="U36" s="12"/>
+      <c r="V36" s="12"/>
+      <c r="W36" s="12"/>
+      <c r="X36" s="12"/>
+      <c r="Y36" s="12"/>
     </row>
     <row r="37" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A37" s="11"/>
-      <c r="B37" s="11"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="11"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="11"/>
-      <c r="G37" s="11"/>
-      <c r="H37" s="11"/>
-      <c r="I37" s="11"/>
-      <c r="J37" s="11"/>
-      <c r="K37" s="11"/>
-      <c r="L37" s="11"/>
-      <c r="M37" s="11"/>
-      <c r="N37" s="11"/>
-      <c r="O37" s="11"/>
-      <c r="P37" s="11"/>
-      <c r="Q37" s="11"/>
-      <c r="R37" s="11"/>
-      <c r="S37" s="11"/>
-      <c r="T37" s="11"/>
-      <c r="U37" s="11"/>
-      <c r="V37" s="11"/>
-      <c r="W37" s="11"/>
-      <c r="X37" s="11"/>
-      <c r="Y37" s="11"/>
+      <c r="A37" s="12"/>
+      <c r="B37" s="12"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="12"/>
+      <c r="I37" s="12"/>
+      <c r="J37" s="12"/>
+      <c r="K37" s="12"/>
+      <c r="L37" s="12"/>
+      <c r="M37" s="12"/>
+      <c r="N37" s="12"/>
+      <c r="O37" s="12"/>
+      <c r="P37" s="12"/>
+      <c r="Q37" s="12"/>
+      <c r="R37" s="12"/>
+      <c r="S37" s="12"/>
+      <c r="T37" s="12"/>
+      <c r="U37" s="12"/>
+      <c r="V37" s="12"/>
+      <c r="W37" s="12"/>
+      <c r="X37" s="12"/>
+      <c r="Y37" s="12"/>
     </row>
     <row r="38" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A38" s="11"/>
-      <c r="B38" s="11"/>
-      <c r="C38" s="11"/>
-      <c r="D38" s="11"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="11"/>
-      <c r="G38" s="11"/>
-      <c r="H38" s="11"/>
-      <c r="I38" s="11"/>
-      <c r="J38" s="11"/>
-      <c r="K38" s="11"/>
-      <c r="L38" s="11"/>
-      <c r="M38" s="11"/>
-      <c r="N38" s="11"/>
-      <c r="O38" s="11"/>
-      <c r="P38" s="11"/>
-      <c r="Q38" s="11"/>
-      <c r="R38" s="11"/>
-      <c r="S38" s="11"/>
-      <c r="T38" s="11"/>
-      <c r="U38" s="11"/>
-      <c r="V38" s="11"/>
-      <c r="W38" s="11"/>
-      <c r="X38" s="11"/>
-      <c r="Y38" s="11"/>
+      <c r="A38" s="12"/>
+      <c r="B38" s="12"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="12"/>
+      <c r="H38" s="12"/>
+      <c r="I38" s="12"/>
+      <c r="J38" s="12"/>
+      <c r="K38" s="12"/>
+      <c r="L38" s="12"/>
+      <c r="M38" s="12"/>
+      <c r="N38" s="12"/>
+      <c r="O38" s="12"/>
+      <c r="P38" s="12"/>
+      <c r="Q38" s="12"/>
+      <c r="R38" s="12"/>
+      <c r="S38" s="12"/>
+      <c r="T38" s="12"/>
+      <c r="U38" s="12"/>
+      <c r="V38" s="12"/>
+      <c r="W38" s="12"/>
+      <c r="X38" s="12"/>
+      <c r="Y38" s="12"/>
     </row>
     <row r="39" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A39" s="11"/>
-      <c r="B39" s="11"/>
-      <c r="C39" s="11"/>
-      <c r="D39" s="11"/>
-      <c r="E39" s="11"/>
-      <c r="F39" s="11"/>
-      <c r="G39" s="11"/>
-      <c r="H39" s="11"/>
-      <c r="I39" s="11"/>
-      <c r="J39" s="11"/>
-      <c r="K39" s="11"/>
-      <c r="L39" s="11"/>
-      <c r="M39" s="11"/>
-      <c r="N39" s="11"/>
-      <c r="O39" s="11"/>
-      <c r="P39" s="11"/>
-      <c r="Q39" s="11"/>
-      <c r="R39" s="11"/>
-      <c r="S39" s="11"/>
-      <c r="T39" s="11"/>
-      <c r="U39" s="11"/>
-      <c r="V39" s="11"/>
-      <c r="W39" s="11"/>
-      <c r="X39" s="11"/>
-      <c r="Y39" s="11"/>
+      <c r="A39" s="12"/>
+      <c r="B39" s="12"/>
+      <c r="C39" s="12"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="12"/>
+      <c r="G39" s="12"/>
+      <c r="H39" s="12"/>
+      <c r="I39" s="12"/>
+      <c r="J39" s="12"/>
+      <c r="K39" s="12"/>
+      <c r="L39" s="12"/>
+      <c r="M39" s="12"/>
+      <c r="N39" s="12"/>
+      <c r="O39" s="12"/>
+      <c r="P39" s="12"/>
+      <c r="Q39" s="12"/>
+      <c r="R39" s="12"/>
+      <c r="S39" s="12"/>
+      <c r="T39" s="12"/>
+      <c r="U39" s="12"/>
+      <c r="V39" s="12"/>
+      <c r="W39" s="12"/>
+      <c r="X39" s="12"/>
+      <c r="Y39" s="12"/>
     </row>
     <row r="40" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A40" s="11"/>
-      <c r="B40" s="11"/>
-      <c r="C40" s="11"/>
-      <c r="D40" s="11"/>
-      <c r="E40" s="11"/>
-      <c r="F40" s="11"/>
-      <c r="G40" s="11"/>
-      <c r="H40" s="11"/>
-      <c r="I40" s="11"/>
-      <c r="J40" s="11"/>
-      <c r="K40" s="11"/>
-      <c r="L40" s="11"/>
-      <c r="M40" s="11"/>
-      <c r="N40" s="11"/>
-      <c r="O40" s="11"/>
-      <c r="P40" s="11"/>
-      <c r="Q40" s="11"/>
-      <c r="R40" s="11"/>
-      <c r="S40" s="11"/>
-      <c r="T40" s="11"/>
-      <c r="U40" s="11"/>
-      <c r="V40" s="11"/>
-      <c r="W40" s="11"/>
-      <c r="X40" s="11"/>
-      <c r="Y40" s="11"/>
+      <c r="A40" s="12"/>
+      <c r="B40" s="12"/>
+      <c r="C40" s="12"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="12"/>
+      <c r="G40" s="12"/>
+      <c r="H40" s="12"/>
+      <c r="I40" s="12"/>
+      <c r="J40" s="12"/>
+      <c r="K40" s="12"/>
+      <c r="L40" s="12"/>
+      <c r="M40" s="12"/>
+      <c r="N40" s="12"/>
+      <c r="O40" s="12"/>
+      <c r="P40" s="12"/>
+      <c r="Q40" s="12"/>
+      <c r="R40" s="12"/>
+      <c r="S40" s="12"/>
+      <c r="T40" s="12"/>
+      <c r="U40" s="12"/>
+      <c r="V40" s="12"/>
+      <c r="W40" s="12"/>
+      <c r="X40" s="12"/>
+      <c r="Y40" s="12"/>
     </row>
     <row r="41" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A41" s="11"/>
-      <c r="B41" s="11"/>
-      <c r="C41" s="11"/>
-      <c r="D41" s="11"/>
-      <c r="E41" s="11"/>
-      <c r="F41" s="11"/>
-      <c r="G41" s="11"/>
-      <c r="H41" s="11"/>
-      <c r="I41" s="11"/>
-      <c r="J41" s="11"/>
-      <c r="K41" s="11"/>
-      <c r="L41" s="11"/>
-      <c r="M41" s="11"/>
-      <c r="N41" s="11"/>
-      <c r="O41" s="11"/>
-      <c r="P41" s="11"/>
-      <c r="Q41" s="11"/>
-      <c r="R41" s="11"/>
-      <c r="S41" s="11"/>
-      <c r="T41" s="11"/>
-      <c r="U41" s="11"/>
-      <c r="V41" s="11"/>
-      <c r="W41" s="11"/>
-      <c r="X41" s="11"/>
-      <c r="Y41" s="11"/>
+      <c r="A41" s="12"/>
+      <c r="B41" s="12"/>
+      <c r="C41" s="12"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="12"/>
+      <c r="H41" s="12"/>
+      <c r="I41" s="12"/>
+      <c r="J41" s="12"/>
+      <c r="K41" s="12"/>
+      <c r="L41" s="12"/>
+      <c r="M41" s="12"/>
+      <c r="N41" s="12"/>
+      <c r="O41" s="12"/>
+      <c r="P41" s="12"/>
+      <c r="Q41" s="12"/>
+      <c r="R41" s="12"/>
+      <c r="S41" s="12"/>
+      <c r="T41" s="12"/>
+      <c r="U41" s="12"/>
+      <c r="V41" s="12"/>
+      <c r="W41" s="12"/>
+      <c r="X41" s="12"/>
+      <c r="Y41" s="12"/>
     </row>
     <row r="42" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A42" s="11"/>
-      <c r="B42" s="11"/>
-      <c r="C42" s="11"/>
-      <c r="D42" s="11"/>
-      <c r="E42" s="11"/>
-      <c r="F42" s="11"/>
-      <c r="G42" s="11"/>
-      <c r="H42" s="11"/>
-      <c r="I42" s="11"/>
-      <c r="J42" s="11"/>
-      <c r="K42" s="11"/>
-      <c r="L42" s="11"/>
-      <c r="M42" s="11"/>
-      <c r="N42" s="11"/>
-      <c r="O42" s="11"/>
-      <c r="P42" s="11"/>
-      <c r="Q42" s="11"/>
-      <c r="R42" s="11"/>
-      <c r="S42" s="11"/>
-      <c r="T42" s="11"/>
-      <c r="U42" s="11"/>
-      <c r="V42" s="11"/>
-      <c r="W42" s="11"/>
-      <c r="X42" s="11"/>
-      <c r="Y42" s="11"/>
+      <c r="A42" s="12"/>
+      <c r="B42" s="12"/>
+      <c r="C42" s="12"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="12"/>
+      <c r="H42" s="12"/>
+      <c r="I42" s="12"/>
+      <c r="J42" s="12"/>
+      <c r="K42" s="12"/>
+      <c r="L42" s="12"/>
+      <c r="M42" s="12"/>
+      <c r="N42" s="12"/>
+      <c r="O42" s="12"/>
+      <c r="P42" s="12"/>
+      <c r="Q42" s="12"/>
+      <c r="R42" s="12"/>
+      <c r="S42" s="12"/>
+      <c r="T42" s="12"/>
+      <c r="U42" s="12"/>
+      <c r="V42" s="12"/>
+      <c r="W42" s="12"/>
+      <c r="X42" s="12"/>
+      <c r="Y42" s="12"/>
     </row>
     <row r="43" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A43" s="11"/>
-      <c r="B43" s="11"/>
-      <c r="C43" s="11"/>
-      <c r="D43" s="11"/>
-      <c r="E43" s="11"/>
-      <c r="F43" s="11"/>
-      <c r="G43" s="11"/>
-      <c r="H43" s="11"/>
-      <c r="I43" s="11"/>
-      <c r="J43" s="11"/>
-      <c r="K43" s="11"/>
-      <c r="L43" s="11"/>
-      <c r="M43" s="11"/>
-      <c r="N43" s="11"/>
-      <c r="O43" s="11"/>
-      <c r="P43" s="11"/>
-      <c r="Q43" s="11"/>
-      <c r="R43" s="11"/>
-      <c r="S43" s="11"/>
-      <c r="T43" s="11"/>
-      <c r="U43" s="11"/>
-      <c r="V43" s="11"/>
-      <c r="W43" s="11"/>
-      <c r="X43" s="11"/>
-      <c r="Y43" s="11"/>
+      <c r="A43" s="12"/>
+      <c r="B43" s="12"/>
+      <c r="C43" s="12"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="12"/>
+      <c r="G43" s="12"/>
+      <c r="H43" s="12"/>
+      <c r="I43" s="12"/>
+      <c r="J43" s="12"/>
+      <c r="K43" s="12"/>
+      <c r="L43" s="12"/>
+      <c r="M43" s="12"/>
+      <c r="N43" s="12"/>
+      <c r="O43" s="12"/>
+      <c r="P43" s="12"/>
+      <c r="Q43" s="12"/>
+      <c r="R43" s="12"/>
+      <c r="S43" s="12"/>
+      <c r="T43" s="12"/>
+      <c r="U43" s="12"/>
+      <c r="V43" s="12"/>
+      <c r="W43" s="12"/>
+      <c r="X43" s="12"/>
+      <c r="Y43" s="12"/>
     </row>
     <row r="44" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A44" s="11"/>
-      <c r="B44" s="11"/>
-      <c r="C44" s="11"/>
-      <c r="D44" s="11"/>
-      <c r="E44" s="11"/>
-      <c r="F44" s="11"/>
-      <c r="G44" s="11"/>
-      <c r="H44" s="11"/>
-      <c r="I44" s="11"/>
-      <c r="J44" s="11"/>
-      <c r="K44" s="11"/>
-      <c r="L44" s="11"/>
-      <c r="M44" s="11"/>
-      <c r="N44" s="11"/>
-      <c r="O44" s="11"/>
-      <c r="P44" s="11"/>
-      <c r="Q44" s="11"/>
-      <c r="R44" s="11"/>
-      <c r="S44" s="11"/>
-      <c r="T44" s="11"/>
-      <c r="U44" s="11"/>
-      <c r="V44" s="11"/>
-      <c r="W44" s="11"/>
-      <c r="X44" s="11"/>
-      <c r="Y44" s="11"/>
+      <c r="A44" s="12"/>
+      <c r="B44" s="12"/>
+      <c r="C44" s="12"/>
+      <c r="D44" s="12"/>
+      <c r="E44" s="12"/>
+      <c r="F44" s="12"/>
+      <c r="G44" s="12"/>
+      <c r="H44" s="12"/>
+      <c r="I44" s="12"/>
+      <c r="J44" s="12"/>
+      <c r="K44" s="12"/>
+      <c r="L44" s="12"/>
+      <c r="M44" s="12"/>
+      <c r="N44" s="12"/>
+      <c r="O44" s="12"/>
+      <c r="P44" s="12"/>
+      <c r="Q44" s="12"/>
+      <c r="R44" s="12"/>
+      <c r="S44" s="12"/>
+      <c r="T44" s="12"/>
+      <c r="U44" s="12"/>
+      <c r="V44" s="12"/>
+      <c r="W44" s="12"/>
+      <c r="X44" s="12"/>
+      <c r="Y44" s="12"/>
     </row>
     <row r="45" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A45" s="11"/>
-      <c r="B45" s="11"/>
-      <c r="C45" s="11"/>
-      <c r="D45" s="11"/>
-      <c r="E45" s="11"/>
-      <c r="F45" s="11"/>
-      <c r="G45" s="11"/>
-      <c r="H45" s="11"/>
-      <c r="I45" s="11"/>
-      <c r="J45" s="11"/>
-      <c r="K45" s="11"/>
-      <c r="L45" s="11"/>
-      <c r="M45" s="11"/>
-      <c r="N45" s="11"/>
-      <c r="O45" s="11"/>
-      <c r="P45" s="11"/>
-      <c r="Q45" s="11"/>
-      <c r="R45" s="11"/>
-      <c r="S45" s="11"/>
-      <c r="T45" s="11"/>
-      <c r="U45" s="11"/>
-      <c r="V45" s="11"/>
-      <c r="W45" s="11"/>
-      <c r="X45" s="11"/>
-      <c r="Y45" s="11"/>
+      <c r="A45" s="12"/>
+      <c r="B45" s="12"/>
+      <c r="C45" s="12"/>
+      <c r="D45" s="12"/>
+      <c r="E45" s="12"/>
+      <c r="F45" s="12"/>
+      <c r="G45" s="12"/>
+      <c r="H45" s="12"/>
+      <c r="I45" s="12"/>
+      <c r="J45" s="12"/>
+      <c r="K45" s="12"/>
+      <c r="L45" s="12"/>
+      <c r="M45" s="12"/>
+      <c r="N45" s="12"/>
+      <c r="O45" s="12"/>
+      <c r="P45" s="12"/>
+      <c r="Q45" s="12"/>
+      <c r="R45" s="12"/>
+      <c r="S45" s="12"/>
+      <c r="T45" s="12"/>
+      <c r="U45" s="12"/>
+      <c r="V45" s="12"/>
+      <c r="W45" s="12"/>
+      <c r="X45" s="12"/>
+      <c r="Y45" s="12"/>
     </row>
     <row r="46" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A46" s="11"/>
-      <c r="B46" s="11"/>
-      <c r="C46" s="11"/>
-      <c r="D46" s="11"/>
-      <c r="E46" s="11"/>
-      <c r="F46" s="11"/>
-      <c r="G46" s="11"/>
-      <c r="H46" s="11"/>
-      <c r="I46" s="11"/>
-      <c r="J46" s="11"/>
-      <c r="K46" s="11"/>
-      <c r="L46" s="11"/>
-      <c r="M46" s="11"/>
-      <c r="N46" s="11"/>
-      <c r="O46" s="11"/>
-      <c r="P46" s="11"/>
-      <c r="Q46" s="11"/>
-      <c r="R46" s="11"/>
-      <c r="S46" s="11"/>
-      <c r="T46" s="11"/>
-      <c r="U46" s="11"/>
-      <c r="V46" s="11"/>
-      <c r="W46" s="11"/>
-      <c r="X46" s="11"/>
-      <c r="Y46" s="11"/>
+      <c r="A46" s="12"/>
+      <c r="B46" s="12"/>
+      <c r="C46" s="12"/>
+      <c r="D46" s="12"/>
+      <c r="E46" s="12"/>
+      <c r="F46" s="12"/>
+      <c r="G46" s="12"/>
+      <c r="H46" s="12"/>
+      <c r="I46" s="12"/>
+      <c r="J46" s="12"/>
+      <c r="K46" s="12"/>
+      <c r="L46" s="12"/>
+      <c r="M46" s="12"/>
+      <c r="N46" s="12"/>
+      <c r="O46" s="12"/>
+      <c r="P46" s="12"/>
+      <c r="Q46" s="12"/>
+      <c r="R46" s="12"/>
+      <c r="S46" s="12"/>
+      <c r="T46" s="12"/>
+      <c r="U46" s="12"/>
+      <c r="V46" s="12"/>
+      <c r="W46" s="12"/>
+      <c r="X46" s="12"/>
+      <c r="Y46" s="12"/>
     </row>
     <row r="47" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A47" s="11"/>
-      <c r="B47" s="11"/>
-      <c r="C47" s="11"/>
-      <c r="D47" s="11"/>
-      <c r="E47" s="11"/>
-      <c r="F47" s="11"/>
-      <c r="G47" s="11"/>
-      <c r="H47" s="11"/>
-      <c r="I47" s="11"/>
-      <c r="J47" s="11"/>
-      <c r="K47" s="11"/>
-      <c r="L47" s="11"/>
-      <c r="M47" s="11"/>
-      <c r="N47" s="11"/>
-      <c r="O47" s="11"/>
-      <c r="P47" s="11"/>
-      <c r="Q47" s="11"/>
-      <c r="R47" s="11"/>
-      <c r="S47" s="11"/>
-      <c r="T47" s="11"/>
-      <c r="U47" s="11"/>
-      <c r="V47" s="11"/>
-      <c r="W47" s="11"/>
-      <c r="X47" s="11"/>
-      <c r="Y47" s="11"/>
+      <c r="A47" s="12"/>
+      <c r="B47" s="12"/>
+      <c r="C47" s="12"/>
+      <c r="D47" s="12"/>
+      <c r="E47" s="12"/>
+      <c r="F47" s="12"/>
+      <c r="G47" s="12"/>
+      <c r="H47" s="12"/>
+      <c r="I47" s="12"/>
+      <c r="J47" s="12"/>
+      <c r="K47" s="12"/>
+      <c r="L47" s="12"/>
+      <c r="M47" s="12"/>
+      <c r="N47" s="12"/>
+      <c r="O47" s="12"/>
+      <c r="P47" s="12"/>
+      <c r="Q47" s="12"/>
+      <c r="R47" s="12"/>
+      <c r="S47" s="12"/>
+      <c r="T47" s="12"/>
+      <c r="U47" s="12"/>
+      <c r="V47" s="12"/>
+      <c r="W47" s="12"/>
+      <c r="X47" s="12"/>
+      <c r="Y47" s="12"/>
     </row>
     <row r="48" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A48" s="11"/>
-      <c r="B48" s="11"/>
-      <c r="C48" s="11"/>
-      <c r="D48" s="11"/>
-      <c r="E48" s="11"/>
-      <c r="F48" s="11"/>
-      <c r="G48" s="11"/>
-      <c r="H48" s="11"/>
-      <c r="I48" s="11"/>
-      <c r="J48" s="11"/>
-      <c r="K48" s="11"/>
-      <c r="L48" s="11"/>
-      <c r="M48" s="11"/>
-      <c r="N48" s="11"/>
-      <c r="O48" s="11"/>
-      <c r="P48" s="11"/>
-      <c r="Q48" s="11"/>
-      <c r="R48" s="11"/>
-      <c r="S48" s="11"/>
-      <c r="T48" s="11"/>
-      <c r="U48" s="11"/>
-      <c r="V48" s="11"/>
-      <c r="W48" s="11"/>
-      <c r="X48" s="11"/>
-      <c r="Y48" s="11"/>
+      <c r="A48" s="12"/>
+      <c r="B48" s="12"/>
+      <c r="C48" s="12"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="12"/>
+      <c r="F48" s="12"/>
+      <c r="G48" s="12"/>
+      <c r="H48" s="12"/>
+      <c r="I48" s="12"/>
+      <c r="J48" s="12"/>
+      <c r="K48" s="12"/>
+      <c r="L48" s="12"/>
+      <c r="M48" s="12"/>
+      <c r="N48" s="12"/>
+      <c r="O48" s="12"/>
+      <c r="P48" s="12"/>
+      <c r="Q48" s="12"/>
+      <c r="R48" s="12"/>
+      <c r="S48" s="12"/>
+      <c r="T48" s="12"/>
+      <c r="U48" s="12"/>
+      <c r="V48" s="12"/>
+      <c r="W48" s="12"/>
+      <c r="X48" s="12"/>
+      <c r="Y48" s="12"/>
     </row>
     <row r="49" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A49" s="11"/>
-      <c r="B49" s="11"/>
-      <c r="C49" s="11"/>
-      <c r="D49" s="11"/>
-      <c r="E49" s="11"/>
-      <c r="F49" s="11"/>
-      <c r="G49" s="11"/>
-      <c r="H49" s="11"/>
-      <c r="I49" s="11"/>
-      <c r="J49" s="11"/>
-      <c r="K49" s="11"/>
-      <c r="L49" s="11"/>
-      <c r="M49" s="11"/>
-      <c r="N49" s="11"/>
-      <c r="O49" s="11"/>
-      <c r="P49" s="11"/>
-      <c r="Q49" s="11"/>
-      <c r="R49" s="11"/>
-      <c r="S49" s="11"/>
-      <c r="T49" s="11"/>
-      <c r="U49" s="11"/>
-      <c r="V49" s="11"/>
-      <c r="W49" s="11"/>
-      <c r="X49" s="11"/>
-      <c r="Y49" s="11"/>
+      <c r="A49" s="12"/>
+      <c r="B49" s="12"/>
+      <c r="C49" s="12"/>
+      <c r="D49" s="12"/>
+      <c r="E49" s="12"/>
+      <c r="F49" s="12"/>
+      <c r="G49" s="12"/>
+      <c r="H49" s="12"/>
+      <c r="I49" s="12"/>
+      <c r="J49" s="12"/>
+      <c r="K49" s="12"/>
+      <c r="L49" s="12"/>
+      <c r="M49" s="12"/>
+      <c r="N49" s="12"/>
+      <c r="O49" s="12"/>
+      <c r="P49" s="12"/>
+      <c r="Q49" s="12"/>
+      <c r="R49" s="12"/>
+      <c r="S49" s="12"/>
+      <c r="T49" s="12"/>
+      <c r="U49" s="12"/>
+      <c r="V49" s="12"/>
+      <c r="W49" s="12"/>
+      <c r="X49" s="12"/>
+      <c r="Y49" s="12"/>
     </row>
     <row r="50" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A50" s="11"/>
-      <c r="B50" s="11"/>
-      <c r="C50" s="11"/>
-      <c r="D50" s="11"/>
-      <c r="E50" s="11"/>
-      <c r="F50" s="11"/>
-      <c r="G50" s="11"/>
-      <c r="H50" s="11"/>
-      <c r="I50" s="11"/>
-      <c r="J50" s="11"/>
-      <c r="K50" s="11"/>
-      <c r="L50" s="11"/>
-      <c r="M50" s="11"/>
-      <c r="N50" s="11"/>
-      <c r="O50" s="11"/>
-      <c r="P50" s="11"/>
-      <c r="Q50" s="11"/>
-      <c r="R50" s="11"/>
-      <c r="S50" s="11"/>
-      <c r="T50" s="11"/>
-      <c r="U50" s="11"/>
-      <c r="V50" s="11"/>
-      <c r="W50" s="11"/>
-      <c r="X50" s="11"/>
-      <c r="Y50" s="11"/>
+      <c r="A50" s="12"/>
+      <c r="B50" s="12"/>
+      <c r="C50" s="12"/>
+      <c r="D50" s="12"/>
+      <c r="E50" s="12"/>
+      <c r="F50" s="12"/>
+      <c r="G50" s="12"/>
+      <c r="H50" s="12"/>
+      <c r="I50" s="12"/>
+      <c r="J50" s="12"/>
+      <c r="K50" s="12"/>
+      <c r="L50" s="12"/>
+      <c r="M50" s="12"/>
+      <c r="N50" s="12"/>
+      <c r="O50" s="12"/>
+      <c r="P50" s="12"/>
+      <c r="Q50" s="12"/>
+      <c r="R50" s="12"/>
+      <c r="S50" s="12"/>
+      <c r="T50" s="12"/>
+      <c r="U50" s="12"/>
+      <c r="V50" s="12"/>
+      <c r="W50" s="12"/>
+      <c r="X50" s="12"/>
+      <c r="Y50" s="12"/>
     </row>
     <row r="51" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A51" s="11"/>
-      <c r="B51" s="11"/>
-      <c r="C51" s="11"/>
-      <c r="D51" s="11"/>
-      <c r="E51" s="11"/>
-      <c r="F51" s="11"/>
-      <c r="G51" s="11"/>
-      <c r="H51" s="11"/>
-      <c r="I51" s="11"/>
-      <c r="J51" s="11"/>
-      <c r="K51" s="11"/>
-      <c r="L51" s="11"/>
-      <c r="M51" s="11"/>
-      <c r="N51" s="11"/>
-      <c r="O51" s="11"/>
-      <c r="P51" s="11"/>
-      <c r="Q51" s="11"/>
-      <c r="R51" s="11"/>
-      <c r="S51" s="11"/>
-      <c r="T51" s="11"/>
-      <c r="U51" s="11"/>
-      <c r="V51" s="11"/>
-      <c r="W51" s="11"/>
-      <c r="X51" s="11"/>
-      <c r="Y51" s="11"/>
+      <c r="A51" s="12"/>
+      <c r="B51" s="12"/>
+      <c r="C51" s="12"/>
+      <c r="D51" s="12"/>
+      <c r="E51" s="12"/>
+      <c r="F51" s="12"/>
+      <c r="G51" s="12"/>
+      <c r="H51" s="12"/>
+      <c r="I51" s="12"/>
+      <c r="J51" s="12"/>
+      <c r="K51" s="12"/>
+      <c r="L51" s="12"/>
+      <c r="M51" s="12"/>
+      <c r="N51" s="12"/>
+      <c r="O51" s="12"/>
+      <c r="P51" s="12"/>
+      <c r="Q51" s="12"/>
+      <c r="R51" s="12"/>
+      <c r="S51" s="12"/>
+      <c r="T51" s="12"/>
+      <c r="U51" s="12"/>
+      <c r="V51" s="12"/>
+      <c r="W51" s="12"/>
+      <c r="X51" s="12"/>
+      <c r="Y51" s="12"/>
     </row>
     <row r="52" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A52" s="11"/>
-      <c r="B52" s="11"/>
-      <c r="C52" s="11"/>
-      <c r="D52" s="11"/>
-      <c r="E52" s="11"/>
-      <c r="F52" s="11"/>
-      <c r="G52" s="11"/>
-      <c r="H52" s="11"/>
-      <c r="I52" s="11"/>
-      <c r="J52" s="11"/>
-      <c r="K52" s="11"/>
-      <c r="L52" s="11"/>
-      <c r="M52" s="11"/>
-      <c r="N52" s="11"/>
-      <c r="O52" s="11"/>
-      <c r="P52" s="11"/>
-      <c r="Q52" s="11"/>
-      <c r="R52" s="11"/>
-      <c r="S52" s="11"/>
-      <c r="T52" s="11"/>
-      <c r="U52" s="11"/>
-      <c r="V52" s="11"/>
-      <c r="W52" s="11"/>
-      <c r="X52" s="11"/>
-      <c r="Y52" s="11"/>
+      <c r="A52" s="12"/>
+      <c r="B52" s="12"/>
+      <c r="C52" s="12"/>
+      <c r="D52" s="12"/>
+      <c r="E52" s="12"/>
+      <c r="F52" s="12"/>
+      <c r="G52" s="12"/>
+      <c r="H52" s="12"/>
+      <c r="I52" s="12"/>
+      <c r="J52" s="12"/>
+      <c r="K52" s="12"/>
+      <c r="L52" s="12"/>
+      <c r="M52" s="12"/>
+      <c r="N52" s="12"/>
+      <c r="O52" s="12"/>
+      <c r="P52" s="12"/>
+      <c r="Q52" s="12"/>
+      <c r="R52" s="12"/>
+      <c r="S52" s="12"/>
+      <c r="T52" s="12"/>
+      <c r="U52" s="12"/>
+      <c r="V52" s="12"/>
+      <c r="W52" s="12"/>
+      <c r="X52" s="12"/>
+      <c r="Y52" s="12"/>
     </row>
     <row r="53" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A53" s="11"/>
-      <c r="B53" s="11"/>
-      <c r="C53" s="11"/>
-      <c r="D53" s="11"/>
-      <c r="E53" s="11"/>
-      <c r="F53" s="11"/>
-      <c r="G53" s="11"/>
-      <c r="H53" s="11"/>
-      <c r="I53" s="11"/>
-      <c r="J53" s="11"/>
-      <c r="K53" s="11"/>
-      <c r="L53" s="11"/>
-      <c r="M53" s="11"/>
-      <c r="N53" s="11"/>
-      <c r="O53" s="11"/>
-      <c r="P53" s="11"/>
-      <c r="Q53" s="11"/>
-      <c r="R53" s="11"/>
-      <c r="S53" s="11"/>
-      <c r="T53" s="11"/>
-      <c r="U53" s="11"/>
-      <c r="V53" s="11"/>
-      <c r="W53" s="11"/>
-      <c r="X53" s="11"/>
-      <c r="Y53" s="11"/>
+      <c r="A53" s="12"/>
+      <c r="B53" s="12"/>
+      <c r="C53" s="12"/>
+      <c r="D53" s="12"/>
+      <c r="E53" s="12"/>
+      <c r="F53" s="12"/>
+      <c r="G53" s="12"/>
+      <c r="H53" s="12"/>
+      <c r="I53" s="12"/>
+      <c r="J53" s="12"/>
+      <c r="K53" s="12"/>
+      <c r="L53" s="12"/>
+      <c r="M53" s="12"/>
+      <c r="N53" s="12"/>
+      <c r="O53" s="12"/>
+      <c r="P53" s="12"/>
+      <c r="Q53" s="12"/>
+      <c r="R53" s="12"/>
+      <c r="S53" s="12"/>
+      <c r="T53" s="12"/>
+      <c r="U53" s="12"/>
+      <c r="V53" s="12"/>
+      <c r="W53" s="12"/>
+      <c r="X53" s="12"/>
+      <c r="Y53" s="12"/>
     </row>
     <row r="54" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A54" s="11"/>
-      <c r="B54" s="11"/>
-      <c r="C54" s="11"/>
-      <c r="D54" s="11"/>
-      <c r="E54" s="11"/>
-      <c r="F54" s="11"/>
-      <c r="G54" s="11"/>
-      <c r="H54" s="11"/>
-      <c r="I54" s="11"/>
-      <c r="J54" s="11"/>
-      <c r="K54" s="11"/>
-      <c r="L54" s="11"/>
-      <c r="M54" s="11"/>
-      <c r="N54" s="11"/>
-      <c r="O54" s="11"/>
-      <c r="P54" s="11"/>
-      <c r="Q54" s="11"/>
-      <c r="R54" s="11"/>
-      <c r="S54" s="11"/>
-      <c r="T54" s="11"/>
-      <c r="U54" s="11"/>
-      <c r="V54" s="11"/>
-      <c r="W54" s="11"/>
-      <c r="X54" s="11"/>
-      <c r="Y54" s="11"/>
+      <c r="A54" s="12"/>
+      <c r="B54" s="12"/>
+      <c r="C54" s="12"/>
+      <c r="D54" s="12"/>
+      <c r="E54" s="12"/>
+      <c r="F54" s="12"/>
+      <c r="G54" s="12"/>
+      <c r="H54" s="12"/>
+      <c r="I54" s="12"/>
+      <c r="J54" s="12"/>
+      <c r="K54" s="12"/>
+      <c r="L54" s="12"/>
+      <c r="M54" s="12"/>
+      <c r="N54" s="12"/>
+      <c r="O54" s="12"/>
+      <c r="P54" s="12"/>
+      <c r="Q54" s="12"/>
+      <c r="R54" s="12"/>
+      <c r="S54" s="12"/>
+      <c r="T54" s="12"/>
+      <c r="U54" s="12"/>
+      <c r="V54" s="12"/>
+      <c r="W54" s="12"/>
+      <c r="X54" s="12"/>
+      <c r="Y54" s="12"/>
     </row>
     <row r="55" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A55" s="11"/>
-      <c r="B55" s="11"/>
-      <c r="C55" s="11"/>
-      <c r="D55" s="11"/>
-      <c r="E55" s="11"/>
-      <c r="F55" s="11"/>
-      <c r="G55" s="11"/>
-      <c r="H55" s="11"/>
-      <c r="I55" s="11"/>
-      <c r="J55" s="11"/>
-      <c r="K55" s="11"/>
-      <c r="L55" s="11"/>
-      <c r="M55" s="11"/>
-      <c r="N55" s="11"/>
-      <c r="O55" s="11"/>
-      <c r="P55" s="11"/>
-      <c r="Q55" s="11"/>
-      <c r="R55" s="11"/>
-      <c r="S55" s="11"/>
-      <c r="T55" s="11"/>
-      <c r="U55" s="11"/>
-      <c r="V55" s="11"/>
-      <c r="W55" s="11"/>
-      <c r="X55" s="11"/>
-      <c r="Y55" s="11"/>
+      <c r="A55" s="12"/>
+      <c r="B55" s="12"/>
+      <c r="C55" s="12"/>
+      <c r="D55" s="12"/>
+      <c r="E55" s="12"/>
+      <c r="F55" s="12"/>
+      <c r="G55" s="12"/>
+      <c r="H55" s="12"/>
+      <c r="I55" s="12"/>
+      <c r="J55" s="12"/>
+      <c r="K55" s="12"/>
+      <c r="L55" s="12"/>
+      <c r="M55" s="12"/>
+      <c r="N55" s="12"/>
+      <c r="O55" s="12"/>
+      <c r="P55" s="12"/>
+      <c r="Q55" s="12"/>
+      <c r="R55" s="12"/>
+      <c r="S55" s="12"/>
+      <c r="T55" s="12"/>
+      <c r="U55" s="12"/>
+      <c r="V55" s="12"/>
+      <c r="W55" s="12"/>
+      <c r="X55" s="12"/>
+      <c r="Y55" s="12"/>
     </row>
     <row r="56" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A56" s="11"/>
-      <c r="B56" s="11"/>
-      <c r="C56" s="11"/>
-      <c r="D56" s="11"/>
-      <c r="E56" s="11"/>
-      <c r="F56" s="11"/>
-      <c r="G56" s="11"/>
-      <c r="H56" s="11"/>
-      <c r="I56" s="11"/>
-      <c r="J56" s="11"/>
-      <c r="K56" s="11"/>
-      <c r="L56" s="11"/>
-      <c r="M56" s="11"/>
-      <c r="N56" s="11"/>
-      <c r="O56" s="11"/>
-      <c r="P56" s="11"/>
-      <c r="Q56" s="11"/>
-      <c r="R56" s="11"/>
-      <c r="S56" s="11"/>
-      <c r="T56" s="11"/>
-      <c r="U56" s="11"/>
-      <c r="V56" s="11"/>
-      <c r="W56" s="11"/>
-      <c r="X56" s="11"/>
-      <c r="Y56" s="11"/>
+      <c r="A56" s="12"/>
+      <c r="B56" s="12"/>
+      <c r="C56" s="12"/>
+      <c r="D56" s="12"/>
+      <c r="E56" s="12"/>
+      <c r="F56" s="12"/>
+      <c r="G56" s="12"/>
+      <c r="H56" s="12"/>
+      <c r="I56" s="12"/>
+      <c r="J56" s="12"/>
+      <c r="K56" s="12"/>
+      <c r="L56" s="12"/>
+      <c r="M56" s="12"/>
+      <c r="N56" s="12"/>
+      <c r="O56" s="12"/>
+      <c r="P56" s="12"/>
+      <c r="Q56" s="12"/>
+      <c r="R56" s="12"/>
+      <c r="S56" s="12"/>
+      <c r="T56" s="12"/>
+      <c r="U56" s="12"/>
+      <c r="V56" s="12"/>
+      <c r="W56" s="12"/>
+      <c r="X56" s="12"/>
+      <c r="Y56" s="12"/>
     </row>
     <row r="57" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A57" s="11"/>
-      <c r="B57" s="11"/>
-      <c r="C57" s="11"/>
-      <c r="D57" s="11"/>
-      <c r="E57" s="11"/>
-      <c r="F57" s="11"/>
-      <c r="G57" s="11"/>
-      <c r="H57" s="11"/>
-      <c r="I57" s="11"/>
-      <c r="J57" s="11"/>
-      <c r="K57" s="11"/>
-      <c r="L57" s="11"/>
-      <c r="M57" s="11"/>
-      <c r="N57" s="11"/>
-      <c r="O57" s="11"/>
-      <c r="P57" s="11"/>
-      <c r="Q57" s="11"/>
-      <c r="R57" s="11"/>
-      <c r="S57" s="11"/>
-      <c r="T57" s="11"/>
-      <c r="U57" s="11"/>
-      <c r="V57" s="11"/>
-      <c r="W57" s="11"/>
-      <c r="X57" s="11"/>
-      <c r="Y57" s="11"/>
+      <c r="A57" s="12"/>
+      <c r="B57" s="12"/>
+      <c r="C57" s="12"/>
+      <c r="D57" s="12"/>
+      <c r="E57" s="12"/>
+      <c r="F57" s="12"/>
+      <c r="G57" s="12"/>
+      <c r="H57" s="12"/>
+      <c r="I57" s="12"/>
+      <c r="J57" s="12"/>
+      <c r="K57" s="12"/>
+      <c r="L57" s="12"/>
+      <c r="M57" s="12"/>
+      <c r="N57" s="12"/>
+      <c r="O57" s="12"/>
+      <c r="P57" s="12"/>
+      <c r="Q57" s="12"/>
+      <c r="R57" s="12"/>
+      <c r="S57" s="12"/>
+      <c r="T57" s="12"/>
+      <c r="U57" s="12"/>
+      <c r="V57" s="12"/>
+      <c r="W57" s="12"/>
+      <c r="X57" s="12"/>
+      <c r="Y57" s="12"/>
     </row>
     <row r="58" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A58" s="11"/>
-      <c r="B58" s="11"/>
-      <c r="C58" s="11"/>
-      <c r="D58" s="11"/>
-      <c r="E58" s="11"/>
-      <c r="F58" s="11"/>
-      <c r="G58" s="11"/>
-      <c r="H58" s="11"/>
-      <c r="I58" s="11"/>
-      <c r="J58" s="11"/>
-      <c r="K58" s="11"/>
-      <c r="L58" s="11"/>
-      <c r="M58" s="11"/>
-      <c r="N58" s="11"/>
-      <c r="O58" s="11"/>
-      <c r="P58" s="11"/>
-      <c r="Q58" s="11"/>
-      <c r="R58" s="11"/>
-      <c r="S58" s="11"/>
-      <c r="T58" s="11"/>
-      <c r="U58" s="11"/>
-      <c r="V58" s="11"/>
-      <c r="W58" s="11"/>
-      <c r="X58" s="11"/>
-      <c r="Y58" s="11"/>
+      <c r="A58" s="12"/>
+      <c r="B58" s="12"/>
+      <c r="C58" s="12"/>
+      <c r="D58" s="12"/>
+      <c r="E58" s="12"/>
+      <c r="F58" s="12"/>
+      <c r="G58" s="12"/>
+      <c r="H58" s="12"/>
+      <c r="I58" s="12"/>
+      <c r="J58" s="12"/>
+      <c r="K58" s="12"/>
+      <c r="L58" s="12"/>
+      <c r="M58" s="12"/>
+      <c r="N58" s="12"/>
+      <c r="O58" s="12"/>
+      <c r="P58" s="12"/>
+      <c r="Q58" s="12"/>
+      <c r="R58" s="12"/>
+      <c r="S58" s="12"/>
+      <c r="T58" s="12"/>
+      <c r="U58" s="12"/>
+      <c r="V58" s="12"/>
+      <c r="W58" s="12"/>
+      <c r="X58" s="12"/>
+      <c r="Y58" s="12"/>
     </row>
     <row r="59" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A59" s="11"/>
-      <c r="B59" s="11"/>
-      <c r="C59" s="11"/>
-      <c r="D59" s="11"/>
-      <c r="E59" s="11"/>
-      <c r="F59" s="11"/>
-      <c r="G59" s="11"/>
-      <c r="H59" s="11"/>
-      <c r="I59" s="11"/>
-      <c r="J59" s="11"/>
-      <c r="K59" s="11"/>
-      <c r="L59" s="11"/>
-      <c r="M59" s="11"/>
-      <c r="N59" s="11"/>
-      <c r="O59" s="11"/>
-      <c r="P59" s="11"/>
-      <c r="Q59" s="11"/>
-      <c r="R59" s="11"/>
-      <c r="S59" s="11"/>
-      <c r="T59" s="11"/>
-      <c r="U59" s="11"/>
-      <c r="V59" s="11"/>
-      <c r="W59" s="11"/>
-      <c r="X59" s="11"/>
-      <c r="Y59" s="11"/>
+      <c r="A59" s="12"/>
+      <c r="B59" s="12"/>
+      <c r="C59" s="12"/>
+      <c r="D59" s="12"/>
+      <c r="E59" s="12"/>
+      <c r="F59" s="12"/>
+      <c r="G59" s="12"/>
+      <c r="H59" s="12"/>
+      <c r="I59" s="12"/>
+      <c r="J59" s="12"/>
+      <c r="K59" s="12"/>
+      <c r="L59" s="12"/>
+      <c r="M59" s="12"/>
+      <c r="N59" s="12"/>
+      <c r="O59" s="12"/>
+      <c r="P59" s="12"/>
+      <c r="Q59" s="12"/>
+      <c r="R59" s="12"/>
+      <c r="S59" s="12"/>
+      <c r="T59" s="12"/>
+      <c r="U59" s="12"/>
+      <c r="V59" s="12"/>
+      <c r="W59" s="12"/>
+      <c r="X59" s="12"/>
+      <c r="Y59" s="12"/>
     </row>
     <row r="60" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A60" s="11"/>
-      <c r="B60" s="11"/>
-      <c r="C60" s="11"/>
-      <c r="D60" s="11"/>
-      <c r="E60" s="11"/>
-      <c r="F60" s="11"/>
-      <c r="G60" s="11"/>
-      <c r="H60" s="11"/>
-      <c r="I60" s="11"/>
-      <c r="J60" s="11"/>
-      <c r="K60" s="11"/>
-      <c r="L60" s="11"/>
-      <c r="M60" s="11"/>
-      <c r="N60" s="11"/>
-      <c r="O60" s="11"/>
-      <c r="P60" s="11"/>
-      <c r="Q60" s="11"/>
-      <c r="R60" s="11"/>
-      <c r="S60" s="11"/>
-      <c r="T60" s="11"/>
-      <c r="U60" s="11"/>
-      <c r="V60" s="11"/>
-      <c r="W60" s="11"/>
-      <c r="X60" s="11"/>
-      <c r="Y60" s="11"/>
+      <c r="A60" s="12"/>
+      <c r="B60" s="12"/>
+      <c r="C60" s="12"/>
+      <c r="D60" s="12"/>
+      <c r="E60" s="12"/>
+      <c r="F60" s="12"/>
+      <c r="G60" s="12"/>
+      <c r="H60" s="12"/>
+      <c r="I60" s="12"/>
+      <c r="J60" s="12"/>
+      <c r="K60" s="12"/>
+      <c r="L60" s="12"/>
+      <c r="M60" s="12"/>
+      <c r="N60" s="12"/>
+      <c r="O60" s="12"/>
+      <c r="P60" s="12"/>
+      <c r="Q60" s="12"/>
+      <c r="R60" s="12"/>
+      <c r="S60" s="12"/>
+      <c r="T60" s="12"/>
+      <c r="U60" s="12"/>
+      <c r="V60" s="12"/>
+      <c r="W60" s="12"/>
+      <c r="X60" s="12"/>
+      <c r="Y60" s="12"/>
     </row>
     <row r="61" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A61" s="11"/>
-      <c r="B61" s="11"/>
-      <c r="C61" s="11"/>
-      <c r="D61" s="11"/>
-      <c r="E61" s="11"/>
-      <c r="F61" s="11"/>
-      <c r="G61" s="11"/>
-      <c r="H61" s="11"/>
-      <c r="I61" s="11"/>
-      <c r="J61" s="11"/>
-      <c r="K61" s="11"/>
-      <c r="L61" s="11"/>
-      <c r="M61" s="11"/>
-      <c r="N61" s="11"/>
-      <c r="O61" s="11"/>
-      <c r="P61" s="11"/>
-      <c r="Q61" s="11"/>
-      <c r="R61" s="11"/>
-      <c r="S61" s="11"/>
-      <c r="T61" s="11"/>
-      <c r="U61" s="11"/>
-      <c r="V61" s="11"/>
-      <c r="W61" s="11"/>
-      <c r="X61" s="11"/>
-      <c r="Y61" s="11"/>
+      <c r="A61" s="12"/>
+      <c r="B61" s="12"/>
+      <c r="C61" s="12"/>
+      <c r="D61" s="12"/>
+      <c r="E61" s="12"/>
+      <c r="F61" s="12"/>
+      <c r="G61" s="12"/>
+      <c r="H61" s="12"/>
+      <c r="I61" s="12"/>
+      <c r="J61" s="12"/>
+      <c r="K61" s="12"/>
+      <c r="L61" s="12"/>
+      <c r="M61" s="12"/>
+      <c r="N61" s="12"/>
+      <c r="O61" s="12"/>
+      <c r="P61" s="12"/>
+      <c r="Q61" s="12"/>
+      <c r="R61" s="12"/>
+      <c r="S61" s="12"/>
+      <c r="T61" s="12"/>
+      <c r="U61" s="12"/>
+      <c r="V61" s="12"/>
+      <c r="W61" s="12"/>
+      <c r="X61" s="12"/>
+      <c r="Y61" s="12"/>
     </row>
     <row r="62" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A62" s="11"/>
-      <c r="B62" s="11"/>
-      <c r="C62" s="11"/>
-      <c r="D62" s="11"/>
-      <c r="E62" s="11"/>
-      <c r="F62" s="11"/>
-      <c r="G62" s="11"/>
-      <c r="H62" s="11"/>
-      <c r="I62" s="11"/>
-      <c r="J62" s="11"/>
-      <c r="K62" s="11"/>
-      <c r="L62" s="11"/>
-      <c r="M62" s="11"/>
-      <c r="N62" s="11"/>
-      <c r="O62" s="11"/>
-      <c r="P62" s="11"/>
-      <c r="Q62" s="11"/>
-      <c r="R62" s="11"/>
-      <c r="S62" s="11"/>
-      <c r="T62" s="11"/>
-      <c r="U62" s="11"/>
-      <c r="V62" s="11"/>
-      <c r="W62" s="11"/>
-      <c r="X62" s="11"/>
-      <c r="Y62" s="11"/>
+      <c r="A62" s="12"/>
+      <c r="B62" s="12"/>
+      <c r="C62" s="12"/>
+      <c r="D62" s="12"/>
+      <c r="E62" s="12"/>
+      <c r="F62" s="12"/>
+      <c r="G62" s="12"/>
+      <c r="H62" s="12"/>
+      <c r="I62" s="12"/>
+      <c r="J62" s="12"/>
+      <c r="K62" s="12"/>
+      <c r="L62" s="12"/>
+      <c r="M62" s="12"/>
+      <c r="N62" s="12"/>
+      <c r="O62" s="12"/>
+      <c r="P62" s="12"/>
+      <c r="Q62" s="12"/>
+      <c r="R62" s="12"/>
+      <c r="S62" s="12"/>
+      <c r="T62" s="12"/>
+      <c r="U62" s="12"/>
+      <c r="V62" s="12"/>
+      <c r="W62" s="12"/>
+      <c r="X62" s="12"/>
+      <c r="Y62" s="12"/>
     </row>
     <row r="63" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A63" s="11"/>
-      <c r="B63" s="11"/>
-      <c r="C63" s="11"/>
-      <c r="D63" s="11"/>
-      <c r="E63" s="11"/>
-      <c r="F63" s="11"/>
-      <c r="G63" s="11"/>
-      <c r="H63" s="11"/>
-      <c r="I63" s="11"/>
-      <c r="J63" s="11"/>
-      <c r="K63" s="11"/>
-      <c r="L63" s="11"/>
-      <c r="M63" s="11"/>
-      <c r="N63" s="11"/>
-      <c r="O63" s="11"/>
-      <c r="P63" s="11"/>
-      <c r="Q63" s="11"/>
-      <c r="R63" s="11"/>
-      <c r="S63" s="11"/>
-      <c r="T63" s="11"/>
-      <c r="U63" s="11"/>
-      <c r="V63" s="11"/>
-      <c r="W63" s="11"/>
-      <c r="X63" s="11"/>
-      <c r="Y63" s="11"/>
+      <c r="A63" s="12"/>
+      <c r="B63" s="12"/>
+      <c r="C63" s="12"/>
+      <c r="D63" s="12"/>
+      <c r="E63" s="12"/>
+      <c r="F63" s="12"/>
+      <c r="G63" s="12"/>
+      <c r="H63" s="12"/>
+      <c r="I63" s="12"/>
+      <c r="J63" s="12"/>
+      <c r="K63" s="12"/>
+      <c r="L63" s="12"/>
+      <c r="M63" s="12"/>
+      <c r="N63" s="12"/>
+      <c r="O63" s="12"/>
+      <c r="P63" s="12"/>
+      <c r="Q63" s="12"/>
+      <c r="R63" s="12"/>
+      <c r="S63" s="12"/>
+      <c r="T63" s="12"/>
+      <c r="U63" s="12"/>
+      <c r="V63" s="12"/>
+      <c r="W63" s="12"/>
+      <c r="X63" s="12"/>
+      <c r="Y63" s="12"/>
     </row>
     <row r="64" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A64" s="11"/>
-      <c r="B64" s="11"/>
-      <c r="C64" s="11"/>
-      <c r="D64" s="11"/>
-      <c r="E64" s="11"/>
-      <c r="F64" s="11"/>
-      <c r="G64" s="11"/>
-      <c r="H64" s="11"/>
-      <c r="I64" s="11"/>
-      <c r="J64" s="11"/>
-      <c r="K64" s="11"/>
-      <c r="L64" s="11"/>
-      <c r="M64" s="11"/>
-      <c r="N64" s="11"/>
-      <c r="O64" s="11"/>
-      <c r="P64" s="11"/>
-      <c r="Q64" s="11"/>
-      <c r="R64" s="11"/>
-      <c r="S64" s="11"/>
-      <c r="T64" s="11"/>
-      <c r="U64" s="11"/>
-      <c r="V64" s="11"/>
-      <c r="W64" s="11"/>
-      <c r="X64" s="11"/>
-      <c r="Y64" s="11"/>
+      <c r="A64" s="12"/>
+      <c r="B64" s="12"/>
+      <c r="C64" s="12"/>
+      <c r="D64" s="12"/>
+      <c r="E64" s="12"/>
+      <c r="F64" s="12"/>
+      <c r="G64" s="12"/>
+      <c r="H64" s="12"/>
+      <c r="I64" s="12"/>
+      <c r="J64" s="12"/>
+      <c r="K64" s="12"/>
+      <c r="L64" s="12"/>
+      <c r="M64" s="12"/>
+      <c r="N64" s="12"/>
+      <c r="O64" s="12"/>
+      <c r="P64" s="12"/>
+      <c r="Q64" s="12"/>
+      <c r="R64" s="12"/>
+      <c r="S64" s="12"/>
+      <c r="T64" s="12"/>
+      <c r="U64" s="12"/>
+      <c r="V64" s="12"/>
+      <c r="W64" s="12"/>
+      <c r="X64" s="12"/>
+      <c r="Y64" s="12"/>
     </row>
     <row r="65" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A65" s="11"/>
-      <c r="B65" s="11"/>
-      <c r="C65" s="11"/>
-      <c r="D65" s="11"/>
-      <c r="E65" s="11"/>
-      <c r="F65" s="11"/>
-      <c r="G65" s="11"/>
-      <c r="H65" s="11"/>
-      <c r="I65" s="11"/>
-      <c r="J65" s="11"/>
-      <c r="K65" s="11"/>
-      <c r="L65" s="11"/>
-      <c r="M65" s="11"/>
-      <c r="N65" s="11"/>
-      <c r="O65" s="11"/>
-      <c r="P65" s="11"/>
-      <c r="Q65" s="11"/>
-      <c r="R65" s="11"/>
-      <c r="S65" s="11"/>
-      <c r="T65" s="11"/>
-      <c r="U65" s="11"/>
-      <c r="V65" s="11"/>
-      <c r="W65" s="11"/>
-      <c r="X65" s="11"/>
-      <c r="Y65" s="11"/>
+      <c r="A65" s="12"/>
+      <c r="B65" s="12"/>
+      <c r="C65" s="12"/>
+      <c r="D65" s="12"/>
+      <c r="E65" s="12"/>
+      <c r="F65" s="12"/>
+      <c r="G65" s="12"/>
+      <c r="H65" s="12"/>
+      <c r="I65" s="12"/>
+      <c r="J65" s="12"/>
+      <c r="K65" s="12"/>
+      <c r="L65" s="12"/>
+      <c r="M65" s="12"/>
+      <c r="N65" s="12"/>
+      <c r="O65" s="12"/>
+      <c r="P65" s="12"/>
+      <c r="Q65" s="12"/>
+      <c r="R65" s="12"/>
+      <c r="S65" s="12"/>
+      <c r="T65" s="12"/>
+      <c r="U65" s="12"/>
+      <c r="V65" s="12"/>
+      <c r="W65" s="12"/>
+      <c r="X65" s="12"/>
+      <c r="Y65" s="12"/>
     </row>
     <row r="66" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A66" s="11"/>
-      <c r="B66" s="11"/>
-      <c r="C66" s="11"/>
-      <c r="D66" s="11"/>
-      <c r="E66" s="11"/>
-      <c r="F66" s="11"/>
-      <c r="G66" s="11"/>
-      <c r="H66" s="11"/>
-      <c r="I66" s="11"/>
-      <c r="J66" s="11"/>
-      <c r="K66" s="11"/>
-      <c r="L66" s="11"/>
-      <c r="M66" s="11"/>
-      <c r="N66" s="11"/>
-      <c r="O66" s="11"/>
-      <c r="P66" s="11"/>
-      <c r="Q66" s="11"/>
-      <c r="R66" s="11"/>
-      <c r="S66" s="11"/>
-      <c r="T66" s="11"/>
-      <c r="U66" s="11"/>
-      <c r="V66" s="11"/>
-      <c r="W66" s="11"/>
-      <c r="X66" s="11"/>
-      <c r="Y66" s="11"/>
+      <c r="A66" s="12"/>
+      <c r="B66" s="12"/>
+      <c r="C66" s="12"/>
+      <c r="D66" s="12"/>
+      <c r="E66" s="12"/>
+      <c r="F66" s="12"/>
+      <c r="G66" s="12"/>
+      <c r="H66" s="12"/>
+      <c r="I66" s="12"/>
+      <c r="J66" s="12"/>
+      <c r="K66" s="12"/>
+      <c r="L66" s="12"/>
+      <c r="M66" s="12"/>
+      <c r="N66" s="12"/>
+      <c r="O66" s="12"/>
+      <c r="P66" s="12"/>
+      <c r="Q66" s="12"/>
+      <c r="R66" s="12"/>
+      <c r="S66" s="12"/>
+      <c r="T66" s="12"/>
+      <c r="U66" s="12"/>
+      <c r="V66" s="12"/>
+      <c r="W66" s="12"/>
+      <c r="X66" s="12"/>
+      <c r="Y66" s="12"/>
     </row>
     <row r="67" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A67" s="11"/>
-      <c r="B67" s="11"/>
-      <c r="C67" s="11"/>
-      <c r="D67" s="11"/>
-      <c r="E67" s="11"/>
-      <c r="F67" s="11"/>
-      <c r="G67" s="11"/>
-      <c r="H67" s="11"/>
-      <c r="I67" s="11"/>
-      <c r="J67" s="11"/>
-      <c r="K67" s="11"/>
-      <c r="L67" s="11"/>
-      <c r="M67" s="11"/>
-      <c r="N67" s="11"/>
-      <c r="O67" s="11"/>
-      <c r="P67" s="11"/>
-      <c r="Q67" s="11"/>
-      <c r="R67" s="11"/>
-      <c r="S67" s="11"/>
-      <c r="T67" s="11"/>
-      <c r="U67" s="11"/>
-      <c r="V67" s="11"/>
-      <c r="W67" s="11"/>
-      <c r="X67" s="11"/>
-      <c r="Y67" s="11"/>
+      <c r="A67" s="12"/>
+      <c r="B67" s="12"/>
+      <c r="C67" s="12"/>
+      <c r="D67" s="12"/>
+      <c r="E67" s="12"/>
+      <c r="F67" s="12"/>
+      <c r="G67" s="12"/>
+      <c r="H67" s="12"/>
+      <c r="I67" s="12"/>
+      <c r="J67" s="12"/>
+      <c r="K67" s="12"/>
+      <c r="L67" s="12"/>
+      <c r="M67" s="12"/>
+      <c r="N67" s="12"/>
+      <c r="O67" s="12"/>
+      <c r="P67" s="12"/>
+      <c r="Q67" s="12"/>
+      <c r="R67" s="12"/>
+      <c r="S67" s="12"/>
+      <c r="T67" s="12"/>
+      <c r="U67" s="12"/>
+      <c r="V67" s="12"/>
+      <c r="W67" s="12"/>
+      <c r="X67" s="12"/>
+      <c r="Y67" s="12"/>
     </row>
     <row r="68" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A68" s="11"/>
-      <c r="B68" s="11"/>
-      <c r="C68" s="11"/>
-      <c r="D68" s="11"/>
-      <c r="E68" s="11"/>
-      <c r="F68" s="11"/>
-      <c r="G68" s="11"/>
-      <c r="H68" s="11"/>
-      <c r="I68" s="11"/>
-      <c r="J68" s="11"/>
-      <c r="K68" s="11"/>
-      <c r="L68" s="11"/>
-      <c r="M68" s="11"/>
-      <c r="N68" s="11"/>
-      <c r="O68" s="11"/>
-      <c r="P68" s="11"/>
-      <c r="Q68" s="11"/>
-      <c r="R68" s="11"/>
-      <c r="S68" s="11"/>
-      <c r="T68" s="11"/>
-      <c r="U68" s="11"/>
-      <c r="V68" s="11"/>
-      <c r="W68" s="11"/>
-      <c r="X68" s="11"/>
-      <c r="Y68" s="11"/>
+      <c r="A68" s="12"/>
+      <c r="B68" s="12"/>
+      <c r="C68" s="12"/>
+      <c r="D68" s="12"/>
+      <c r="E68" s="12"/>
+      <c r="F68" s="12"/>
+      <c r="G68" s="12"/>
+      <c r="H68" s="12"/>
+      <c r="I68" s="12"/>
+      <c r="J68" s="12"/>
+      <c r="K68" s="12"/>
+      <c r="L68" s="12"/>
+      <c r="M68" s="12"/>
+      <c r="N68" s="12"/>
+      <c r="O68" s="12"/>
+      <c r="P68" s="12"/>
+      <c r="Q68" s="12"/>
+      <c r="R68" s="12"/>
+      <c r="S68" s="12"/>
+      <c r="T68" s="12"/>
+      <c r="U68" s="12"/>
+      <c r="V68" s="12"/>
+      <c r="W68" s="12"/>
+      <c r="X68" s="12"/>
+      <c r="Y68" s="12"/>
     </row>
     <row r="69" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A69" s="11"/>
-      <c r="B69" s="11"/>
-      <c r="C69" s="11"/>
-      <c r="D69" s="11"/>
-      <c r="E69" s="11"/>
-      <c r="F69" s="11"/>
-      <c r="G69" s="11"/>
-      <c r="H69" s="11"/>
-      <c r="I69" s="11"/>
-      <c r="J69" s="11"/>
-      <c r="K69" s="11"/>
-      <c r="L69" s="11"/>
-      <c r="M69" s="11"/>
-      <c r="N69" s="11"/>
-      <c r="O69" s="11"/>
-      <c r="P69" s="11"/>
-      <c r="Q69" s="11"/>
-      <c r="R69" s="11"/>
-      <c r="S69" s="11"/>
-      <c r="T69" s="11"/>
-      <c r="U69" s="11"/>
-      <c r="V69" s="11"/>
-      <c r="W69" s="11"/>
-      <c r="X69" s="11"/>
-      <c r="Y69" s="11"/>
+      <c r="A69" s="12"/>
+      <c r="B69" s="12"/>
+      <c r="C69" s="12"/>
+      <c r="D69" s="12"/>
+      <c r="E69" s="12"/>
+      <c r="F69" s="12"/>
+      <c r="G69" s="12"/>
+      <c r="H69" s="12"/>
+      <c r="I69" s="12"/>
+      <c r="J69" s="12"/>
+      <c r="K69" s="12"/>
+      <c r="L69" s="12"/>
+      <c r="M69" s="12"/>
+      <c r="N69" s="12"/>
+      <c r="O69" s="12"/>
+      <c r="P69" s="12"/>
+      <c r="Q69" s="12"/>
+      <c r="R69" s="12"/>
+      <c r="S69" s="12"/>
+      <c r="T69" s="12"/>
+      <c r="U69" s="12"/>
+      <c r="V69" s="12"/>
+      <c r="W69" s="12"/>
+      <c r="X69" s="12"/>
+      <c r="Y69" s="12"/>
     </row>
     <row r="70" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A70" s="11"/>
-      <c r="B70" s="11"/>
-      <c r="C70" s="11"/>
-      <c r="D70" s="11"/>
-      <c r="E70" s="11"/>
-      <c r="F70" s="11"/>
-      <c r="G70" s="11"/>
-      <c r="H70" s="11"/>
-      <c r="I70" s="11"/>
-      <c r="J70" s="11"/>
-      <c r="K70" s="11"/>
-      <c r="L70" s="11"/>
-      <c r="M70" s="11"/>
-      <c r="N70" s="11"/>
-      <c r="O70" s="11"/>
-      <c r="P70" s="11"/>
-      <c r="Q70" s="11"/>
-      <c r="R70" s="11"/>
-      <c r="S70" s="11"/>
-      <c r="T70" s="11"/>
-      <c r="U70" s="11"/>
-      <c r="V70" s="11"/>
-      <c r="W70" s="11"/>
-      <c r="X70" s="11"/>
-      <c r="Y70" s="11"/>
+      <c r="A70" s="12"/>
+      <c r="B70" s="12"/>
+      <c r="C70" s="12"/>
+      <c r="D70" s="12"/>
+      <c r="E70" s="12"/>
+      <c r="F70" s="12"/>
+      <c r="G70" s="12"/>
+      <c r="H70" s="12"/>
+      <c r="I70" s="12"/>
+      <c r="J70" s="12"/>
+      <c r="K70" s="12"/>
+      <c r="L70" s="12"/>
+      <c r="M70" s="12"/>
+      <c r="N70" s="12"/>
+      <c r="O70" s="12"/>
+      <c r="P70" s="12"/>
+      <c r="Q70" s="12"/>
+      <c r="R70" s="12"/>
+      <c r="S70" s="12"/>
+      <c r="T70" s="12"/>
+      <c r="U70" s="12"/>
+      <c r="V70" s="12"/>
+      <c r="W70" s="12"/>
+      <c r="X70" s="12"/>
+      <c r="Y70" s="12"/>
     </row>
     <row r="71" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A71" s="11"/>
-      <c r="B71" s="11"/>
-      <c r="C71" s="11"/>
-      <c r="D71" s="11"/>
-      <c r="E71" s="11"/>
-      <c r="F71" s="11"/>
-      <c r="G71" s="11"/>
-      <c r="H71" s="11"/>
-      <c r="I71" s="11"/>
-      <c r="J71" s="11"/>
-      <c r="K71" s="11"/>
-      <c r="L71" s="11"/>
-      <c r="M71" s="11"/>
-      <c r="N71" s="11"/>
-      <c r="O71" s="11"/>
-      <c r="P71" s="11"/>
-      <c r="Q71" s="11"/>
-      <c r="R71" s="11"/>
-      <c r="S71" s="11"/>
-      <c r="T71" s="11"/>
-      <c r="U71" s="11"/>
-      <c r="V71" s="11"/>
-      <c r="W71" s="11"/>
-      <c r="X71" s="11"/>
-      <c r="Y71" s="11"/>
+      <c r="A71" s="12"/>
+      <c r="B71" s="12"/>
+      <c r="C71" s="12"/>
+      <c r="D71" s="12"/>
+      <c r="E71" s="12"/>
+      <c r="F71" s="12"/>
+      <c r="G71" s="12"/>
+      <c r="H71" s="12"/>
+      <c r="I71" s="12"/>
+      <c r="J71" s="12"/>
+      <c r="K71" s="12"/>
+      <c r="L71" s="12"/>
+      <c r="M71" s="12"/>
+      <c r="N71" s="12"/>
+      <c r="O71" s="12"/>
+      <c r="P71" s="12"/>
+      <c r="Q71" s="12"/>
+      <c r="R71" s="12"/>
+      <c r="S71" s="12"/>
+      <c r="T71" s="12"/>
+      <c r="U71" s="12"/>
+      <c r="V71" s="12"/>
+      <c r="W71" s="12"/>
+      <c r="X71" s="12"/>
+      <c r="Y71" s="12"/>
     </row>
     <row r="72" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A72" s="11"/>
-      <c r="B72" s="11"/>
-      <c r="C72" s="11"/>
-      <c r="D72" s="11"/>
-      <c r="E72" s="11"/>
-      <c r="F72" s="11"/>
-      <c r="G72" s="11"/>
-      <c r="H72" s="11"/>
-      <c r="I72" s="11"/>
-      <c r="J72" s="11"/>
-      <c r="K72" s="11"/>
-      <c r="L72" s="11"/>
-      <c r="M72" s="11"/>
-      <c r="N72" s="11"/>
-      <c r="O72" s="11"/>
-      <c r="P72" s="11"/>
-      <c r="Q72" s="11"/>
-      <c r="R72" s="11"/>
-      <c r="S72" s="11"/>
-      <c r="T72" s="11"/>
-      <c r="U72" s="11"/>
-      <c r="V72" s="11"/>
-      <c r="W72" s="11"/>
-      <c r="X72" s="11"/>
-      <c r="Y72" s="11"/>
+      <c r="A72" s="12"/>
+      <c r="B72" s="12"/>
+      <c r="C72" s="12"/>
+      <c r="D72" s="12"/>
+      <c r="E72" s="12"/>
+      <c r="F72" s="12"/>
+      <c r="G72" s="12"/>
+      <c r="H72" s="12"/>
+      <c r="I72" s="12"/>
+      <c r="J72" s="12"/>
+      <c r="K72" s="12"/>
+      <c r="L72" s="12"/>
+      <c r="M72" s="12"/>
+      <c r="N72" s="12"/>
+      <c r="O72" s="12"/>
+      <c r="P72" s="12"/>
+      <c r="Q72" s="12"/>
+      <c r="R72" s="12"/>
+      <c r="S72" s="12"/>
+      <c r="T72" s="12"/>
+      <c r="U72" s="12"/>
+      <c r="V72" s="12"/>
+      <c r="W72" s="12"/>
+      <c r="X72" s="12"/>
+      <c r="Y72" s="12"/>
     </row>
     <row r="73" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A73" s="11"/>
-      <c r="B73" s="11"/>
-      <c r="C73" s="11"/>
-      <c r="D73" s="11"/>
-      <c r="E73" s="11"/>
-      <c r="F73" s="11"/>
-      <c r="G73" s="11"/>
-      <c r="H73" s="11"/>
-      <c r="I73" s="11"/>
-      <c r="J73" s="11"/>
-      <c r="K73" s="11"/>
-      <c r="L73" s="11"/>
-      <c r="M73" s="11"/>
-      <c r="N73" s="11"/>
-      <c r="O73" s="11"/>
-      <c r="P73" s="11"/>
-      <c r="Q73" s="11"/>
-      <c r="R73" s="11"/>
-      <c r="S73" s="11"/>
-      <c r="T73" s="11"/>
-      <c r="U73" s="11"/>
-      <c r="V73" s="11"/>
-      <c r="W73" s="11"/>
-      <c r="X73" s="11"/>
-      <c r="Y73" s="11"/>
+      <c r="A73" s="12"/>
+      <c r="B73" s="12"/>
+      <c r="C73" s="12"/>
+      <c r="D73" s="12"/>
+      <c r="E73" s="12"/>
+      <c r="F73" s="12"/>
+      <c r="G73" s="12"/>
+      <c r="H73" s="12"/>
+      <c r="I73" s="12"/>
+      <c r="J73" s="12"/>
+      <c r="K73" s="12"/>
+      <c r="L73" s="12"/>
+      <c r="M73" s="12"/>
+      <c r="N73" s="12"/>
+      <c r="O73" s="12"/>
+      <c r="P73" s="12"/>
+      <c r="Q73" s="12"/>
+      <c r="R73" s="12"/>
+      <c r="S73" s="12"/>
+      <c r="T73" s="12"/>
+      <c r="U73" s="12"/>
+      <c r="V73" s="12"/>
+      <c r="W73" s="12"/>
+      <c r="X73" s="12"/>
+      <c r="Y73" s="12"/>
     </row>
     <row r="74" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A74" s="11"/>
-      <c r="B74" s="11"/>
-      <c r="C74" s="11"/>
-      <c r="D74" s="11"/>
-      <c r="E74" s="11"/>
-      <c r="F74" s="11"/>
-      <c r="G74" s="11"/>
-      <c r="H74" s="11"/>
-      <c r="I74" s="11"/>
-      <c r="J74" s="11"/>
-      <c r="K74" s="11"/>
-      <c r="L74" s="11"/>
-      <c r="M74" s="11"/>
-      <c r="N74" s="11"/>
-      <c r="O74" s="11"/>
-      <c r="P74" s="11"/>
-      <c r="Q74" s="11"/>
-      <c r="R74" s="11"/>
-      <c r="S74" s="11"/>
-      <c r="T74" s="11"/>
-      <c r="U74" s="11"/>
-      <c r="V74" s="11"/>
-      <c r="W74" s="11"/>
-      <c r="X74" s="11"/>
-      <c r="Y74" s="11"/>
+      <c r="A74" s="12"/>
+      <c r="B74" s="12"/>
+      <c r="C74" s="12"/>
+      <c r="D74" s="12"/>
+      <c r="E74" s="12"/>
+      <c r="F74" s="12"/>
+      <c r="G74" s="12"/>
+      <c r="H74" s="12"/>
+      <c r="I74" s="12"/>
+      <c r="J74" s="12"/>
+      <c r="K74" s="12"/>
+      <c r="L74" s="12"/>
+      <c r="M74" s="12"/>
+      <c r="N74" s="12"/>
+      <c r="O74" s="12"/>
+      <c r="P74" s="12"/>
+      <c r="Q74" s="12"/>
+      <c r="R74" s="12"/>
+      <c r="S74" s="12"/>
+      <c r="T74" s="12"/>
+      <c r="U74" s="12"/>
+      <c r="V74" s="12"/>
+      <c r="W74" s="12"/>
+      <c r="X74" s="12"/>
+      <c r="Y74" s="12"/>
     </row>
     <row r="75" spans="1:25" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="12"/>
-      <c r="B75" s="12"/>
-      <c r="C75" s="12"/>
-      <c r="D75" s="12"/>
-      <c r="E75" s="12"/>
-      <c r="F75" s="12"/>
-      <c r="G75" s="12"/>
-      <c r="H75" s="12"/>
-      <c r="I75" s="12"/>
-      <c r="J75" s="12"/>
-      <c r="K75" s="12"/>
-      <c r="L75" s="12"/>
-      <c r="M75" s="12"/>
-      <c r="N75" s="12"/>
-      <c r="O75" s="12"/>
-      <c r="P75" s="12"/>
-      <c r="Q75" s="12"/>
-      <c r="R75" s="12"/>
-      <c r="S75" s="12"/>
-      <c r="T75" s="12"/>
-      <c r="U75" s="12"/>
-      <c r="V75" s="12"/>
-      <c r="W75" s="12"/>
-      <c r="X75" s="12"/>
-      <c r="Y75" s="12"/>
+      <c r="A75" s="11"/>
+      <c r="B75" s="11"/>
+      <c r="C75" s="11"/>
+      <c r="D75" s="11"/>
+      <c r="E75" s="11"/>
+      <c r="F75" s="11"/>
+      <c r="G75" s="11"/>
+      <c r="H75" s="11"/>
+      <c r="I75" s="11"/>
+      <c r="J75" s="11"/>
+      <c r="K75" s="11"/>
+      <c r="L75" s="11"/>
+      <c r="M75" s="11"/>
+      <c r="N75" s="11"/>
+      <c r="O75" s="11"/>
+      <c r="P75" s="11"/>
+      <c r="Q75" s="11"/>
+      <c r="R75" s="11"/>
+      <c r="S75" s="11"/>
+      <c r="T75" s="11"/>
+      <c r="U75" s="11"/>
+      <c r="V75" s="11"/>
+      <c r="W75" s="11"/>
+      <c r="X75" s="11"/>
+      <c r="Y75" s="11"/>
     </row>
     <row r="76" spans="1:25" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="12"/>
-      <c r="B76" s="12"/>
-      <c r="C76" s="12"/>
-      <c r="D76" s="12"/>
-      <c r="E76" s="12"/>
-      <c r="F76" s="12"/>
-      <c r="G76" s="12"/>
-      <c r="H76" s="12"/>
-      <c r="I76" s="12"/>
-      <c r="J76" s="12"/>
-      <c r="K76" s="12"/>
-      <c r="L76" s="12"/>
-      <c r="M76" s="12"/>
-      <c r="N76" s="12"/>
-      <c r="O76" s="12"/>
-      <c r="P76" s="12"/>
-      <c r="Q76" s="12"/>
-      <c r="R76" s="12"/>
-      <c r="S76" s="12"/>
-      <c r="T76" s="12"/>
-      <c r="U76" s="12"/>
-      <c r="V76" s="12"/>
-      <c r="W76" s="12"/>
-      <c r="X76" s="12"/>
-      <c r="Y76" s="12"/>
+      <c r="A76" s="11"/>
+      <c r="B76" s="11"/>
+      <c r="C76" s="11"/>
+      <c r="D76" s="11"/>
+      <c r="E76" s="11"/>
+      <c r="F76" s="11"/>
+      <c r="G76" s="11"/>
+      <c r="H76" s="11"/>
+      <c r="I76" s="11"/>
+      <c r="J76" s="11"/>
+      <c r="K76" s="11"/>
+      <c r="L76" s="11"/>
+      <c r="M76" s="11"/>
+      <c r="N76" s="11"/>
+      <c r="O76" s="11"/>
+      <c r="P76" s="11"/>
+      <c r="Q76" s="11"/>
+      <c r="R76" s="11"/>
+      <c r="S76" s="11"/>
+      <c r="T76" s="11"/>
+      <c r="U76" s="11"/>
+      <c r="V76" s="11"/>
+      <c r="W76" s="11"/>
+      <c r="X76" s="11"/>
+      <c r="Y76" s="11"/>
     </row>
     <row r="77" spans="1:25" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="12"/>
-      <c r="B77" s="12"/>
-      <c r="C77" s="12"/>
-      <c r="D77" s="12"/>
-      <c r="E77" s="12"/>
-      <c r="F77" s="12"/>
-      <c r="G77" s="12"/>
-      <c r="H77" s="12"/>
-      <c r="I77" s="12"/>
-      <c r="J77" s="12"/>
-      <c r="K77" s="12"/>
-      <c r="L77" s="12"/>
-      <c r="M77" s="12"/>
-      <c r="N77" s="12"/>
-      <c r="O77" s="12"/>
-      <c r="P77" s="12"/>
-      <c r="Q77" s="12"/>
-      <c r="R77" s="12"/>
-      <c r="S77" s="12"/>
-      <c r="T77" s="12"/>
-      <c r="U77" s="12"/>
-      <c r="V77" s="12"/>
-      <c r="W77" s="12"/>
-      <c r="X77" s="12"/>
-      <c r="Y77" s="12"/>
+      <c r="A77" s="11"/>
+      <c r="B77" s="11"/>
+      <c r="C77" s="11"/>
+      <c r="D77" s="11"/>
+      <c r="E77" s="11"/>
+      <c r="F77" s="11"/>
+      <c r="G77" s="11"/>
+      <c r="H77" s="11"/>
+      <c r="I77" s="11"/>
+      <c r="J77" s="11"/>
+      <c r="K77" s="11"/>
+      <c r="L77" s="11"/>
+      <c r="M77" s="11"/>
+      <c r="N77" s="11"/>
+      <c r="O77" s="11"/>
+      <c r="P77" s="11"/>
+      <c r="Q77" s="11"/>
+      <c r="R77" s="11"/>
+      <c r="S77" s="11"/>
+      <c r="T77" s="11"/>
+      <c r="U77" s="11"/>
+      <c r="V77" s="11"/>
+      <c r="W77" s="11"/>
+      <c r="X77" s="11"/>
+      <c r="Y77" s="11"/>
     </row>
     <row r="78" spans="1:25" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="12"/>
-      <c r="B78" s="12"/>
-      <c r="C78" s="12"/>
-      <c r="D78" s="12"/>
-      <c r="E78" s="12"/>
-      <c r="F78" s="12"/>
-      <c r="G78" s="12"/>
-      <c r="H78" s="12"/>
-      <c r="I78" s="12"/>
-      <c r="J78" s="12"/>
-      <c r="K78" s="12"/>
-      <c r="L78" s="12"/>
-      <c r="M78" s="12"/>
-      <c r="N78" s="12"/>
-      <c r="O78" s="12"/>
-      <c r="P78" s="12"/>
-      <c r="Q78" s="12"/>
-      <c r="R78" s="12"/>
-      <c r="S78" s="12"/>
-      <c r="T78" s="12"/>
-      <c r="U78" s="12"/>
-      <c r="V78" s="12"/>
-      <c r="W78" s="12"/>
-      <c r="X78" s="12"/>
-      <c r="Y78" s="12"/>
+      <c r="A78" s="11"/>
+      <c r="B78" s="11"/>
+      <c r="C78" s="11"/>
+      <c r="D78" s="11"/>
+      <c r="E78" s="11"/>
+      <c r="F78" s="11"/>
+      <c r="G78" s="11"/>
+      <c r="H78" s="11"/>
+      <c r="I78" s="11"/>
+      <c r="J78" s="11"/>
+      <c r="K78" s="11"/>
+      <c r="L78" s="11"/>
+      <c r="M78" s="11"/>
+      <c r="N78" s="11"/>
+      <c r="O78" s="11"/>
+      <c r="P78" s="11"/>
+      <c r="Q78" s="11"/>
+      <c r="R78" s="11"/>
+      <c r="S78" s="11"/>
+      <c r="T78" s="11"/>
+      <c r="U78" s="11"/>
+      <c r="V78" s="11"/>
+      <c r="W78" s="11"/>
+      <c r="X78" s="11"/>
+      <c r="Y78" s="11"/>
     </row>
     <row r="79" spans="1:25" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="12"/>
-      <c r="B79" s="12"/>
-      <c r="C79" s="12"/>
-      <c r="D79" s="12"/>
-      <c r="E79" s="12"/>
-      <c r="F79" s="12"/>
-      <c r="G79" s="12"/>
-      <c r="H79" s="12"/>
-      <c r="I79" s="12"/>
-      <c r="J79" s="12"/>
-      <c r="K79" s="12"/>
-      <c r="L79" s="12"/>
-      <c r="M79" s="12"/>
-      <c r="N79" s="12"/>
-      <c r="O79" s="12"/>
-      <c r="P79" s="12"/>
-      <c r="Q79" s="12"/>
-      <c r="R79" s="12"/>
-      <c r="S79" s="12"/>
-      <c r="T79" s="12"/>
-      <c r="U79" s="12"/>
-      <c r="V79" s="12"/>
-      <c r="W79" s="12"/>
-      <c r="X79" s="12"/>
-      <c r="Y79" s="12"/>
+      <c r="A79" s="11"/>
+      <c r="B79" s="11"/>
+      <c r="C79" s="11"/>
+      <c r="D79" s="11"/>
+      <c r="E79" s="11"/>
+      <c r="F79" s="11"/>
+      <c r="G79" s="11"/>
+      <c r="H79" s="11"/>
+      <c r="I79" s="11"/>
+      <c r="J79" s="11"/>
+      <c r="K79" s="11"/>
+      <c r="L79" s="11"/>
+      <c r="M79" s="11"/>
+      <c r="N79" s="11"/>
+      <c r="O79" s="11"/>
+      <c r="P79" s="11"/>
+      <c r="Q79" s="11"/>
+      <c r="R79" s="11"/>
+      <c r="S79" s="11"/>
+      <c r="T79" s="11"/>
+      <c r="U79" s="11"/>
+      <c r="V79" s="11"/>
+      <c r="W79" s="11"/>
+      <c r="X79" s="11"/>
+      <c r="Y79" s="11"/>
     </row>
     <row r="80" spans="1:25" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="12"/>
-      <c r="B80" s="12"/>
-      <c r="C80" s="12"/>
-      <c r="D80" s="12"/>
-      <c r="E80" s="12"/>
-      <c r="F80" s="12"/>
-      <c r="G80" s="12"/>
-      <c r="H80" s="12"/>
-      <c r="I80" s="12"/>
-      <c r="J80" s="12"/>
-      <c r="K80" s="12"/>
-      <c r="L80" s="12"/>
-      <c r="M80" s="12"/>
-      <c r="N80" s="12"/>
-      <c r="O80" s="12"/>
-      <c r="P80" s="12"/>
-      <c r="Q80" s="12"/>
-      <c r="R80" s="12"/>
-      <c r="S80" s="12"/>
-      <c r="T80" s="12"/>
-      <c r="U80" s="12"/>
-      <c r="V80" s="12"/>
-      <c r="W80" s="12"/>
-      <c r="X80" s="12"/>
-      <c r="Y80" s="12"/>
+      <c r="A80" s="11"/>
+      <c r="B80" s="11"/>
+      <c r="C80" s="11"/>
+      <c r="D80" s="11"/>
+      <c r="E80" s="11"/>
+      <c r="F80" s="11"/>
+      <c r="G80" s="11"/>
+      <c r="H80" s="11"/>
+      <c r="I80" s="11"/>
+      <c r="J80" s="11"/>
+      <c r="K80" s="11"/>
+      <c r="L80" s="11"/>
+      <c r="M80" s="11"/>
+      <c r="N80" s="11"/>
+      <c r="O80" s="11"/>
+      <c r="P80" s="11"/>
+      <c r="Q80" s="11"/>
+      <c r="R80" s="11"/>
+      <c r="S80" s="11"/>
+      <c r="T80" s="11"/>
+      <c r="U80" s="11"/>
+      <c r="V80" s="11"/>
+      <c r="W80" s="11"/>
+      <c r="X80" s="11"/>
+      <c r="Y80" s="11"/>
     </row>
     <row r="81" spans="1:25" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="12"/>
-      <c r="B81" s="12"/>
-      <c r="C81" s="12"/>
-      <c r="D81" s="12"/>
-      <c r="E81" s="12"/>
-      <c r="F81" s="12"/>
-      <c r="G81" s="12"/>
-      <c r="H81" s="12"/>
-      <c r="I81" s="12"/>
-      <c r="J81" s="12"/>
-      <c r="K81" s="12"/>
-      <c r="L81" s="12"/>
-      <c r="M81" s="12"/>
-      <c r="N81" s="12"/>
-      <c r="O81" s="12"/>
-      <c r="P81" s="12"/>
-      <c r="Q81" s="12"/>
-      <c r="R81" s="12"/>
-      <c r="S81" s="12"/>
-      <c r="T81" s="12"/>
-      <c r="U81" s="12"/>
-      <c r="V81" s="12"/>
-      <c r="W81" s="12"/>
-      <c r="X81" s="12"/>
-      <c r="Y81" s="12"/>
+      <c r="A81" s="11"/>
+      <c r="B81" s="11"/>
+      <c r="C81" s="11"/>
+      <c r="D81" s="11"/>
+      <c r="E81" s="11"/>
+      <c r="F81" s="11"/>
+      <c r="G81" s="11"/>
+      <c r="H81" s="11"/>
+      <c r="I81" s="11"/>
+      <c r="J81" s="11"/>
+      <c r="K81" s="11"/>
+      <c r="L81" s="11"/>
+      <c r="M81" s="11"/>
+      <c r="N81" s="11"/>
+      <c r="O81" s="11"/>
+      <c r="P81" s="11"/>
+      <c r="Q81" s="11"/>
+      <c r="R81" s="11"/>
+      <c r="S81" s="11"/>
+      <c r="T81" s="11"/>
+      <c r="U81" s="11"/>
+      <c r="V81" s="11"/>
+      <c r="W81" s="11"/>
+      <c r="X81" s="11"/>
+      <c r="Y81" s="11"/>
     </row>
     <row r="82" spans="1:25" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="12"/>
-      <c r="B82" s="12"/>
-      <c r="C82" s="12"/>
-      <c r="D82" s="12"/>
-      <c r="E82" s="12"/>
-      <c r="F82" s="12"/>
-      <c r="G82" s="12"/>
-      <c r="H82" s="12"/>
-      <c r="I82" s="12"/>
-      <c r="J82" s="12"/>
-      <c r="K82" s="12"/>
-      <c r="L82" s="12"/>
-      <c r="M82" s="12"/>
-      <c r="N82" s="12"/>
-      <c r="O82" s="12"/>
-      <c r="P82" s="12"/>
-      <c r="Q82" s="12"/>
-      <c r="R82" s="12"/>
-      <c r="S82" s="12"/>
-      <c r="T82" s="12"/>
-      <c r="U82" s="12"/>
-      <c r="V82" s="12"/>
-      <c r="W82" s="12"/>
-      <c r="X82" s="12"/>
-      <c r="Y82" s="12"/>
+      <c r="A82" s="11"/>
+      <c r="B82" s="11"/>
+      <c r="C82" s="11"/>
+      <c r="D82" s="11"/>
+      <c r="E82" s="11"/>
+      <c r="F82" s="11"/>
+      <c r="G82" s="11"/>
+      <c r="H82" s="11"/>
+      <c r="I82" s="11"/>
+      <c r="J82" s="11"/>
+      <c r="K82" s="11"/>
+      <c r="L82" s="11"/>
+      <c r="M82" s="11"/>
+      <c r="N82" s="11"/>
+      <c r="O82" s="11"/>
+      <c r="P82" s="11"/>
+      <c r="Q82" s="11"/>
+      <c r="R82" s="11"/>
+      <c r="S82" s="11"/>
+      <c r="T82" s="11"/>
+      <c r="U82" s="11"/>
+      <c r="V82" s="11"/>
+      <c r="W82" s="11"/>
+      <c r="X82" s="11"/>
+      <c r="Y82" s="11"/>
     </row>
     <row r="83" spans="1:25" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="12"/>
-      <c r="B83" s="12"/>
-      <c r="C83" s="12"/>
-      <c r="D83" s="12"/>
-      <c r="E83" s="12"/>
-      <c r="F83" s="12"/>
-      <c r="G83" s="12"/>
-      <c r="H83" s="12"/>
-      <c r="I83" s="12"/>
-      <c r="J83" s="12"/>
-      <c r="K83" s="12"/>
-      <c r="L83" s="12"/>
-      <c r="M83" s="12"/>
-      <c r="N83" s="12"/>
-      <c r="O83" s="12"/>
-      <c r="P83" s="12"/>
-      <c r="Q83" s="12"/>
-      <c r="R83" s="12"/>
-      <c r="S83" s="12"/>
-      <c r="T83" s="12"/>
-      <c r="U83" s="12"/>
-      <c r="V83" s="12"/>
-      <c r="W83" s="12"/>
-      <c r="X83" s="12"/>
-      <c r="Y83" s="12"/>
+      <c r="A83" s="11"/>
+      <c r="B83" s="11"/>
+      <c r="C83" s="11"/>
+      <c r="D83" s="11"/>
+      <c r="E83" s="11"/>
+      <c r="F83" s="11"/>
+      <c r="G83" s="11"/>
+      <c r="H83" s="11"/>
+      <c r="I83" s="11"/>
+      <c r="J83" s="11"/>
+      <c r="K83" s="11"/>
+      <c r="L83" s="11"/>
+      <c r="M83" s="11"/>
+      <c r="N83" s="11"/>
+      <c r="O83" s="11"/>
+      <c r="P83" s="11"/>
+      <c r="Q83" s="11"/>
+      <c r="R83" s="11"/>
+      <c r="S83" s="11"/>
+      <c r="T83" s="11"/>
+      <c r="U83" s="11"/>
+      <c r="V83" s="11"/>
+      <c r="W83" s="11"/>
+      <c r="X83" s="11"/>
+      <c r="Y83" s="11"/>
     </row>
     <row r="84" spans="1:25" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="12"/>
-      <c r="B84" s="12"/>
-      <c r="C84" s="12"/>
-      <c r="D84" s="12"/>
-      <c r="E84" s="12"/>
-      <c r="F84" s="12"/>
-      <c r="G84" s="12"/>
-      <c r="H84" s="12"/>
-      <c r="I84" s="12"/>
-      <c r="J84" s="12"/>
-      <c r="K84" s="12"/>
-      <c r="L84" s="12"/>
-      <c r="M84" s="12"/>
-      <c r="N84" s="12"/>
-      <c r="O84" s="12"/>
-      <c r="P84" s="12"/>
-      <c r="Q84" s="12"/>
-      <c r="R84" s="12"/>
-      <c r="S84" s="12"/>
-      <c r="T84" s="12"/>
-      <c r="U84" s="12"/>
-      <c r="V84" s="12"/>
-      <c r="W84" s="12"/>
-      <c r="X84" s="12"/>
-      <c r="Y84" s="12"/>
+      <c r="A84" s="11"/>
+      <c r="B84" s="11"/>
+      <c r="C84" s="11"/>
+      <c r="D84" s="11"/>
+      <c r="E84" s="11"/>
+      <c r="F84" s="11"/>
+      <c r="G84" s="11"/>
+      <c r="H84" s="11"/>
+      <c r="I84" s="11"/>
+      <c r="J84" s="11"/>
+      <c r="K84" s="11"/>
+      <c r="L84" s="11"/>
+      <c r="M84" s="11"/>
+      <c r="N84" s="11"/>
+      <c r="O84" s="11"/>
+      <c r="P84" s="11"/>
+      <c r="Q84" s="11"/>
+      <c r="R84" s="11"/>
+      <c r="S84" s="11"/>
+      <c r="T84" s="11"/>
+      <c r="U84" s="11"/>
+      <c r="V84" s="11"/>
+      <c r="W84" s="11"/>
+      <c r="X84" s="11"/>
+      <c r="Y84" s="11"/>
     </row>
     <row r="85" spans="1:25" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="12"/>
-      <c r="B85" s="12"/>
-      <c r="C85" s="12"/>
-      <c r="D85" s="12"/>
-      <c r="E85" s="12"/>
-      <c r="F85" s="12"/>
-      <c r="G85" s="12"/>
-      <c r="H85" s="12"/>
-      <c r="I85" s="12"/>
-      <c r="J85" s="12"/>
-      <c r="K85" s="12"/>
-      <c r="L85" s="12"/>
-      <c r="M85" s="12"/>
-      <c r="N85" s="12"/>
-      <c r="O85" s="12"/>
-      <c r="P85" s="12"/>
-      <c r="Q85" s="12"/>
-      <c r="R85" s="12"/>
-      <c r="S85" s="12"/>
-      <c r="T85" s="12"/>
-      <c r="U85" s="12"/>
-      <c r="V85" s="12"/>
-      <c r="W85" s="12"/>
-      <c r="X85" s="12"/>
-      <c r="Y85" s="12"/>
+      <c r="A85" s="11"/>
+      <c r="B85" s="11"/>
+      <c r="C85" s="11"/>
+      <c r="D85" s="11"/>
+      <c r="E85" s="11"/>
+      <c r="F85" s="11"/>
+      <c r="G85" s="11"/>
+      <c r="H85" s="11"/>
+      <c r="I85" s="11"/>
+      <c r="J85" s="11"/>
+      <c r="K85" s="11"/>
+      <c r="L85" s="11"/>
+      <c r="M85" s="11"/>
+      <c r="N85" s="11"/>
+      <c r="O85" s="11"/>
+      <c r="P85" s="11"/>
+      <c r="Q85" s="11"/>
+      <c r="R85" s="11"/>
+      <c r="S85" s="11"/>
+      <c r="T85" s="11"/>
+      <c r="U85" s="11"/>
+      <c r="V85" s="11"/>
+      <c r="W85" s="11"/>
+      <c r="X85" s="11"/>
+      <c r="Y85" s="11"/>
     </row>
     <row r="86" spans="1:25" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="12"/>
-      <c r="B86" s="12"/>
-      <c r="C86" s="12"/>
-      <c r="D86" s="12"/>
-      <c r="E86" s="12"/>
-      <c r="F86" s="12"/>
-      <c r="G86" s="12"/>
-      <c r="H86" s="12"/>
-      <c r="I86" s="12"/>
-      <c r="J86" s="12"/>
-      <c r="K86" s="12"/>
-      <c r="L86" s="12"/>
-      <c r="M86" s="12"/>
-      <c r="N86" s="12"/>
-      <c r="O86" s="12"/>
-      <c r="P86" s="12"/>
-      <c r="Q86" s="12"/>
-      <c r="R86" s="12"/>
-      <c r="S86" s="12"/>
-      <c r="T86" s="12"/>
-      <c r="U86" s="12"/>
-      <c r="V86" s="12"/>
-      <c r="W86" s="12"/>
-      <c r="X86" s="12"/>
-      <c r="Y86" s="12"/>
+      <c r="A86" s="11"/>
+      <c r="B86" s="11"/>
+      <c r="C86" s="11"/>
+      <c r="D86" s="11"/>
+      <c r="E86" s="11"/>
+      <c r="F86" s="11"/>
+      <c r="G86" s="11"/>
+      <c r="H86" s="11"/>
+      <c r="I86" s="11"/>
+      <c r="J86" s="11"/>
+      <c r="K86" s="11"/>
+      <c r="L86" s="11"/>
+      <c r="M86" s="11"/>
+      <c r="N86" s="11"/>
+      <c r="O86" s="11"/>
+      <c r="P86" s="11"/>
+      <c r="Q86" s="11"/>
+      <c r="R86" s="11"/>
+      <c r="S86" s="11"/>
+      <c r="T86" s="11"/>
+      <c r="U86" s="11"/>
+      <c r="V86" s="11"/>
+      <c r="W86" s="11"/>
+      <c r="X86" s="11"/>
+      <c r="Y86" s="11"/>
     </row>
     <row r="87" spans="1:25" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="12"/>
-      <c r="B87" s="12"/>
-      <c r="C87" s="12"/>
-      <c r="D87" s="12"/>
-      <c r="E87" s="12"/>
-      <c r="F87" s="12"/>
-      <c r="G87" s="12"/>
-      <c r="H87" s="12"/>
-      <c r="I87" s="12"/>
-      <c r="J87" s="12"/>
-      <c r="K87" s="12"/>
-      <c r="L87" s="12"/>
-      <c r="M87" s="12"/>
-      <c r="N87" s="12"/>
-      <c r="O87" s="12"/>
-      <c r="P87" s="12"/>
-      <c r="Q87" s="12"/>
-      <c r="R87" s="12"/>
-      <c r="S87" s="12"/>
-      <c r="T87" s="12"/>
-      <c r="U87" s="12"/>
-      <c r="V87" s="12"/>
-      <c r="W87" s="12"/>
-      <c r="X87" s="12"/>
-      <c r="Y87" s="12"/>
+      <c r="A87" s="11"/>
+      <c r="B87" s="11"/>
+      <c r="C87" s="11"/>
+      <c r="D87" s="11"/>
+      <c r="E87" s="11"/>
+      <c r="F87" s="11"/>
+      <c r="G87" s="11"/>
+      <c r="H87" s="11"/>
+      <c r="I87" s="11"/>
+      <c r="J87" s="11"/>
+      <c r="K87" s="11"/>
+      <c r="L87" s="11"/>
+      <c r="M87" s="11"/>
+      <c r="N87" s="11"/>
+      <c r="O87" s="11"/>
+      <c r="P87" s="11"/>
+      <c r="Q87" s="11"/>
+      <c r="R87" s="11"/>
+      <c r="S87" s="11"/>
+      <c r="T87" s="11"/>
+      <c r="U87" s="11"/>
+      <c r="V87" s="11"/>
+      <c r="W87" s="11"/>
+      <c r="X87" s="11"/>
+      <c r="Y87" s="11"/>
     </row>
     <row r="88" spans="1:25" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="12"/>
-      <c r="B88" s="12"/>
-      <c r="C88" s="12"/>
-      <c r="D88" s="12"/>
-      <c r="E88" s="12"/>
-      <c r="F88" s="12"/>
-      <c r="G88" s="12"/>
-      <c r="H88" s="12"/>
-      <c r="I88" s="12"/>
-      <c r="J88" s="12"/>
-      <c r="K88" s="12"/>
-      <c r="L88" s="12"/>
-      <c r="M88" s="12"/>
-      <c r="N88" s="12"/>
-      <c r="O88" s="12"/>
-      <c r="P88" s="12"/>
-      <c r="Q88" s="12"/>
-      <c r="R88" s="12"/>
-      <c r="S88" s="12"/>
-      <c r="T88" s="12"/>
-      <c r="U88" s="12"/>
-      <c r="V88" s="12"/>
-      <c r="W88" s="12"/>
-      <c r="X88" s="12"/>
-      <c r="Y88" s="12"/>
+      <c r="A88" s="11"/>
+      <c r="B88" s="11"/>
+      <c r="C88" s="11"/>
+      <c r="D88" s="11"/>
+      <c r="E88" s="11"/>
+      <c r="F88" s="11"/>
+      <c r="G88" s="11"/>
+      <c r="H88" s="11"/>
+      <c r="I88" s="11"/>
+      <c r="J88" s="11"/>
+      <c r="K88" s="11"/>
+      <c r="L88" s="11"/>
+      <c r="M88" s="11"/>
+      <c r="N88" s="11"/>
+      <c r="O88" s="11"/>
+      <c r="P88" s="11"/>
+      <c r="Q88" s="11"/>
+      <c r="R88" s="11"/>
+      <c r="S88" s="11"/>
+      <c r="T88" s="11"/>
+      <c r="U88" s="11"/>
+      <c r="V88" s="11"/>
+      <c r="W88" s="11"/>
+      <c r="X88" s="11"/>
+      <c r="Y88" s="11"/>
     </row>
     <row r="89" spans="1:25" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="12"/>
-      <c r="B89" s="12"/>
-      <c r="C89" s="12"/>
-      <c r="D89" s="12"/>
-      <c r="E89" s="12"/>
-      <c r="F89" s="12"/>
-      <c r="G89" s="12"/>
-      <c r="H89" s="12"/>
-      <c r="I89" s="12"/>
-      <c r="J89" s="12"/>
-      <c r="K89" s="12"/>
-      <c r="L89" s="12"/>
-      <c r="M89" s="12"/>
-      <c r="N89" s="12"/>
-      <c r="O89" s="12"/>
-      <c r="P89" s="12"/>
-      <c r="Q89" s="12"/>
-      <c r="R89" s="12"/>
-      <c r="S89" s="12"/>
-      <c r="T89" s="12"/>
-      <c r="U89" s="12"/>
-      <c r="V89" s="12"/>
-      <c r="W89" s="12"/>
-      <c r="X89" s="12"/>
-      <c r="Y89" s="12"/>
+      <c r="A89" s="11"/>
+      <c r="B89" s="11"/>
+      <c r="C89" s="11"/>
+      <c r="D89" s="11"/>
+      <c r="E89" s="11"/>
+      <c r="F89" s="11"/>
+      <c r="G89" s="11"/>
+      <c r="H89" s="11"/>
+      <c r="I89" s="11"/>
+      <c r="J89" s="11"/>
+      <c r="K89" s="11"/>
+      <c r="L89" s="11"/>
+      <c r="M89" s="11"/>
+      <c r="N89" s="11"/>
+      <c r="O89" s="11"/>
+      <c r="P89" s="11"/>
+      <c r="Q89" s="11"/>
+      <c r="R89" s="11"/>
+      <c r="S89" s="11"/>
+      <c r="T89" s="11"/>
+      <c r="U89" s="11"/>
+      <c r="V89" s="11"/>
+      <c r="W89" s="11"/>
+      <c r="X89" s="11"/>
+      <c r="Y89" s="11"/>
     </row>
     <row r="90" spans="1:25" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="12"/>
-      <c r="B90" s="12"/>
-      <c r="C90" s="12"/>
-      <c r="D90" s="12"/>
-      <c r="E90" s="12"/>
-      <c r="F90" s="12"/>
-      <c r="G90" s="12"/>
-      <c r="H90" s="12"/>
-      <c r="I90" s="12"/>
-      <c r="J90" s="12"/>
-      <c r="K90" s="12"/>
-      <c r="L90" s="12"/>
-      <c r="M90" s="12"/>
-      <c r="N90" s="12"/>
-      <c r="O90" s="12"/>
-      <c r="P90" s="12"/>
-      <c r="Q90" s="12"/>
-      <c r="R90" s="12"/>
-      <c r="S90" s="12"/>
-      <c r="T90" s="12"/>
-      <c r="U90" s="12"/>
-      <c r="V90" s="12"/>
-      <c r="W90" s="12"/>
-      <c r="X90" s="12"/>
-      <c r="Y90" s="12"/>
+      <c r="A90" s="11"/>
+      <c r="B90" s="11"/>
+      <c r="C90" s="11"/>
+      <c r="D90" s="11"/>
+      <c r="E90" s="11"/>
+      <c r="F90" s="11"/>
+      <c r="G90" s="11"/>
+      <c r="H90" s="11"/>
+      <c r="I90" s="11"/>
+      <c r="J90" s="11"/>
+      <c r="K90" s="11"/>
+      <c r="L90" s="11"/>
+      <c r="M90" s="11"/>
+      <c r="N90" s="11"/>
+      <c r="O90" s="11"/>
+      <c r="P90" s="11"/>
+      <c r="Q90" s="11"/>
+      <c r="R90" s="11"/>
+      <c r="S90" s="11"/>
+      <c r="T90" s="11"/>
+      <c r="U90" s="11"/>
+      <c r="V90" s="11"/>
+      <c r="W90" s="11"/>
+      <c r="X90" s="11"/>
+      <c r="Y90" s="11"/>
     </row>
     <row r="91" spans="1:25" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="12"/>
-      <c r="B91" s="12"/>
-      <c r="C91" s="12"/>
-      <c r="D91" s="12"/>
-      <c r="E91" s="12"/>
-      <c r="F91" s="12"/>
-      <c r="G91" s="12"/>
-      <c r="H91" s="12"/>
-      <c r="I91" s="12"/>
-      <c r="J91" s="12"/>
-      <c r="K91" s="12"/>
-      <c r="L91" s="12"/>
-      <c r="M91" s="12"/>
-      <c r="N91" s="12"/>
-      <c r="O91" s="12"/>
-      <c r="P91" s="12"/>
-      <c r="Q91" s="12"/>
-      <c r="R91" s="12"/>
-      <c r="S91" s="12"/>
-      <c r="T91" s="12"/>
-      <c r="U91" s="12"/>
-      <c r="V91" s="12"/>
-      <c r="W91" s="12"/>
-      <c r="X91" s="12"/>
-      <c r="Y91" s="12"/>
+      <c r="A91" s="11"/>
+      <c r="B91" s="11"/>
+      <c r="C91" s="11"/>
+      <c r="D91" s="11"/>
+      <c r="E91" s="11"/>
+      <c r="F91" s="11"/>
+      <c r="G91" s="11"/>
+      <c r="H91" s="11"/>
+      <c r="I91" s="11"/>
+      <c r="J91" s="11"/>
+      <c r="K91" s="11"/>
+      <c r="L91" s="11"/>
+      <c r="M91" s="11"/>
+      <c r="N91" s="11"/>
+      <c r="O91" s="11"/>
+      <c r="P91" s="11"/>
+      <c r="Q91" s="11"/>
+      <c r="R91" s="11"/>
+      <c r="S91" s="11"/>
+      <c r="T91" s="11"/>
+      <c r="U91" s="11"/>
+      <c r="V91" s="11"/>
+      <c r="W91" s="11"/>
+      <c r="X91" s="11"/>
+      <c r="Y91" s="11"/>
     </row>
     <row r="92" spans="1:25" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="12"/>
-      <c r="B92" s="12"/>
-      <c r="C92" s="12"/>
-      <c r="D92" s="12"/>
-      <c r="E92" s="12"/>
-      <c r="F92" s="12"/>
-      <c r="G92" s="12"/>
-      <c r="H92" s="12"/>
-      <c r="I92" s="12"/>
-      <c r="J92" s="12"/>
-      <c r="K92" s="12"/>
-      <c r="L92" s="12"/>
-      <c r="M92" s="12"/>
-      <c r="N92" s="12"/>
-      <c r="O92" s="12"/>
-      <c r="P92" s="12"/>
-      <c r="Q92" s="12"/>
-      <c r="R92" s="12"/>
-      <c r="S92" s="12"/>
-      <c r="T92" s="12"/>
-      <c r="U92" s="12"/>
-      <c r="V92" s="12"/>
-      <c r="W92" s="12"/>
-      <c r="X92" s="12"/>
-      <c r="Y92" s="12"/>
+      <c r="A92" s="11"/>
+      <c r="B92" s="11"/>
+      <c r="C92" s="11"/>
+      <c r="D92" s="11"/>
+      <c r="E92" s="11"/>
+      <c r="F92" s="11"/>
+      <c r="G92" s="11"/>
+      <c r="H92" s="11"/>
+      <c r="I92" s="11"/>
+      <c r="J92" s="11"/>
+      <c r="K92" s="11"/>
+      <c r="L92" s="11"/>
+      <c r="M92" s="11"/>
+      <c r="N92" s="11"/>
+      <c r="O92" s="11"/>
+      <c r="P92" s="11"/>
+      <c r="Q92" s="11"/>
+      <c r="R92" s="11"/>
+      <c r="S92" s="11"/>
+      <c r="T92" s="11"/>
+      <c r="U92" s="11"/>
+      <c r="V92" s="11"/>
+      <c r="W92" s="11"/>
+      <c r="X92" s="11"/>
+      <c r="Y92" s="11"/>
     </row>
     <row r="93" spans="1:25" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="12"/>
-      <c r="B93" s="12"/>
-      <c r="C93" s="12"/>
-      <c r="D93" s="12"/>
-      <c r="E93" s="12"/>
-      <c r="F93" s="12"/>
-      <c r="G93" s="12"/>
-      <c r="H93" s="12"/>
-      <c r="I93" s="12"/>
-      <c r="J93" s="12"/>
-      <c r="K93" s="12"/>
-      <c r="L93" s="12"/>
-      <c r="M93" s="12"/>
-      <c r="N93" s="12"/>
-      <c r="O93" s="12"/>
-      <c r="P93" s="12"/>
-      <c r="Q93" s="12"/>
-      <c r="R93" s="12"/>
-      <c r="S93" s="12"/>
-      <c r="T93" s="12"/>
-      <c r="U93" s="12"/>
-      <c r="V93" s="12"/>
-      <c r="W93" s="12"/>
-      <c r="X93" s="12"/>
-      <c r="Y93" s="12"/>
+      <c r="A93" s="11"/>
+      <c r="B93" s="11"/>
+      <c r="C93" s="11"/>
+      <c r="D93" s="11"/>
+      <c r="E93" s="11"/>
+      <c r="F93" s="11"/>
+      <c r="G93" s="11"/>
+      <c r="H93" s="11"/>
+      <c r="I93" s="11"/>
+      <c r="J93" s="11"/>
+      <c r="K93" s="11"/>
+      <c r="L93" s="11"/>
+      <c r="M93" s="11"/>
+      <c r="N93" s="11"/>
+      <c r="O93" s="11"/>
+      <c r="P93" s="11"/>
+      <c r="Q93" s="11"/>
+      <c r="R93" s="11"/>
+      <c r="S93" s="11"/>
+      <c r="T93" s="11"/>
+      <c r="U93" s="11"/>
+      <c r="V93" s="11"/>
+      <c r="W93" s="11"/>
+      <c r="X93" s="11"/>
+      <c r="Y93" s="11"/>
     </row>
     <row r="94" spans="1:25" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="12"/>
-      <c r="B94" s="12"/>
-      <c r="C94" s="12"/>
-      <c r="D94" s="12"/>
-      <c r="E94" s="12"/>
-      <c r="F94" s="12"/>
-      <c r="G94" s="12"/>
-      <c r="H94" s="12"/>
-      <c r="I94" s="12"/>
-      <c r="J94" s="12"/>
-      <c r="K94" s="12"/>
-      <c r="L94" s="12"/>
-      <c r="M94" s="12"/>
-      <c r="N94" s="12"/>
-      <c r="O94" s="12"/>
-      <c r="P94" s="12"/>
-      <c r="Q94" s="12"/>
-      <c r="R94" s="12"/>
-      <c r="S94" s="12"/>
-      <c r="T94" s="12"/>
-      <c r="U94" s="12"/>
-      <c r="V94" s="12"/>
-      <c r="W94" s="12"/>
-      <c r="X94" s="12"/>
-      <c r="Y94" s="12"/>
+      <c r="A94" s="11"/>
+      <c r="B94" s="11"/>
+      <c r="C94" s="11"/>
+      <c r="D94" s="11"/>
+      <c r="E94" s="11"/>
+      <c r="F94" s="11"/>
+      <c r="G94" s="11"/>
+      <c r="H94" s="11"/>
+      <c r="I94" s="11"/>
+      <c r="J94" s="11"/>
+      <c r="K94" s="11"/>
+      <c r="L94" s="11"/>
+      <c r="M94" s="11"/>
+      <c r="N94" s="11"/>
+      <c r="O94" s="11"/>
+      <c r="P94" s="11"/>
+      <c r="Q94" s="11"/>
+      <c r="R94" s="11"/>
+      <c r="S94" s="11"/>
+      <c r="T94" s="11"/>
+      <c r="U94" s="11"/>
+      <c r="V94" s="11"/>
+      <c r="W94" s="11"/>
+      <c r="X94" s="11"/>
+      <c r="Y94" s="11"/>
     </row>
     <row r="95" spans="1:25" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="12"/>
-      <c r="B95" s="12"/>
-      <c r="C95" s="12"/>
-      <c r="D95" s="12"/>
-      <c r="E95" s="12"/>
-      <c r="F95" s="12"/>
-      <c r="G95" s="12"/>
-      <c r="H95" s="12"/>
-      <c r="I95" s="12"/>
-      <c r="J95" s="12"/>
-      <c r="K95" s="12"/>
-      <c r="L95" s="12"/>
-      <c r="M95" s="12"/>
-      <c r="N95" s="12"/>
-      <c r="O95" s="12"/>
-      <c r="P95" s="12"/>
-      <c r="Q95" s="12"/>
-      <c r="R95" s="12"/>
-      <c r="S95" s="12"/>
-      <c r="T95" s="12"/>
-      <c r="U95" s="12"/>
-      <c r="V95" s="12"/>
-      <c r="W95" s="12"/>
-      <c r="X95" s="12"/>
-      <c r="Y95" s="12"/>
+      <c r="A95" s="11"/>
+      <c r="B95" s="11"/>
+      <c r="C95" s="11"/>
+      <c r="D95" s="11"/>
+      <c r="E95" s="11"/>
+      <c r="F95" s="11"/>
+      <c r="G95" s="11"/>
+      <c r="H95" s="11"/>
+      <c r="I95" s="11"/>
+      <c r="J95" s="11"/>
+      <c r="K95" s="11"/>
+      <c r="L95" s="11"/>
+      <c r="M95" s="11"/>
+      <c r="N95" s="11"/>
+      <c r="O95" s="11"/>
+      <c r="P95" s="11"/>
+      <c r="Q95" s="11"/>
+      <c r="R95" s="11"/>
+      <c r="S95" s="11"/>
+      <c r="T95" s="11"/>
+      <c r="U95" s="11"/>
+      <c r="V95" s="11"/>
+      <c r="W95" s="11"/>
+      <c r="X95" s="11"/>
+      <c r="Y95" s="11"/>
     </row>
     <row r="96" spans="1:25" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="12"/>
-      <c r="B96" s="12"/>
-      <c r="C96" s="12"/>
-      <c r="D96" s="12"/>
-      <c r="E96" s="12"/>
-      <c r="F96" s="12"/>
-      <c r="G96" s="12"/>
-      <c r="H96" s="12"/>
-      <c r="I96" s="12"/>
-      <c r="J96" s="12"/>
-      <c r="K96" s="12"/>
-      <c r="L96" s="12"/>
-      <c r="M96" s="12"/>
-      <c r="N96" s="12"/>
-      <c r="O96" s="12"/>
-      <c r="P96" s="12"/>
-      <c r="Q96" s="12"/>
-      <c r="R96" s="12"/>
-      <c r="S96" s="12"/>
-      <c r="T96" s="12"/>
-      <c r="U96" s="12"/>
-      <c r="V96" s="12"/>
-      <c r="W96" s="12"/>
-      <c r="X96" s="12"/>
-      <c r="Y96" s="12"/>
+      <c r="A96" s="11"/>
+      <c r="B96" s="11"/>
+      <c r="C96" s="11"/>
+      <c r="D96" s="11"/>
+      <c r="E96" s="11"/>
+      <c r="F96" s="11"/>
+      <c r="G96" s="11"/>
+      <c r="H96" s="11"/>
+      <c r="I96" s="11"/>
+      <c r="J96" s="11"/>
+      <c r="K96" s="11"/>
+      <c r="L96" s="11"/>
+      <c r="M96" s="11"/>
+      <c r="N96" s="11"/>
+      <c r="O96" s="11"/>
+      <c r="P96" s="11"/>
+      <c r="Q96" s="11"/>
+      <c r="R96" s="11"/>
+      <c r="S96" s="11"/>
+      <c r="T96" s="11"/>
+      <c r="U96" s="11"/>
+      <c r="V96" s="11"/>
+      <c r="W96" s="11"/>
+      <c r="X96" s="11"/>
+      <c r="Y96" s="11"/>
     </row>
     <row r="97" spans="1:25" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="12"/>
-      <c r="B97" s="12"/>
-      <c r="C97" s="12"/>
-      <c r="D97" s="12"/>
-      <c r="E97" s="12"/>
-      <c r="F97" s="12"/>
-      <c r="G97" s="12"/>
-      <c r="H97" s="12"/>
-      <c r="I97" s="12"/>
-      <c r="J97" s="12"/>
-      <c r="K97" s="12"/>
-      <c r="L97" s="12"/>
-      <c r="M97" s="12"/>
-      <c r="N97" s="12"/>
-      <c r="O97" s="12"/>
-      <c r="P97" s="12"/>
-      <c r="Q97" s="12"/>
-      <c r="R97" s="12"/>
-      <c r="S97" s="12"/>
-      <c r="T97" s="12"/>
-      <c r="U97" s="12"/>
-      <c r="V97" s="12"/>
-      <c r="W97" s="12"/>
-      <c r="X97" s="12"/>
-      <c r="Y97" s="12"/>
+      <c r="A97" s="11"/>
+      <c r="B97" s="11"/>
+      <c r="C97" s="11"/>
+      <c r="D97" s="11"/>
+      <c r="E97" s="11"/>
+      <c r="F97" s="11"/>
+      <c r="G97" s="11"/>
+      <c r="H97" s="11"/>
+      <c r="I97" s="11"/>
+      <c r="J97" s="11"/>
+      <c r="K97" s="11"/>
+      <c r="L97" s="11"/>
+      <c r="M97" s="11"/>
+      <c r="N97" s="11"/>
+      <c r="O97" s="11"/>
+      <c r="P97" s="11"/>
+      <c r="Q97" s="11"/>
+      <c r="R97" s="11"/>
+      <c r="S97" s="11"/>
+      <c r="T97" s="11"/>
+      <c r="U97" s="11"/>
+      <c r="V97" s="11"/>
+      <c r="W97" s="11"/>
+      <c r="X97" s="11"/>
+      <c r="Y97" s="11"/>
     </row>
     <row r="98" spans="1:25" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="12"/>
-      <c r="B98" s="12"/>
-      <c r="C98" s="12"/>
-      <c r="D98" s="12"/>
-      <c r="E98" s="12"/>
-      <c r="F98" s="12"/>
-      <c r="G98" s="12"/>
-      <c r="H98" s="12"/>
-      <c r="I98" s="12"/>
-      <c r="J98" s="12"/>
-      <c r="K98" s="12"/>
-      <c r="L98" s="12"/>
-      <c r="M98" s="12"/>
-      <c r="N98" s="12"/>
-      <c r="O98" s="12"/>
-      <c r="P98" s="12"/>
-      <c r="Q98" s="12"/>
-      <c r="R98" s="12"/>
-      <c r="S98" s="12"/>
-      <c r="T98" s="12"/>
-      <c r="U98" s="12"/>
-      <c r="V98" s="12"/>
-      <c r="W98" s="12"/>
-      <c r="X98" s="12"/>
-      <c r="Y98" s="12"/>
+      <c r="A98" s="11"/>
+      <c r="B98" s="11"/>
+      <c r="C98" s="11"/>
+      <c r="D98" s="11"/>
+      <c r="E98" s="11"/>
+      <c r="F98" s="11"/>
+      <c r="G98" s="11"/>
+      <c r="H98" s="11"/>
+      <c r="I98" s="11"/>
+      <c r="J98" s="11"/>
+      <c r="K98" s="11"/>
+      <c r="L98" s="11"/>
+      <c r="M98" s="11"/>
+      <c r="N98" s="11"/>
+      <c r="O98" s="11"/>
+      <c r="P98" s="11"/>
+      <c r="Q98" s="11"/>
+      <c r="R98" s="11"/>
+      <c r="S98" s="11"/>
+      <c r="T98" s="11"/>
+      <c r="U98" s="11"/>
+      <c r="V98" s="11"/>
+      <c r="W98" s="11"/>
+      <c r="X98" s="11"/>
+      <c r="Y98" s="11"/>
     </row>
     <row r="99" spans="1:25" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="12"/>
-      <c r="B99" s="12"/>
-      <c r="C99" s="12"/>
-      <c r="D99" s="12"/>
-      <c r="E99" s="12"/>
-      <c r="F99" s="12"/>
-      <c r="G99" s="12"/>
-      <c r="H99" s="12"/>
-      <c r="I99" s="12"/>
-      <c r="J99" s="12"/>
-      <c r="K99" s="12"/>
-      <c r="L99" s="12"/>
-      <c r="M99" s="12"/>
-      <c r="N99" s="12"/>
-      <c r="O99" s="12"/>
-      <c r="P99" s="12"/>
-      <c r="Q99" s="12"/>
-      <c r="R99" s="12"/>
-      <c r="S99" s="12"/>
-      <c r="T99" s="12"/>
-      <c r="U99" s="12"/>
-      <c r="V99" s="12"/>
-      <c r="W99" s="12"/>
-      <c r="X99" s="12"/>
-      <c r="Y99" s="12"/>
+      <c r="A99" s="11"/>
+      <c r="B99" s="11"/>
+      <c r="C99" s="11"/>
+      <c r="D99" s="11"/>
+      <c r="E99" s="11"/>
+      <c r="F99" s="11"/>
+      <c r="G99" s="11"/>
+      <c r="H99" s="11"/>
+      <c r="I99" s="11"/>
+      <c r="J99" s="11"/>
+      <c r="K99" s="11"/>
+      <c r="L99" s="11"/>
+      <c r="M99" s="11"/>
+      <c r="N99" s="11"/>
+      <c r="O99" s="11"/>
+      <c r="P99" s="11"/>
+      <c r="Q99" s="11"/>
+      <c r="R99" s="11"/>
+      <c r="S99" s="11"/>
+      <c r="T99" s="11"/>
+      <c r="U99" s="11"/>
+      <c r="V99" s="11"/>
+      <c r="W99" s="11"/>
+      <c r="X99" s="11"/>
+      <c r="Y99" s="11"/>
     </row>
     <row r="100" spans="1:25" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="12"/>
-      <c r="B100" s="12"/>
-      <c r="C100" s="12"/>
-      <c r="D100" s="12"/>
-      <c r="E100" s="12"/>
-      <c r="F100" s="12"/>
-      <c r="G100" s="12"/>
-      <c r="H100" s="12"/>
-      <c r="I100" s="12"/>
-      <c r="J100" s="12"/>
-      <c r="K100" s="12"/>
-      <c r="L100" s="12"/>
-      <c r="M100" s="12"/>
-      <c r="N100" s="12"/>
-      <c r="O100" s="12"/>
-      <c r="P100" s="12"/>
-      <c r="Q100" s="12"/>
-      <c r="R100" s="12"/>
-      <c r="S100" s="12"/>
-      <c r="T100" s="12"/>
-      <c r="U100" s="12"/>
-      <c r="V100" s="12"/>
-      <c r="W100" s="12"/>
-      <c r="X100" s="12"/>
-      <c r="Y100" s="12"/>
+      <c r="A100" s="11"/>
+      <c r="B100" s="11"/>
+      <c r="C100" s="11"/>
+      <c r="D100" s="11"/>
+      <c r="E100" s="11"/>
+      <c r="F100" s="11"/>
+      <c r="G100" s="11"/>
+      <c r="H100" s="11"/>
+      <c r="I100" s="11"/>
+      <c r="J100" s="11"/>
+      <c r="K100" s="11"/>
+      <c r="L100" s="11"/>
+      <c r="M100" s="11"/>
+      <c r="N100" s="11"/>
+      <c r="O100" s="11"/>
+      <c r="P100" s="11"/>
+      <c r="Q100" s="11"/>
+      <c r="R100" s="11"/>
+      <c r="S100" s="11"/>
+      <c r="T100" s="11"/>
+      <c r="U100" s="11"/>
+      <c r="V100" s="11"/>
+      <c r="W100" s="11"/>
+      <c r="X100" s="11"/>
+      <c r="Y100" s="11"/>
     </row>
     <row r="101" spans="1:25" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="12"/>
-      <c r="B101" s="12"/>
-      <c r="C101" s="12"/>
-      <c r="D101" s="12"/>
-      <c r="E101" s="12"/>
-      <c r="F101" s="12"/>
-      <c r="G101" s="12"/>
-      <c r="H101" s="12"/>
-      <c r="I101" s="12"/>
-      <c r="J101" s="12"/>
-      <c r="K101" s="12"/>
-      <c r="L101" s="12"/>
-      <c r="M101" s="12"/>
-      <c r="N101" s="12"/>
-      <c r="O101" s="12"/>
-      <c r="P101" s="12"/>
-      <c r="Q101" s="12"/>
-      <c r="R101" s="12"/>
-      <c r="S101" s="12"/>
-      <c r="T101" s="12"/>
-      <c r="U101" s="12"/>
-      <c r="V101" s="12"/>
-      <c r="W101" s="12"/>
-      <c r="X101" s="12"/>
-      <c r="Y101" s="12"/>
+      <c r="A101" s="11"/>
+      <c r="B101" s="11"/>
+      <c r="C101" s="11"/>
+      <c r="D101" s="11"/>
+      <c r="E101" s="11"/>
+      <c r="F101" s="11"/>
+      <c r="G101" s="11"/>
+      <c r="H101" s="11"/>
+      <c r="I101" s="11"/>
+      <c r="J101" s="11"/>
+      <c r="K101" s="11"/>
+      <c r="L101" s="11"/>
+      <c r="M101" s="11"/>
+      <c r="N101" s="11"/>
+      <c r="O101" s="11"/>
+      <c r="P101" s="11"/>
+      <c r="Q101" s="11"/>
+      <c r="R101" s="11"/>
+      <c r="S101" s="11"/>
+      <c r="T101" s="11"/>
+      <c r="U101" s="11"/>
+      <c r="V101" s="11"/>
+      <c r="W101" s="11"/>
+      <c r="X101" s="11"/>
+      <c r="Y101" s="11"/>
     </row>
     <row r="102" spans="1:25" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="12"/>
-      <c r="B102" s="12"/>
-      <c r="C102" s="12"/>
-      <c r="D102" s="12"/>
-      <c r="E102" s="12"/>
-      <c r="F102" s="12"/>
-      <c r="G102" s="12"/>
-      <c r="H102" s="12"/>
-      <c r="I102" s="12"/>
-      <c r="J102" s="12"/>
-      <c r="K102" s="12"/>
-      <c r="L102" s="12"/>
-      <c r="M102" s="12"/>
-      <c r="N102" s="12"/>
-      <c r="O102" s="12"/>
-      <c r="P102" s="12"/>
-      <c r="Q102" s="12"/>
-      <c r="R102" s="12"/>
-      <c r="S102" s="12"/>
-      <c r="T102" s="12"/>
-      <c r="U102" s="12"/>
-      <c r="V102" s="12"/>
-      <c r="W102" s="12"/>
-      <c r="X102" s="12"/>
-      <c r="Y102" s="12"/>
+      <c r="A102" s="11"/>
+      <c r="B102" s="11"/>
+      <c r="C102" s="11"/>
+      <c r="D102" s="11"/>
+      <c r="E102" s="11"/>
+      <c r="F102" s="11"/>
+      <c r="G102" s="11"/>
+      <c r="H102" s="11"/>
+      <c r="I102" s="11"/>
+      <c r="J102" s="11"/>
+      <c r="K102" s="11"/>
+      <c r="L102" s="11"/>
+      <c r="M102" s="11"/>
+      <c r="N102" s="11"/>
+      <c r="O102" s="11"/>
+      <c r="P102" s="11"/>
+      <c r="Q102" s="11"/>
+      <c r="R102" s="11"/>
+      <c r="S102" s="11"/>
+      <c r="T102" s="11"/>
+      <c r="U102" s="11"/>
+      <c r="V102" s="11"/>
+      <c r="W102" s="11"/>
+      <c r="X102" s="11"/>
+      <c r="Y102" s="11"/>
     </row>
     <row r="103" spans="1:25" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="12"/>
-      <c r="B103" s="12"/>
-      <c r="C103" s="12"/>
-      <c r="D103" s="12"/>
-      <c r="E103" s="12"/>
-      <c r="F103" s="12"/>
-      <c r="G103" s="12"/>
-      <c r="H103" s="12"/>
-      <c r="I103" s="12"/>
-      <c r="J103" s="12"/>
-      <c r="K103" s="12"/>
-      <c r="L103" s="12"/>
-      <c r="M103" s="12"/>
-      <c r="N103" s="12"/>
-      <c r="O103" s="12"/>
-      <c r="P103" s="12"/>
-      <c r="Q103" s="12"/>
-      <c r="R103" s="12"/>
-      <c r="S103" s="12"/>
-      <c r="T103" s="12"/>
-      <c r="U103" s="12"/>
-      <c r="V103" s="12"/>
-      <c r="W103" s="12"/>
-      <c r="X103" s="12"/>
-      <c r="Y103" s="12"/>
+      <c r="A103" s="11"/>
+      <c r="B103" s="11"/>
+      <c r="C103" s="11"/>
+      <c r="D103" s="11"/>
+      <c r="E103" s="11"/>
+      <c r="F103" s="11"/>
+      <c r="G103" s="11"/>
+      <c r="H103" s="11"/>
+      <c r="I103" s="11"/>
+      <c r="J103" s="11"/>
+      <c r="K103" s="11"/>
+      <c r="L103" s="11"/>
+      <c r="M103" s="11"/>
+      <c r="N103" s="11"/>
+      <c r="O103" s="11"/>
+      <c r="P103" s="11"/>
+      <c r="Q103" s="11"/>
+      <c r="R103" s="11"/>
+      <c r="S103" s="11"/>
+      <c r="T103" s="11"/>
+      <c r="U103" s="11"/>
+      <c r="V103" s="11"/>
+      <c r="W103" s="11"/>
+      <c r="X103" s="11"/>
+      <c r="Y103" s="11"/>
     </row>
     <row r="104" spans="1:25" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="12"/>
-      <c r="B104" s="12"/>
-      <c r="C104" s="12"/>
-      <c r="D104" s="12"/>
-      <c r="E104" s="12"/>
-      <c r="F104" s="12"/>
-      <c r="G104" s="12"/>
-      <c r="H104" s="12"/>
-      <c r="I104" s="12"/>
-      <c r="J104" s="12"/>
-      <c r="K104" s="12"/>
-      <c r="L104" s="12"/>
-      <c r="M104" s="12"/>
-      <c r="N104" s="12"/>
-      <c r="O104" s="12"/>
-      <c r="P104" s="12"/>
-      <c r="Q104" s="12"/>
-      <c r="R104" s="12"/>
-      <c r="S104" s="12"/>
-      <c r="T104" s="12"/>
-      <c r="U104" s="12"/>
-      <c r="V104" s="12"/>
-      <c r="W104" s="12"/>
-      <c r="X104" s="12"/>
-      <c r="Y104" s="12"/>
+      <c r="A104" s="11"/>
+      <c r="B104" s="11"/>
+      <c r="C104" s="11"/>
+      <c r="D104" s="11"/>
+      <c r="E104" s="11"/>
+      <c r="F104" s="11"/>
+      <c r="G104" s="11"/>
+      <c r="H104" s="11"/>
+      <c r="I104" s="11"/>
+      <c r="J104" s="11"/>
+      <c r="K104" s="11"/>
+      <c r="L104" s="11"/>
+      <c r="M104" s="11"/>
+      <c r="N104" s="11"/>
+      <c r="O104" s="11"/>
+      <c r="P104" s="11"/>
+      <c r="Q104" s="11"/>
+      <c r="R104" s="11"/>
+      <c r="S104" s="11"/>
+      <c r="T104" s="11"/>
+      <c r="U104" s="11"/>
+      <c r="V104" s="11"/>
+      <c r="W104" s="11"/>
+      <c r="X104" s="11"/>
+      <c r="Y104" s="11"/>
     </row>
     <row r="105" spans="1:25" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="12"/>
-      <c r="B105" s="12"/>
-      <c r="C105" s="12"/>
-      <c r="D105" s="12"/>
-      <c r="E105" s="12"/>
-      <c r="F105" s="12"/>
-      <c r="G105" s="12"/>
-      <c r="H105" s="12"/>
-      <c r="I105" s="12"/>
-      <c r="J105" s="12"/>
-      <c r="K105" s="12"/>
-      <c r="L105" s="12"/>
-      <c r="M105" s="12"/>
-      <c r="N105" s="12"/>
-      <c r="O105" s="12"/>
-      <c r="P105" s="12"/>
-      <c r="Q105" s="12"/>
-      <c r="R105" s="12"/>
-      <c r="S105" s="12"/>
-      <c r="T105" s="12"/>
-      <c r="U105" s="12"/>
-      <c r="V105" s="12"/>
-      <c r="W105" s="12"/>
-      <c r="X105" s="12"/>
-      <c r="Y105" s="12"/>
+      <c r="A105" s="11"/>
+      <c r="B105" s="11"/>
+      <c r="C105" s="11"/>
+      <c r="D105" s="11"/>
+      <c r="E105" s="11"/>
+      <c r="F105" s="11"/>
+      <c r="G105" s="11"/>
+      <c r="H105" s="11"/>
+      <c r="I105" s="11"/>
+      <c r="J105" s="11"/>
+      <c r="K105" s="11"/>
+      <c r="L105" s="11"/>
+      <c r="M105" s="11"/>
+      <c r="N105" s="11"/>
+      <c r="O105" s="11"/>
+      <c r="P105" s="11"/>
+      <c r="Q105" s="11"/>
+      <c r="R105" s="11"/>
+      <c r="S105" s="11"/>
+      <c r="T105" s="11"/>
+      <c r="U105" s="11"/>
+      <c r="V105" s="11"/>
+      <c r="W105" s="11"/>
+      <c r="X105" s="11"/>
+      <c r="Y105" s="11"/>
     </row>
     <row r="106" spans="1:25" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="12"/>
-      <c r="B106" s="12"/>
-      <c r="C106" s="12"/>
-      <c r="D106" s="12"/>
-      <c r="E106" s="12"/>
-      <c r="F106" s="12"/>
-      <c r="G106" s="12"/>
-      <c r="H106" s="12"/>
-      <c r="I106" s="12"/>
-      <c r="J106" s="12"/>
-      <c r="K106" s="12"/>
-      <c r="L106" s="12"/>
-      <c r="M106" s="12"/>
-      <c r="N106" s="12"/>
-      <c r="O106" s="12"/>
-      <c r="P106" s="12"/>
-      <c r="Q106" s="12"/>
-      <c r="R106" s="12"/>
-      <c r="S106" s="12"/>
-      <c r="T106" s="12"/>
-      <c r="U106" s="12"/>
-      <c r="V106" s="12"/>
-      <c r="W106" s="12"/>
-      <c r="X106" s="12"/>
-      <c r="Y106" s="12"/>
+      <c r="A106" s="11"/>
+      <c r="B106" s="11"/>
+      <c r="C106" s="11"/>
+      <c r="D106" s="11"/>
+      <c r="E106" s="11"/>
+      <c r="F106" s="11"/>
+      <c r="G106" s="11"/>
+      <c r="H106" s="11"/>
+      <c r="I106" s="11"/>
+      <c r="J106" s="11"/>
+      <c r="K106" s="11"/>
+      <c r="L106" s="11"/>
+      <c r="M106" s="11"/>
+      <c r="N106" s="11"/>
+      <c r="O106" s="11"/>
+      <c r="P106" s="11"/>
+      <c r="Q106" s="11"/>
+      <c r="R106" s="11"/>
+      <c r="S106" s="11"/>
+      <c r="T106" s="11"/>
+      <c r="U106" s="11"/>
+      <c r="V106" s="11"/>
+      <c r="W106" s="11"/>
+      <c r="X106" s="11"/>
+      <c r="Y106" s="11"/>
     </row>
     <row r="107" spans="1:25" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="12"/>
-      <c r="B107" s="12"/>
-      <c r="C107" s="12"/>
-      <c r="D107" s="12"/>
-      <c r="E107" s="12"/>
-      <c r="F107" s="12"/>
-      <c r="G107" s="12"/>
-      <c r="H107" s="12"/>
-      <c r="I107" s="12"/>
-      <c r="J107" s="12"/>
-      <c r="K107" s="12"/>
-      <c r="L107" s="12"/>
-      <c r="M107" s="12"/>
-      <c r="N107" s="12"/>
-      <c r="O107" s="12"/>
-      <c r="P107" s="12"/>
-      <c r="Q107" s="12"/>
-      <c r="R107" s="12"/>
-      <c r="S107" s="12"/>
-      <c r="T107" s="12"/>
-      <c r="U107" s="12"/>
-      <c r="V107" s="12"/>
-      <c r="W107" s="12"/>
-      <c r="X107" s="12"/>
-      <c r="Y107" s="12"/>
+      <c r="A107" s="11"/>
+      <c r="B107" s="11"/>
+      <c r="C107" s="11"/>
+      <c r="D107" s="11"/>
+      <c r="E107" s="11"/>
+      <c r="F107" s="11"/>
+      <c r="G107" s="11"/>
+      <c r="H107" s="11"/>
+      <c r="I107" s="11"/>
+      <c r="J107" s="11"/>
+      <c r="K107" s="11"/>
+      <c r="L107" s="11"/>
+      <c r="M107" s="11"/>
+      <c r="N107" s="11"/>
+      <c r="O107" s="11"/>
+      <c r="P107" s="11"/>
+      <c r="Q107" s="11"/>
+      <c r="R107" s="11"/>
+      <c r="S107" s="11"/>
+      <c r="T107" s="11"/>
+      <c r="U107" s="11"/>
+      <c r="V107" s="11"/>
+      <c r="W107" s="11"/>
+      <c r="X107" s="11"/>
+      <c r="Y107" s="11"/>
     </row>
     <row r="108" spans="1:25" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="12"/>
-      <c r="B108" s="12"/>
-      <c r="C108" s="12"/>
-      <c r="D108" s="12"/>
-      <c r="E108" s="12"/>
-      <c r="F108" s="12"/>
-      <c r="G108" s="12"/>
-      <c r="H108" s="12"/>
-      <c r="I108" s="12"/>
-      <c r="J108" s="12"/>
-      <c r="K108" s="12"/>
-      <c r="L108" s="12"/>
-      <c r="M108" s="12"/>
-      <c r="N108" s="12"/>
-      <c r="O108" s="12"/>
-      <c r="P108" s="12"/>
-      <c r="Q108" s="12"/>
-      <c r="R108" s="12"/>
-      <c r="S108" s="12"/>
-      <c r="T108" s="12"/>
-      <c r="U108" s="12"/>
-      <c r="V108" s="12"/>
-      <c r="W108" s="12"/>
-      <c r="X108" s="12"/>
-      <c r="Y108" s="12"/>
+      <c r="A108" s="11"/>
+      <c r="B108" s="11"/>
+      <c r="C108" s="11"/>
+      <c r="D108" s="11"/>
+      <c r="E108" s="11"/>
+      <c r="F108" s="11"/>
+      <c r="G108" s="11"/>
+      <c r="H108" s="11"/>
+      <c r="I108" s="11"/>
+      <c r="J108" s="11"/>
+      <c r="K108" s="11"/>
+      <c r="L108" s="11"/>
+      <c r="M108" s="11"/>
+      <c r="N108" s="11"/>
+      <c r="O108" s="11"/>
+      <c r="P108" s="11"/>
+      <c r="Q108" s="11"/>
+      <c r="R108" s="11"/>
+      <c r="S108" s="11"/>
+      <c r="T108" s="11"/>
+      <c r="U108" s="11"/>
+      <c r="V108" s="11"/>
+      <c r="W108" s="11"/>
+      <c r="X108" s="11"/>
+      <c r="Y108" s="11"/>
     </row>
     <row r="109" spans="1:25" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="12"/>
-      <c r="B109" s="12"/>
-      <c r="C109" s="12"/>
-      <c r="D109" s="12"/>
-      <c r="E109" s="12"/>
-      <c r="F109" s="12"/>
-      <c r="G109" s="12"/>
-      <c r="H109" s="12"/>
-      <c r="I109" s="12"/>
-      <c r="J109" s="12"/>
-      <c r="K109" s="12"/>
-      <c r="L109" s="12"/>
-      <c r="M109" s="12"/>
-      <c r="N109" s="12"/>
-      <c r="O109" s="12"/>
-      <c r="P109" s="12"/>
-      <c r="Q109" s="12"/>
-      <c r="R109" s="12"/>
-      <c r="S109" s="12"/>
-      <c r="T109" s="12"/>
-      <c r="U109" s="12"/>
-      <c r="V109" s="12"/>
-      <c r="W109" s="12"/>
-      <c r="X109" s="12"/>
-      <c r="Y109" s="12"/>
+      <c r="A109" s="11"/>
+      <c r="B109" s="11"/>
+      <c r="C109" s="11"/>
+      <c r="D109" s="11"/>
+      <c r="E109" s="11"/>
+      <c r="F109" s="11"/>
+      <c r="G109" s="11"/>
+      <c r="H109" s="11"/>
+      <c r="I109" s="11"/>
+      <c r="J109" s="11"/>
+      <c r="K109" s="11"/>
+      <c r="L109" s="11"/>
+      <c r="M109" s="11"/>
+      <c r="N109" s="11"/>
+      <c r="O109" s="11"/>
+      <c r="P109" s="11"/>
+      <c r="Q109" s="11"/>
+      <c r="R109" s="11"/>
+      <c r="S109" s="11"/>
+      <c r="T109" s="11"/>
+      <c r="U109" s="11"/>
+      <c r="V109" s="11"/>
+      <c r="W109" s="11"/>
+      <c r="X109" s="11"/>
+      <c r="Y109" s="11"/>
     </row>
     <row r="110" spans="1:25" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="111" spans="1:25" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -27513,8 +27612,9 @@
     <row r="250" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="251" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:Y10"/>
+    <mergeCell ref="A11:Y74"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
